--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA2D657-C84C-4DF6-89ED-0A25E1C3DC4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E55FB-44B6-400E-82D8-14FA9865386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="590">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="616">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2309,6 +2309,104 @@
   </si>
   <si>
     <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b93</t>
+  </si>
+  <si>
+    <t>b94</t>
+  </si>
+  <si>
+    <t>b95</t>
+  </si>
+  <si>
+    <t>9009,9009,1288,9009,9009,7134,9009,9009,7124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009,9009,1289,9009,9009,7135,9009,9009,7125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9009,9009,1290,9009,9009,7136,9009,9009,7126</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b96</t>
+  </si>
+  <si>
+    <t>9009,9009,8724,9009,9009,8725,9009,9009,8726,9009,9009,8727,9009,9009,8728</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아드라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9012,9012,9012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b97</t>
+  </si>
+  <si>
+    <t>황룡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10긍,1갈,1000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수미숲 지키미</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300갈,500갈,700갈,900갈,1100갈,1300갈,1500갈,1700갈,2000갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000갈,3500갈,4000갈,5000갈,6000갈,7000갈,8000갈,9000갈,1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2라,2라3000갈,2라6000갈,2라9000갈,3라2000갈,3라5000갈,4라,4라5000갈,5라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500갈,750갈,1000갈,1500갈,2000갈,3000갈,3500갈,4000갈,5000갈,6000갈,8000갈,1라,1라5000갈,2라,3라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3,1,3,3,1,3,3,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,2,2,1,2,2,1,2,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,230000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,260000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,290000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,320000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2473,7 +2571,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2631,6 +2729,15 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2952,11 +3059,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T94"/>
+  <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P76" sqref="P76"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6916,7 +7023,7 @@
       </c>
       <c r="Q76" s="14"/>
     </row>
-    <row r="77" spans="1:17" s="27" customFormat="1" ht="264" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -7814,6 +7921,256 @@
       </c>
       <c r="P94" s="29" t="s">
         <v>571</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C95" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="E95" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F95" s="29">
+        <v>4E+18</v>
+      </c>
+      <c r="G95" s="29">
+        <v>300000000000</v>
+      </c>
+      <c r="H95" s="30">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I95" s="27">
+        <v>500000</v>
+      </c>
+      <c r="J95" s="29">
+        <v>20000000000</v>
+      </c>
+      <c r="K95" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="29">
+        <v>10</v>
+      </c>
+      <c r="M95" s="31" t="s">
+        <v>612</v>
+      </c>
+      <c r="N95" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="O95" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="P95" s="29" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C96" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="E96" s="28" t="s">
+        <v>182</v>
+      </c>
+      <c r="F96" s="29">
+        <v>4E+18</v>
+      </c>
+      <c r="G96" s="29">
+        <v>300000000000</v>
+      </c>
+      <c r="H96" s="30">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I96" s="27">
+        <v>500000</v>
+      </c>
+      <c r="J96" s="29">
+        <v>20000000000</v>
+      </c>
+      <c r="K96" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="29">
+        <v>10</v>
+      </c>
+      <c r="M96" s="31" t="s">
+        <v>613</v>
+      </c>
+      <c r="N96" s="34" t="s">
+        <v>594</v>
+      </c>
+      <c r="O96" s="31" t="s">
+        <v>567</v>
+      </c>
+      <c r="P96" s="29" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C97" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="E97" s="28" t="s">
+        <v>598</v>
+      </c>
+      <c r="F97" s="29">
+        <v>4E+18</v>
+      </c>
+      <c r="G97" s="29">
+        <v>300000000000</v>
+      </c>
+      <c r="H97" s="30">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I97" s="27">
+        <v>500000</v>
+      </c>
+      <c r="J97" s="29">
+        <v>20000000000</v>
+      </c>
+      <c r="K97" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="29">
+        <v>10</v>
+      </c>
+      <c r="M97" s="31" t="s">
+        <v>614</v>
+      </c>
+      <c r="N97" s="34" t="s">
+        <v>595</v>
+      </c>
+      <c r="O97" s="31" t="s">
+        <v>610</v>
+      </c>
+      <c r="P97" s="29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C98" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="F98" s="10">
+        <v>4E+18</v>
+      </c>
+      <c r="G98" s="10">
+        <v>300000000000</v>
+      </c>
+      <c r="H98" s="11">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I98">
+        <v>500000</v>
+      </c>
+      <c r="J98" s="10">
+        <v>20000000000</v>
+      </c>
+      <c r="K98" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L98" s="10">
+        <v>10</v>
+      </c>
+      <c r="M98" s="31" t="s">
+        <v>615</v>
+      </c>
+      <c r="N98" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="O98" s="31" t="s">
+        <v>611</v>
+      </c>
+      <c r="P98" s="29" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F99" s="10">
+        <v>4E+18</v>
+      </c>
+      <c r="G99" s="10">
+        <v>300000000000</v>
+      </c>
+      <c r="H99" s="11">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I99">
+        <v>500000</v>
+      </c>
+      <c r="J99" s="10">
+        <v>20000000000</v>
+      </c>
+      <c r="K99" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="L99" s="10">
+        <v>10</v>
+      </c>
+      <c r="M99" s="53" t="s">
+        <v>604</v>
+      </c>
+      <c r="N99" s="52" t="s">
+        <v>599</v>
+      </c>
+      <c r="O99" s="53" t="s">
+        <v>600</v>
+      </c>
+      <c r="P99" s="54" t="s">
+        <v>603</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E67E55FB-44B6-400E-82D8-14FA9865386C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F4630-2BE2-4E29-952D-121BE4223357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -2224,10 +2224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2248,70 +2244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b93</t>
   </si>
   <si>
@@ -2407,6 +2339,74 @@
   </si>
   <si>
     <t>5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2464,9 +2464,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
-      <family val="3"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -2505,14 +2505,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -2551,7 +2551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2564,10 +2564,13 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2638,47 +2641,29 @@
     <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="4">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyBorder="1">
+    <xf numFmtId="11" fontId="5" fillId="6" borderId="0" xfId="4" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="11" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="5" fillId="5" borderId="0" xfId="4" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="6" borderId="0" xfId="5" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="4" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="5" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyFont="1">
@@ -2687,63 +2672,82 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="11" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="4" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="0" xfId="6" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="5" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="5" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="강조색1" xfId="5" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="4" builtinId="33"/>
+  <cellStyles count="7">
+    <cellStyle name="60% - 강조색6" xfId="6" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="4" builtinId="29"/>
+    <cellStyle name="경고문" xfId="5" builtinId="11"/>
     <cellStyle name="나쁨" xfId="2" builtinId="27"/>
     <cellStyle name="메모" xfId="3" builtinId="10"/>
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
@@ -3061,9 +3065,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M99" sqref="M99"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3759,59 +3763,59 @@
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+    <row r="14" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="47">
         <v>12</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="23">
-        <v>4E+18</v>
-      </c>
-      <c r="G14" s="23">
-        <v>300000000000</v>
-      </c>
-      <c r="H14" s="24">
+      <c r="F14" s="49">
+        <v>4E+18</v>
+      </c>
+      <c r="G14" s="49">
+        <v>300000000000</v>
+      </c>
+      <c r="H14" s="50">
         <v>2.0000000000000001E+36</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="47">
         <v>500000</v>
       </c>
-      <c r="J14" s="23">
+      <c r="J14" s="49">
         <v>10000000000</v>
       </c>
-      <c r="K14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <v>10</v>
-      </c>
-      <c r="M14" s="25" t="s">
-        <v>585</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>582</v>
-      </c>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="K14" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="49">
+        <v>10</v>
+      </c>
+      <c r="M14" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>604</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="P14" s="49" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -5759,59 +5763,59 @@
         <v>340</v>
       </c>
     </row>
-    <row r="52" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="22">
+    <row r="52" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="42">
         <v>50</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="42" t="s">
         <v>330</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="D52" s="22" t="s">
+      <c r="D52" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="E52" s="22" t="s">
+      <c r="E52" s="42" t="s">
         <v>331</v>
       </c>
-      <c r="F52" s="23">
-        <v>4E+18</v>
-      </c>
-      <c r="G52" s="23">
-        <v>300000000000</v>
-      </c>
-      <c r="H52" s="24">
+      <c r="F52" s="44">
+        <v>4E+18</v>
+      </c>
+      <c r="G52" s="44">
+        <v>300000000000</v>
+      </c>
+      <c r="H52" s="45">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="42">
         <v>500000</v>
       </c>
-      <c r="J52" s="23">
+      <c r="J52" s="44">
         <v>20000000000</v>
       </c>
-      <c r="K52" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L52" s="23">
-        <v>10</v>
-      </c>
-      <c r="M52" s="25" t="s">
+      <c r="K52" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L52" s="44">
+        <v>10</v>
+      </c>
+      <c r="M52" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="N52" s="23" t="s">
+      <c r="N52" s="44" t="s">
         <v>338</v>
       </c>
-      <c r="O52" s="25" t="s">
+      <c r="O52" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="P52" s="23" t="s">
+      <c r="P52" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
+      <c r="Q52" s="44"/>
+      <c r="R52" s="44"/>
+      <c r="S52" s="44"/>
+      <c r="T52" s="44"/>
     </row>
     <row r="53" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53">
@@ -6021,54 +6025,54 @@
         <v>360</v>
       </c>
     </row>
-    <row r="57" spans="1:20" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+    <row r="57" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="47">
         <v>55</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="47" t="s">
         <v>362</v>
       </c>
-      <c r="C57" s="26" t="s">
+      <c r="C57" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="D57" s="26" t="s">
+      <c r="D57" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E57" s="48" t="s">
         <v>365</v>
       </c>
-      <c r="F57" s="23">
-        <v>4E+18</v>
-      </c>
-      <c r="G57" s="23">
-        <v>300000000000</v>
-      </c>
-      <c r="H57" s="24">
+      <c r="F57" s="49">
+        <v>4E+18</v>
+      </c>
+      <c r="G57" s="49">
+        <v>300000000000</v>
+      </c>
+      <c r="H57" s="50">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="47">
         <v>500000</v>
       </c>
-      <c r="J57" s="23">
+      <c r="J57" s="49">
         <v>20000000000</v>
       </c>
-      <c r="K57" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="L57" s="23">
-        <v>10</v>
-      </c>
-      <c r="M57" s="25" t="s">
-        <v>579</v>
-      </c>
-      <c r="N57" s="23" t="s">
-        <v>578</v>
-      </c>
-      <c r="O57" s="25" t="s">
-        <v>577</v>
-      </c>
-      <c r="P57" s="23" t="s">
-        <v>576</v>
+      <c r="K57" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" s="49">
+        <v>10</v>
+      </c>
+      <c r="M57" s="51" t="s">
+        <v>606</v>
+      </c>
+      <c r="N57" s="49" t="s">
+        <v>607</v>
+      </c>
+      <c r="O57" s="51" t="s">
+        <v>608</v>
+      </c>
+      <c r="P57" s="49" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6571,103 +6575,103 @@
         <v>389</v>
       </c>
     </row>
-    <row r="68" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="27">
+    <row r="68" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="22">
         <v>66</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="E68" s="28" t="s">
+      <c r="E68" s="23" t="s">
         <v>425</v>
       </c>
-      <c r="F68" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G68" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H68" s="30">
+      <c r="F68" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G68" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H68" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I68" s="27">
+      <c r="I68" s="22">
         <v>500000</v>
       </c>
-      <c r="J68" s="29">
+      <c r="J68" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K68" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L68" s="29">
-        <v>10</v>
-      </c>
-      <c r="M68" s="31" t="s">
+      <c r="K68" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" s="24">
+        <v>10</v>
+      </c>
+      <c r="M68" s="26" t="s">
         <v>420</v>
       </c>
-      <c r="N68" s="29" t="s">
+      <c r="N68" s="24" t="s">
         <v>417</v>
       </c>
-      <c r="O68" s="31" t="s">
+      <c r="O68" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="P68" s="29" t="s">
+      <c r="P68" s="24" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="69" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="27">
+    <row r="69" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="22">
         <v>67</v>
       </c>
-      <c r="B69" s="27" t="s">
+      <c r="B69" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="E69" s="28" t="s">
+      <c r="E69" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="F69" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G69" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H69" s="30">
+      <c r="F69" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G69" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H69" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I69" s="27">
+      <c r="I69" s="22">
         <v>500000</v>
       </c>
-      <c r="J69" s="29">
+      <c r="J69" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K69" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L69" s="29">
-        <v>10</v>
-      </c>
-      <c r="M69" s="31" t="s">
+      <c r="K69" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L69" s="24">
+        <v>10</v>
+      </c>
+      <c r="M69" s="26" t="s">
         <v>424</v>
       </c>
-      <c r="N69" s="29" t="s">
+      <c r="N69" s="24" t="s">
         <v>416</v>
       </c>
-      <c r="O69" s="31" t="s">
+      <c r="O69" s="26" t="s">
         <v>422</v>
       </c>
-      <c r="P69" s="29" t="s">
+      <c r="P69" s="24" t="s">
         <v>423</v>
       </c>
     </row>
@@ -6711,7 +6715,7 @@
       <c r="M70" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="N70" s="32" t="s">
+      <c r="N70" s="27" t="s">
         <v>543</v>
       </c>
       <c r="O70" s="20" t="s">
@@ -6721,153 +6725,153 @@
         <v>544</v>
       </c>
     </row>
-    <row r="71" spans="1:17" s="44" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="38">
+    <row r="71" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="42">
         <v>69</v>
       </c>
-      <c r="B71" s="38" t="s">
+      <c r="B71" s="42" t="s">
         <v>411</v>
       </c>
-      <c r="C71" s="39" t="s">
+      <c r="C71" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="43" t="s">
         <v>438</v>
       </c>
-      <c r="F71" s="40">
-        <v>4E+18</v>
-      </c>
-      <c r="G71" s="40">
-        <v>300000000000</v>
-      </c>
-      <c r="H71" s="41">
+      <c r="F71" s="44">
+        <v>4E+18</v>
+      </c>
+      <c r="G71" s="44">
+        <v>300000000000</v>
+      </c>
+      <c r="H71" s="45">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I71" s="38">
+      <c r="I71" s="42">
         <v>500000</v>
       </c>
-      <c r="J71" s="40">
+      <c r="J71" s="44">
         <v>20000000000</v>
       </c>
-      <c r="K71" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="L71" s="40">
-        <v>10</v>
-      </c>
-      <c r="M71" s="42" t="s">
+      <c r="K71" s="44" t="b">
+        <v>0</v>
+      </c>
+      <c r="L71" s="44">
+        <v>10</v>
+      </c>
+      <c r="M71" s="46" t="s">
         <v>531</v>
       </c>
-      <c r="N71" s="43" t="s">
+      <c r="N71" s="54" t="s">
         <v>530</v>
       </c>
-      <c r="O71" s="42" t="s">
+      <c r="O71" s="46" t="s">
         <v>529</v>
       </c>
-      <c r="P71" s="42" t="s">
+      <c r="P71" s="46" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="72" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E72" s="28" t="s">
+      <c r="E72" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="F72" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G72" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H72" s="30">
+      <c r="F72" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G72" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H72" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I72" s="27">
+      <c r="I72" s="22">
         <v>500000</v>
       </c>
-      <c r="J72" s="29">
+      <c r="J72" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K72" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L72" s="29">
-        <v>10</v>
-      </c>
-      <c r="M72" s="31" t="s">
+      <c r="K72" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L72" s="24">
+        <v>10</v>
+      </c>
+      <c r="M72" s="26" t="s">
         <v>453</v>
       </c>
-      <c r="N72" s="29" t="s">
+      <c r="N72" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="O72" s="31" t="s">
+      <c r="O72" s="26" t="s">
         <v>442</v>
       </c>
-      <c r="P72" s="29" t="s">
+      <c r="P72" s="24" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="73" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="E73" s="28" t="s">
+      <c r="E73" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="F73" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G73" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H73" s="30">
+      <c r="F73" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G73" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H73" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I73" s="27">
+      <c r="I73" s="22">
         <v>500000</v>
       </c>
-      <c r="J73" s="29">
+      <c r="J73" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K73" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L73" s="29">
-        <v>10</v>
-      </c>
-      <c r="M73" s="31" t="s">
+      <c r="K73" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L73" s="24">
+        <v>10</v>
+      </c>
+      <c r="M73" s="26" t="s">
         <v>455</v>
       </c>
-      <c r="N73" s="29" t="s">
+      <c r="N73" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="O73" s="31" t="s">
+      <c r="O73" s="26" t="s">
         <v>443</v>
       </c>
-      <c r="P73" s="29" t="s">
+      <c r="P73" s="24" t="s">
         <v>454</v>
       </c>
     </row>
@@ -6921,355 +6925,355 @@
         <v>456</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
+    <row r="75" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="47">
         <v>73</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="47" t="s">
         <v>437</v>
       </c>
-      <c r="C75" s="4" t="s">
+      <c r="C75" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="D75" s="4" t="s">
+      <c r="D75" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="E75" s="4" t="s">
+      <c r="E75" s="48" t="s">
         <v>441</v>
       </c>
-      <c r="F75" s="14">
-        <v>4E+18</v>
-      </c>
-      <c r="G75" s="14">
-        <v>300000000000</v>
-      </c>
-      <c r="H75" s="15">
+      <c r="F75" s="49">
+        <v>4E+18</v>
+      </c>
+      <c r="G75" s="49">
+        <v>300000000000</v>
+      </c>
+      <c r="H75" s="50">
         <v>2.0000000000000001E+36</v>
       </c>
-      <c r="I75" s="6">
+      <c r="I75" s="47">
         <v>500000</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J75" s="49">
         <v>10000000000</v>
       </c>
-      <c r="K75" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L75" s="14">
-        <v>10</v>
-      </c>
-      <c r="M75" s="16" t="s">
-        <v>586</v>
-      </c>
-      <c r="N75" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="O75" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="P75" s="14" t="s">
-        <v>589</v>
-      </c>
-      <c r="Q75" s="14"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
+      <c r="K75" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" s="49">
+        <v>10</v>
+      </c>
+      <c r="M75" s="51" t="s">
+        <v>615</v>
+      </c>
+      <c r="N75" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="O75" s="53" t="s">
+        <v>611</v>
+      </c>
+      <c r="P75" s="49" t="s">
+        <v>614</v>
+      </c>
+      <c r="Q75" s="49"/>
+    </row>
+    <row r="76" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="47">
         <v>74</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="47" t="s">
         <v>458</v>
       </c>
-      <c r="C76" s="4" t="s">
+      <c r="C76" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="E76" s="4" t="s">
+      <c r="E76" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="F76" s="14">
-        <v>4E+18</v>
-      </c>
-      <c r="G76" s="14">
-        <v>300000000000</v>
-      </c>
-      <c r="H76" s="15">
+      <c r="F76" s="49">
+        <v>4E+18</v>
+      </c>
+      <c r="G76" s="49">
+        <v>300000000000</v>
+      </c>
+      <c r="H76" s="50">
         <v>2.0000000000000001E+36</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="47">
         <v>500000</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J76" s="49">
         <v>10000000000</v>
       </c>
-      <c r="K76" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="L76" s="14">
-        <v>10</v>
-      </c>
-      <c r="M76" s="16" t="s">
-        <v>581</v>
-      </c>
-      <c r="N76" s="14" t="s">
-        <v>587</v>
-      </c>
-      <c r="O76" s="33" t="s">
-        <v>588</v>
-      </c>
-      <c r="P76" s="14" t="s">
-        <v>580</v>
-      </c>
-      <c r="Q76" s="14"/>
-    </row>
-    <row r="77" spans="1:17" s="27" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K76" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L76" s="49">
+        <v>10</v>
+      </c>
+      <c r="M76" s="51" t="s">
+        <v>613</v>
+      </c>
+      <c r="N76" s="49" t="s">
+        <v>612</v>
+      </c>
+      <c r="O76" s="53" t="s">
+        <v>611</v>
+      </c>
+      <c r="P76" s="49" t="s">
+        <v>610</v>
+      </c>
+      <c r="Q76" s="49"/>
+    </row>
+    <row r="77" spans="1:17" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>460</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="E77" s="28" t="s">
+      <c r="E77" s="23" t="s">
         <v>466</v>
       </c>
-      <c r="F77" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G77" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H77" s="30">
+      <c r="F77" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G77" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H77" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I77" s="27">
+      <c r="I77" s="22">
         <v>500000</v>
       </c>
-      <c r="J77" s="29">
+      <c r="J77" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K77" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L77" s="29">
-        <v>10</v>
-      </c>
-      <c r="M77" s="35" t="s">
+      <c r="K77" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L77" s="24">
+        <v>10</v>
+      </c>
+      <c r="M77" s="29" t="s">
         <v>477</v>
       </c>
-      <c r="N77" s="34" t="s">
+      <c r="N77" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="O77" s="31" t="s">
+      <c r="O77" s="26" t="s">
         <v>469</v>
       </c>
-      <c r="P77" s="29" t="s">
+      <c r="P77" s="24" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="78" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="E78" s="28" t="s">
+      <c r="E78" s="23" t="s">
         <v>467</v>
       </c>
-      <c r="F78" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G78" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H78" s="30">
+      <c r="F78" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G78" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H78" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I78" s="27">
+      <c r="I78" s="22">
         <v>500000</v>
       </c>
-      <c r="J78" s="29">
+      <c r="J78" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K78" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="29">
-        <v>10</v>
-      </c>
-      <c r="M78" s="31" t="s">
+      <c r="K78" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="24">
+        <v>10</v>
+      </c>
+      <c r="M78" s="26" t="s">
         <v>474</v>
       </c>
-      <c r="N78" s="34" t="s">
+      <c r="N78" s="28" t="s">
         <v>464</v>
       </c>
-      <c r="O78" s="31" t="s">
+      <c r="O78" s="26" t="s">
         <v>470</v>
       </c>
-      <c r="P78" s="29" t="s">
+      <c r="P78" s="24" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="79" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="E79" s="28" t="s">
+      <c r="E79" s="23" t="s">
         <v>468</v>
       </c>
-      <c r="F79" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G79" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H79" s="30">
+      <c r="F79" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G79" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H79" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I79" s="27">
+      <c r="I79" s="22">
         <v>500000</v>
       </c>
-      <c r="J79" s="29">
+      <c r="J79" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K79" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="29">
-        <v>10</v>
-      </c>
-      <c r="M79" s="31" t="s">
+      <c r="K79" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="24">
+        <v>10</v>
+      </c>
+      <c r="M79" s="26" t="s">
         <v>476</v>
       </c>
-      <c r="N79" s="34" t="s">
+      <c r="N79" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="O79" s="31" t="s">
+      <c r="O79" s="26" t="s">
         <v>471</v>
       </c>
-      <c r="P79" s="29" t="s">
+      <c r="P79" s="24" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="80" spans="1:17" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C80" s="28" t="s">
+      <c r="C80" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="D80" s="28" t="s">
+      <c r="D80" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="E80" s="28" t="s">
+      <c r="E80" s="23" t="s">
         <v>484</v>
       </c>
-      <c r="F80" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G80" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H80" s="30">
+      <c r="F80" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G80" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H80" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I80" s="27">
+      <c r="I80" s="22">
         <v>500000</v>
       </c>
-      <c r="J80" s="29">
+      <c r="J80" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K80" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="29">
-        <v>10</v>
-      </c>
-      <c r="M80" s="31" t="s">
+      <c r="K80" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="24">
+        <v>10</v>
+      </c>
+      <c r="M80" s="26" t="s">
         <v>487</v>
       </c>
-      <c r="N80" s="34" t="s">
+      <c r="N80" s="28" t="s">
         <v>480</v>
       </c>
-      <c r="O80" s="31" t="s">
+      <c r="O80" s="26" t="s">
         <v>482</v>
       </c>
-      <c r="P80" s="29" t="s">
+      <c r="P80" s="24" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="81" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>479</v>
       </c>
-      <c r="C81" s="28" t="s">
+      <c r="C81" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="E81" s="28" t="s">
+      <c r="E81" s="23" t="s">
         <v>485</v>
       </c>
-      <c r="F81" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G81" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H81" s="30">
+      <c r="F81" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G81" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H81" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I81" s="27">
+      <c r="I81" s="22">
         <v>500000</v>
       </c>
-      <c r="J81" s="29">
+      <c r="J81" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K81" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L81" s="29">
-        <v>10</v>
-      </c>
-      <c r="M81" s="31" t="s">
+      <c r="K81" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L81" s="24">
+        <v>10</v>
+      </c>
+      <c r="M81" s="26" t="s">
         <v>489</v>
       </c>
-      <c r="N81" s="34" t="s">
+      <c r="N81" s="28" t="s">
         <v>481</v>
       </c>
-      <c r="O81" s="31" t="s">
+      <c r="O81" s="26" t="s">
         <v>483</v>
       </c>
-      <c r="P81" s="29" t="s">
+      <c r="P81" s="24" t="s">
         <v>488</v>
       </c>
     </row>
@@ -7280,46 +7284,46 @@
       <c r="B82" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="E82" s="28" t="s">
+      <c r="E82" s="23" t="s">
         <v>499</v>
       </c>
-      <c r="F82" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G82" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H82" s="30">
+      <c r="F82" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G82" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H82" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I82" s="27">
+      <c r="I82" s="22">
         <v>500000</v>
       </c>
-      <c r="J82" s="29">
+      <c r="J82" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K82" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L82" s="29">
-        <v>10</v>
-      </c>
-      <c r="M82" s="31" t="s">
+      <c r="K82" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L82" s="24">
+        <v>10</v>
+      </c>
+      <c r="M82" s="26" t="s">
         <v>502</v>
       </c>
-      <c r="N82" s="34" t="s">
+      <c r="N82" s="28" t="s">
         <v>494</v>
       </c>
-      <c r="O82" s="31" t="s">
+      <c r="O82" s="26" t="s">
         <v>492</v>
       </c>
-      <c r="P82" s="29" t="s">
+      <c r="P82" s="24" t="s">
         <v>501</v>
       </c>
     </row>
@@ -7330,46 +7334,46 @@
       <c r="B83" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C83" s="28" t="s">
+      <c r="C83" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="D83" s="28" t="s">
+      <c r="D83" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="E83" s="28" t="s">
+      <c r="E83" s="23" t="s">
         <v>500</v>
       </c>
-      <c r="F83" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G83" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H83" s="30">
+      <c r="F83" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G83" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H83" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I83" s="27">
+      <c r="I83" s="22">
         <v>500000</v>
       </c>
-      <c r="J83" s="29">
+      <c r="J83" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K83" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L83" s="29">
-        <v>10</v>
-      </c>
-      <c r="M83" s="31" t="s">
+      <c r="K83" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L83" s="24">
+        <v>10</v>
+      </c>
+      <c r="M83" s="26" t="s">
         <v>506</v>
       </c>
-      <c r="N83" s="34" t="s">
+      <c r="N83" s="28" t="s">
         <v>495</v>
       </c>
-      <c r="O83" s="31" t="s">
+      <c r="O83" s="26" t="s">
         <v>493</v>
       </c>
-      <c r="P83" s="29" t="s">
+      <c r="P83" s="24" t="s">
         <v>505</v>
       </c>
     </row>
@@ -7413,7 +7417,7 @@
       <c r="M84" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="N84" s="36" t="s">
+      <c r="N84" s="30" t="s">
         <v>498</v>
       </c>
       <c r="O84" s="12" t="s">
@@ -7460,166 +7464,166 @@
       <c r="L85" s="10">
         <v>10</v>
       </c>
-      <c r="M85" s="37" t="s">
+      <c r="M85" s="31" t="s">
         <v>515</v>
       </c>
-      <c r="N85" s="36" t="s">
+      <c r="N85" s="30" t="s">
         <v>513</v>
       </c>
-      <c r="O85" s="37" t="s">
+      <c r="O85" s="31" t="s">
         <v>512</v>
       </c>
-      <c r="P85" s="36" t="s">
+      <c r="P85" s="30" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="86" spans="1:16" s="51" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C86" s="46" t="s">
+      <c r="C86" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="D86" s="46" t="s">
+      <c r="D86" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="E86" s="46" t="s">
+      <c r="E86" s="33" t="s">
         <v>510</v>
       </c>
-      <c r="F86" s="47">
-        <v>4E+18</v>
-      </c>
-      <c r="G86" s="47">
-        <v>300000000000</v>
-      </c>
-      <c r="H86" s="48">
+      <c r="F86" s="34">
+        <v>4E+18</v>
+      </c>
+      <c r="G86" s="34">
+        <v>300000000000</v>
+      </c>
+      <c r="H86" s="35">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I86" s="45">
+      <c r="I86" s="32">
         <v>500000</v>
       </c>
-      <c r="J86" s="47">
+      <c r="J86" s="34">
         <v>20000000000</v>
       </c>
-      <c r="K86" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="L86" s="47">
-        <v>10</v>
-      </c>
-      <c r="M86" s="49" t="s">
+      <c r="K86" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="L86" s="34">
+        <v>10</v>
+      </c>
+      <c r="M86" s="36" t="s">
         <v>527</v>
       </c>
-      <c r="N86" s="50" t="s">
+      <c r="N86" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="O86" s="49" t="s">
+      <c r="O86" s="36" t="s">
         <v>525</v>
       </c>
-      <c r="P86" s="49" t="s">
+      <c r="P86" s="36" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="87" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>516</v>
       </c>
-      <c r="C87" s="28" t="s">
+      <c r="C87" s="23" t="s">
         <v>523</v>
       </c>
-      <c r="D87" s="28" t="s">
+      <c r="D87" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="E87" s="28" t="s">
+      <c r="E87" s="23" t="s">
         <v>521</v>
       </c>
-      <c r="F87" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G87" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H87" s="30">
+      <c r="F87" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G87" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H87" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I87" s="27">
+      <c r="I87" s="22">
         <v>500000</v>
       </c>
-      <c r="J87" s="29">
+      <c r="J87" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K87" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L87" s="29">
-        <v>10</v>
-      </c>
-      <c r="M87" s="31" t="s">
+      <c r="K87" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L87" s="24">
+        <v>10</v>
+      </c>
+      <c r="M87" s="26" t="s">
         <v>534</v>
       </c>
-      <c r="N87" s="34" t="s">
+      <c r="N87" s="28" t="s">
         <v>520</v>
       </c>
-      <c r="O87" s="31" t="s">
+      <c r="O87" s="26" t="s">
         <v>532</v>
       </c>
-      <c r="P87" s="29" t="s">
+      <c r="P87" s="24" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="88" spans="1:16" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>517</v>
       </c>
-      <c r="C88" s="28" t="s">
+      <c r="C88" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="D88" s="28" t="s">
+      <c r="D88" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="E88" s="28" t="s">
+      <c r="E88" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="F88" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G88" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H88" s="30">
+      <c r="F88" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G88" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H88" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I88" s="27">
+      <c r="I88" s="22">
         <v>500000</v>
       </c>
-      <c r="J88" s="29">
+      <c r="J88" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K88" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L88" s="29">
-        <v>10</v>
-      </c>
-      <c r="M88" s="31" t="s">
+      <c r="K88" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L88" s="24">
+        <v>10</v>
+      </c>
+      <c r="M88" s="26" t="s">
         <v>538</v>
       </c>
-      <c r="N88" s="34" t="s">
+      <c r="N88" s="28" t="s">
         <v>537</v>
       </c>
-      <c r="O88" s="31" t="s">
+      <c r="O88" s="26" t="s">
         <v>535</v>
       </c>
-      <c r="P88" s="29" t="s">
+      <c r="P88" s="24" t="s">
         <v>536</v>
       </c>
     </row>
@@ -7630,46 +7634,46 @@
       <c r="B89" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="E89" s="28" t="s">
+      <c r="E89" s="23" t="s">
         <v>519</v>
       </c>
-      <c r="F89" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G89" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H89" s="30">
+      <c r="F89" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G89" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H89" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I89" s="27">
+      <c r="I89" s="22">
         <v>500000</v>
       </c>
-      <c r="J89" s="29">
+      <c r="J89" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K89" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L89" s="29">
-        <v>10</v>
-      </c>
-      <c r="M89" s="31" t="s">
+      <c r="K89" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L89" s="24">
+        <v>10</v>
+      </c>
+      <c r="M89" s="26" t="s">
         <v>560</v>
       </c>
-      <c r="N89" s="34" t="s">
+      <c r="N89" s="28" t="s">
         <v>553</v>
       </c>
-      <c r="O89" s="31" t="s">
+      <c r="O89" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="P89" s="29" t="s">
+      <c r="P89" s="24" t="s">
         <v>558</v>
       </c>
     </row>
@@ -7680,46 +7684,46 @@
       <c r="B90" s="3" t="s">
         <v>545</v>
       </c>
-      <c r="C90" s="28" t="s">
+      <c r="C90" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="D90" s="28" t="s">
+      <c r="D90" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="E90" s="28" t="s">
+      <c r="E90" s="23" t="s">
         <v>546</v>
       </c>
-      <c r="F90" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G90" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H90" s="30">
+      <c r="F90" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G90" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H90" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I90" s="27">
+      <c r="I90" s="22">
         <v>500000</v>
       </c>
-      <c r="J90" s="29">
+      <c r="J90" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K90" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L90" s="29">
-        <v>10</v>
-      </c>
-      <c r="M90" s="31" t="s">
+      <c r="K90" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L90" s="24">
+        <v>10</v>
+      </c>
+      <c r="M90" s="26" t="s">
         <v>561</v>
       </c>
-      <c r="N90" s="34" t="s">
+      <c r="N90" s="28" t="s">
         <v>554</v>
       </c>
-      <c r="O90" s="31" t="s">
+      <c r="O90" s="26" t="s">
         <v>557</v>
       </c>
-      <c r="P90" s="29" t="s">
+      <c r="P90" s="24" t="s">
         <v>559</v>
       </c>
     </row>
@@ -7730,46 +7734,46 @@
       <c r="B91" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C91" s="28" t="s">
+      <c r="C91" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="D91" s="28" t="s">
+      <c r="D91" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="E91" s="28" t="s">
+      <c r="E91" s="23" t="s">
         <v>549</v>
       </c>
-      <c r="F91" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G91" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H91" s="30">
+      <c r="F91" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G91" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H91" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I91" s="27">
+      <c r="I91" s="22">
         <v>500000</v>
       </c>
-      <c r="J91" s="29">
+      <c r="J91" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K91" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L91" s="29">
-        <v>10</v>
-      </c>
-      <c r="M91" s="31" t="s">
-        <v>569</v>
-      </c>
-      <c r="N91" s="34" t="s">
+      <c r="K91" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L91" s="24">
+        <v>10</v>
+      </c>
+      <c r="M91" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="N91" s="28" t="s">
         <v>555</v>
       </c>
-      <c r="O91" s="31" t="s">
+      <c r="O91" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="P91" s="29" t="s">
+      <c r="P91" s="24" t="s">
         <v>565</v>
       </c>
     </row>
@@ -7780,97 +7784,97 @@
       <c r="B92" s="3" t="s">
         <v>548</v>
       </c>
-      <c r="C92" s="28" t="s">
+      <c r="C92" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="E92" s="28" t="s">
+      <c r="E92" s="23" t="s">
         <v>550</v>
       </c>
-      <c r="F92" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G92" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H92" s="30">
+      <c r="F92" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G92" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H92" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I92" s="27">
+      <c r="I92" s="22">
         <v>500000</v>
       </c>
-      <c r="J92" s="29">
+      <c r="J92" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K92" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L92" s="29">
-        <v>10</v>
-      </c>
-      <c r="M92" s="31" t="s">
-        <v>572</v>
-      </c>
-      <c r="N92" s="34" t="s">
+      <c r="K92" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L92" s="24">
+        <v>10</v>
+      </c>
+      <c r="M92" s="26" t="s">
+        <v>571</v>
+      </c>
+      <c r="N92" s="28" t="s">
         <v>556</v>
       </c>
-      <c r="O92" s="31" t="s">
+      <c r="O92" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="P92" s="29" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
+      <c r="P92" s="24" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="47">
         <v>91</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="47" t="s">
         <v>552</v>
       </c>
-      <c r="C93" s="28" t="s">
+      <c r="C93" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="D93" s="28" t="s">
+      <c r="D93" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="E93" s="28" t="s">
+      <c r="E93" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="F93" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G93" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H93" s="30">
+      <c r="F93" s="49">
+        <v>4E+18</v>
+      </c>
+      <c r="G93" s="49">
+        <v>300000000000</v>
+      </c>
+      <c r="H93" s="50">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I93" s="27">
+      <c r="I93" s="47">
         <v>500000</v>
       </c>
-      <c r="J93" s="29">
+      <c r="J93" s="49">
         <v>20000000000</v>
       </c>
-      <c r="K93" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L93" s="29">
-        <v>10</v>
-      </c>
-      <c r="M93" s="31" t="s">
-        <v>568</v>
-      </c>
-      <c r="N93" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="O93" s="31" t="s">
-        <v>575</v>
-      </c>
-      <c r="P93" s="29" t="s">
-        <v>568</v>
+      <c r="K93" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L93" s="49">
+        <v>10</v>
+      </c>
+      <c r="M93" s="51" t="s">
+        <v>599</v>
+      </c>
+      <c r="N93" s="52" t="s">
+        <v>600</v>
+      </c>
+      <c r="O93" s="51" t="s">
+        <v>601</v>
+      </c>
+      <c r="P93" s="49" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
@@ -7910,17 +7914,17 @@
       <c r="L94" s="10">
         <v>10</v>
       </c>
-      <c r="M94" s="31" t="s">
-        <v>573</v>
-      </c>
-      <c r="N94" s="34" t="s">
+      <c r="M94" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="N94" s="28" t="s">
         <v>564</v>
       </c>
-      <c r="O94" s="31" t="s">
+      <c r="O94" s="26" t="s">
         <v>566</v>
       </c>
-      <c r="P94" s="29" t="s">
-        <v>571</v>
+      <c r="P94" s="24" t="s">
+        <v>570</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
@@ -7928,49 +7932,49 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>590</v>
-      </c>
-      <c r="C95" s="28" t="s">
+        <v>573</v>
+      </c>
+      <c r="C95" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="D95" s="28" t="s">
+      <c r="D95" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E95" s="28" t="s">
+      <c r="E95" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F95" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G95" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H95" s="30">
+      <c r="F95" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G95" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H95" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I95" s="27">
+      <c r="I95" s="22">
         <v>500000</v>
       </c>
-      <c r="J95" s="29">
+      <c r="J95" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K95" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L95" s="29">
-        <v>10</v>
-      </c>
-      <c r="M95" s="31" t="s">
-        <v>612</v>
-      </c>
-      <c r="N95" s="34" t="s">
-        <v>593</v>
-      </c>
-      <c r="O95" s="31" t="s">
+      <c r="K95" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L95" s="24">
+        <v>10</v>
+      </c>
+      <c r="M95" s="26" t="s">
+        <v>595</v>
+      </c>
+      <c r="N95" s="28" t="s">
+        <v>576</v>
+      </c>
+      <c r="O95" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="P95" s="29" t="s">
-        <v>606</v>
+      <c r="P95" s="24" t="s">
+        <v>589</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -7978,49 +7982,49 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="C96" s="28" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="E96" s="28" t="s">
+      <c r="E96" s="23" t="s">
         <v>182</v>
       </c>
-      <c r="F96" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G96" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H96" s="30">
+      <c r="F96" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G96" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H96" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I96" s="27">
+      <c r="I96" s="22">
         <v>500000</v>
       </c>
-      <c r="J96" s="29">
+      <c r="J96" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K96" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L96" s="29">
-        <v>10</v>
-      </c>
-      <c r="M96" s="31" t="s">
-        <v>613</v>
-      </c>
-      <c r="N96" s="34" t="s">
-        <v>594</v>
-      </c>
-      <c r="O96" s="31" t="s">
+      <c r="K96" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L96" s="24">
+        <v>10</v>
+      </c>
+      <c r="M96" s="26" t="s">
+        <v>596</v>
+      </c>
+      <c r="N96" s="28" t="s">
+        <v>577</v>
+      </c>
+      <c r="O96" s="26" t="s">
         <v>567</v>
       </c>
-      <c r="P96" s="29" t="s">
-        <v>607</v>
+      <c r="P96" s="24" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
@@ -8028,49 +8032,49 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="C97" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="D97" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>598</v>
-      </c>
-      <c r="F97" s="29">
-        <v>4E+18</v>
-      </c>
-      <c r="G97" s="29">
-        <v>300000000000</v>
-      </c>
-      <c r="H97" s="30">
+        <v>575</v>
+      </c>
+      <c r="C97" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="D97" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="E97" s="23" t="s">
+        <v>581</v>
+      </c>
+      <c r="F97" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G97" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H97" s="25">
         <v>2.0000000000000001E+40</v>
       </c>
-      <c r="I97" s="27">
+      <c r="I97" s="22">
         <v>500000</v>
       </c>
-      <c r="J97" s="29">
+      <c r="J97" s="24">
         <v>20000000000</v>
       </c>
-      <c r="K97" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="L97" s="29">
-        <v>10</v>
-      </c>
-      <c r="M97" s="31" t="s">
-        <v>614</v>
-      </c>
-      <c r="N97" s="34" t="s">
-        <v>595</v>
-      </c>
-      <c r="O97" s="31" t="s">
-        <v>610</v>
-      </c>
-      <c r="P97" s="29" t="s">
-        <v>608</v>
+      <c r="K97" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L97" s="24">
+        <v>10</v>
+      </c>
+      <c r="M97" s="26" t="s">
+        <v>597</v>
+      </c>
+      <c r="N97" s="28" t="s">
+        <v>578</v>
+      </c>
+      <c r="O97" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="P97" s="24" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
@@ -8078,16 +8082,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>596</v>
+        <v>579</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>605</v>
+        <v>588</v>
       </c>
       <c r="F98" s="10">
         <v>4E+18</v>
@@ -8110,17 +8114,17 @@
       <c r="L98" s="10">
         <v>10</v>
       </c>
-      <c r="M98" s="31" t="s">
-        <v>615</v>
-      </c>
-      <c r="N98" s="34" t="s">
-        <v>597</v>
-      </c>
-      <c r="O98" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="P98" s="29" t="s">
-        <v>609</v>
+      <c r="M98" s="26" t="s">
+        <v>598</v>
+      </c>
+      <c r="N98" s="28" t="s">
+        <v>580</v>
+      </c>
+      <c r="O98" s="26" t="s">
+        <v>594</v>
+      </c>
+      <c r="P98" s="24" t="s">
+        <v>592</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -8128,16 +8132,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>601</v>
+        <v>584</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>602</v>
+        <v>585</v>
       </c>
       <c r="F99" s="10">
         <v>4E+18</v>
@@ -8160,17 +8164,17 @@
       <c r="L99" s="10">
         <v>10</v>
       </c>
-      <c r="M99" s="53" t="s">
-        <v>604</v>
-      </c>
-      <c r="N99" s="52" t="s">
-        <v>599</v>
-      </c>
-      <c r="O99" s="53" t="s">
-        <v>600</v>
-      </c>
-      <c r="P99" s="54" t="s">
-        <v>603</v>
+      <c r="M99" s="40" t="s">
+        <v>587</v>
+      </c>
+      <c r="N99" s="39" t="s">
+        <v>582</v>
+      </c>
+      <c r="O99" s="40" t="s">
+        <v>583</v>
+      </c>
+      <c r="P99" s="41" t="s">
+        <v>586</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71F4630-2BE2-4E29-952D-121BE4223357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09CA205-D40E-46F2-BE10-DFF0015D3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="669">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2354,42 +2354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2398,15 +2362,246 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125</t>
+    <t>b98</t>
+  </si>
+  <si>
+    <t>b99</t>
+  </si>
+  <si>
+    <t>b100</t>
+  </si>
+  <si>
+    <t>b101</t>
+  </si>
+  <si>
+    <t>b102</t>
+  </si>
+  <si>
+    <t>b103</t>
+  </si>
+  <si>
+    <t>b104</t>
+  </si>
+  <si>
+    <t>b105</t>
+  </si>
+  <si>
+    <t>일지매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전우치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Half</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotImmuneType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Susano</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도올</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도철</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼돈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>궁기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9013,9013,7070,9013,9013,7060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9013,9013,7071,9013,9013,7061</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9013,9013,7072,9013,9013,7062</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9013,9013,7073,9013,9013,7063</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2,1,2,2,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1000겁,2000겁,3000겁,5000겁,7000겁,1업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000업,2000업,3000업,5000업,7000업,1긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000긍,2000긍,3000긍,5000긍,7000긍,1갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000갈,2000갈,3000갈,5000갈,7000갈,1라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9015,9015,1293,9015,9015,7150,9015,9015,7140</t>
+  </si>
+  <si>
+    <t>9015,9015,1294,9015,9015,7151,9015,9015,7141</t>
+  </si>
+  <si>
+    <t>9015,9015,1295,9015,9015,7152,9015,9015,7142</t>
+  </si>
+  <si>
+    <t>9015,9015,1296,9015,9015,7153,9015,9015,7143</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>2,2,1,2,2,1,2,2,1</t>
+  </si>
+  <si>
+    <t>4,4,1,4,4,1,4,4,1</t>
+  </si>
+  <si>
+    <t>10라,15라,20라,25라,30라,35라,40라,45라,50라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100라,150라,200라,250라,300라,350라,400라,450라,500라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800라,900라,1000라,1100라,1200라,1400라,1600라,1800라,2000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500라,2800라,3100라,3400라,3700라,4000라,4300라,4600라,5000라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,45000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,110000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,140000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,280000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,310000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,340000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,370000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,430000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,460000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3063,11 +3258,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T99"/>
+  <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M76" sqref="M76"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3138,6 +3333,12 @@
       <c r="P1" t="s">
         <v>65</v>
       </c>
+      <c r="Q1" t="s">
+        <v>616</v>
+      </c>
+      <c r="R1" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -3187,6 +3388,12 @@
       </c>
       <c r="P2" t="s">
         <v>92</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>617</v>
+      </c>
+      <c r="R2" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3238,6 +3445,12 @@
       <c r="P3" t="s">
         <v>93</v>
       </c>
+      <c r="Q3" t="s">
+        <v>617</v>
+      </c>
+      <c r="R3" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
@@ -3288,6 +3501,12 @@
       <c r="P4" t="s">
         <v>94</v>
       </c>
+      <c r="Q4" t="s">
+        <v>617</v>
+      </c>
+      <c r="R4" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3338,6 +3557,12 @@
       <c r="P5" t="s">
         <v>95</v>
       </c>
+      <c r="Q5" t="s">
+        <v>617</v>
+      </c>
+      <c r="R5" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -3388,6 +3613,12 @@
       <c r="P6" s="3" t="s">
         <v>96</v>
       </c>
+      <c r="Q6" t="s">
+        <v>617</v>
+      </c>
+      <c r="R6" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
@@ -3438,6 +3669,12 @@
       <c r="P7" s="6" t="s">
         <v>97</v>
       </c>
+      <c r="Q7" t="s">
+        <v>617</v>
+      </c>
+      <c r="R7" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
@@ -3488,8 +3725,12 @@
       <c r="P8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
+      <c r="Q8" t="s">
+        <v>617</v>
+      </c>
+      <c r="R8" t="s">
+        <v>620</v>
+      </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
     </row>
@@ -3542,8 +3783,12 @@
       <c r="P9" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
+      <c r="Q9" t="s">
+        <v>617</v>
+      </c>
+      <c r="R9" t="s">
+        <v>620</v>
+      </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
     </row>
@@ -3596,8 +3841,12 @@
       <c r="P10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
+      <c r="Q10" t="s">
+        <v>617</v>
+      </c>
+      <c r="R10" t="s">
+        <v>620</v>
+      </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
     </row>
@@ -3650,8 +3899,12 @@
       <c r="P11" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
+      <c r="Q11" t="s">
+        <v>617</v>
+      </c>
+      <c r="R11" t="s">
+        <v>620</v>
+      </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
     </row>
@@ -3704,8 +3957,12 @@
       <c r="P12" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
+      <c r="Q12" t="s">
+        <v>617</v>
+      </c>
+      <c r="R12" t="s">
+        <v>620</v>
+      </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
     </row>
@@ -3758,8 +4015,12 @@
       <c r="P13" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
+      <c r="Q13" t="s">
+        <v>617</v>
+      </c>
+      <c r="R13" t="s">
+        <v>620</v>
+      </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
     </row>
@@ -3801,19 +4062,23 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>604</v>
+        <v>657</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>602</v>
-      </c>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
+        <v>655</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>617</v>
+      </c>
+      <c r="R14" t="s">
+        <v>620</v>
+      </c>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
     </row>
@@ -3866,8 +4131,12 @@
       <c r="P15" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
+      <c r="Q15" t="s">
+        <v>617</v>
+      </c>
+      <c r="R15" t="s">
+        <v>620</v>
+      </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
     </row>
@@ -3920,8 +4189,12 @@
       <c r="P16" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
+      <c r="Q16" t="s">
+        <v>617</v>
+      </c>
+      <c r="R16" t="s">
+        <v>620</v>
+      </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
     </row>
@@ -3974,6 +4247,12 @@
       <c r="P17" s="13" t="s">
         <v>149</v>
       </c>
+      <c r="Q17" t="s">
+        <v>618</v>
+      </c>
+      <c r="R17" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -4024,6 +4303,12 @@
       <c r="P18" s="13" t="s">
         <v>150</v>
       </c>
+      <c r="Q18" t="s">
+        <v>618</v>
+      </c>
+      <c r="R18" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -4074,6 +4359,12 @@
       <c r="P19" s="13" t="s">
         <v>151</v>
       </c>
+      <c r="Q19" t="s">
+        <v>618</v>
+      </c>
+      <c r="R19" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -4124,6 +4415,12 @@
       <c r="P20" s="13" t="s">
         <v>145</v>
       </c>
+      <c r="Q20" t="s">
+        <v>618</v>
+      </c>
+      <c r="R20" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -4174,8 +4471,12 @@
       <c r="P21" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="10"/>
+      <c r="Q21" t="s">
+        <v>617</v>
+      </c>
+      <c r="R21" t="s">
+        <v>620</v>
+      </c>
       <c r="S21" s="10"/>
     </row>
     <row r="22" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -4227,8 +4528,12 @@
       <c r="P22" s="17" t="s">
         <v>160</v>
       </c>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="14"/>
+      <c r="Q22" t="s">
+        <v>618</v>
+      </c>
+      <c r="R22" t="s">
+        <v>620</v>
+      </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
     </row>
@@ -4281,8 +4586,12 @@
       <c r="P23" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
+      <c r="Q23" t="s">
+        <v>617</v>
+      </c>
+      <c r="R23" t="s">
+        <v>620</v>
+      </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
     </row>
@@ -4335,8 +4644,12 @@
       <c r="P24" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
+      <c r="Q24" t="s">
+        <v>617</v>
+      </c>
+      <c r="R24" t="s">
+        <v>620</v>
+      </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
     </row>
@@ -4389,8 +4702,12 @@
       <c r="P25" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
+      <c r="Q25" t="s">
+        <v>617</v>
+      </c>
+      <c r="R25" t="s">
+        <v>620</v>
+      </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
     </row>
@@ -4443,8 +4760,12 @@
       <c r="P26" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="Q26" s="10"/>
-      <c r="R26" s="10"/>
+      <c r="Q26" t="s">
+        <v>617</v>
+      </c>
+      <c r="R26" t="s">
+        <v>620</v>
+      </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
     </row>
@@ -4497,8 +4818,12 @@
       <c r="P27" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
+      <c r="Q27" t="s">
+        <v>617</v>
+      </c>
+      <c r="R27" t="s">
+        <v>620</v>
+      </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
     </row>
@@ -4551,8 +4876,12 @@
       <c r="P28" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
+      <c r="Q28" t="s">
+        <v>617</v>
+      </c>
+      <c r="R28" t="s">
+        <v>620</v>
+      </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
     </row>
@@ -4605,8 +4934,12 @@
       <c r="P29" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="14"/>
+      <c r="Q29" t="s">
+        <v>617</v>
+      </c>
+      <c r="R29" t="s">
+        <v>620</v>
+      </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
     </row>
@@ -4659,8 +4992,12 @@
       <c r="P30" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="14"/>
+      <c r="Q30" t="s">
+        <v>617</v>
+      </c>
+      <c r="R30" t="s">
+        <v>620</v>
+      </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
     </row>
@@ -4713,8 +5050,12 @@
       <c r="P31" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="Q31" s="14"/>
-      <c r="R31" s="14"/>
+      <c r="Q31" t="s">
+        <v>617</v>
+      </c>
+      <c r="R31" t="s">
+        <v>620</v>
+      </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
     </row>
@@ -4767,8 +5108,12 @@
       <c r="P32" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="Q32" s="14"/>
-      <c r="R32" s="14"/>
+      <c r="Q32" t="s">
+        <v>618</v>
+      </c>
+      <c r="R32" t="s">
+        <v>620</v>
+      </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
     </row>
@@ -4821,8 +5166,12 @@
       <c r="P33" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
+      <c r="Q33" t="s">
+        <v>618</v>
+      </c>
+      <c r="R33" t="s">
+        <v>620</v>
+      </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
     </row>
@@ -4875,8 +5224,12 @@
       <c r="P34" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="14"/>
+      <c r="Q34" t="s">
+        <v>618</v>
+      </c>
+      <c r="R34" t="s">
+        <v>620</v>
+      </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
     </row>
@@ -4929,8 +5282,12 @@
       <c r="P35" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="14"/>
+      <c r="Q35" t="s">
+        <v>618</v>
+      </c>
+      <c r="R35" t="s">
+        <v>620</v>
+      </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
     </row>
@@ -4983,8 +5340,12 @@
       <c r="P36" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
+      <c r="Q36" t="s">
+        <v>618</v>
+      </c>
+      <c r="R36" t="s">
+        <v>620</v>
+      </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
     </row>
@@ -5037,8 +5398,12 @@
       <c r="P37" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="Q37" s="14"/>
-      <c r="R37" s="14"/>
+      <c r="Q37" t="s">
+        <v>618</v>
+      </c>
+      <c r="R37" t="s">
+        <v>620</v>
+      </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
     </row>
@@ -5091,8 +5456,12 @@
       <c r="P38" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
+      <c r="Q38" t="s">
+        <v>618</v>
+      </c>
+      <c r="R38" t="s">
+        <v>620</v>
+      </c>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
@@ -5145,8 +5514,12 @@
       <c r="P39" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
+      <c r="Q39" t="s">
+        <v>618</v>
+      </c>
+      <c r="R39" t="s">
+        <v>620</v>
+      </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
@@ -5199,8 +5572,12 @@
       <c r="P40" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
+      <c r="Q40" t="s">
+        <v>618</v>
+      </c>
+      <c r="R40" t="s">
+        <v>620</v>
+      </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
@@ -5253,8 +5630,12 @@
       <c r="P41" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
+      <c r="Q41" t="s">
+        <v>617</v>
+      </c>
+      <c r="R41" t="s">
+        <v>620</v>
+      </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
@@ -5307,7 +5688,12 @@
       <c r="P42" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="Q42" s="18"/>
+      <c r="Q42" t="s">
+        <v>618</v>
+      </c>
+      <c r="R42" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -5358,7 +5744,12 @@
       <c r="P43" s="18" t="s">
         <v>320</v>
       </c>
-      <c r="Q43" s="18"/>
+      <c r="Q43" t="s">
+        <v>618</v>
+      </c>
+      <c r="R43" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -5409,7 +5800,12 @@
       <c r="P44" s="18" t="s">
         <v>319</v>
       </c>
-      <c r="Q44" s="18"/>
+      <c r="Q44" t="s">
+        <v>618</v>
+      </c>
+      <c r="R44" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="45" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -5460,7 +5856,12 @@
       <c r="P45" s="18" t="s">
         <v>318</v>
       </c>
-      <c r="Q45" s="18"/>
+      <c r="Q45" t="s">
+        <v>618</v>
+      </c>
+      <c r="R45" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="46" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -5511,7 +5912,12 @@
       <c r="P46" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="Q46" s="18"/>
+      <c r="Q46" t="s">
+        <v>618</v>
+      </c>
+      <c r="R46" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
@@ -5562,6 +5968,12 @@
       <c r="P47" s="18" t="s">
         <v>312</v>
       </c>
+      <c r="Q47" t="s">
+        <v>618</v>
+      </c>
+      <c r="R47" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
@@ -5612,6 +6024,12 @@
       <c r="P48" s="18" t="s">
         <v>313</v>
       </c>
+      <c r="Q48" t="s">
+        <v>618</v>
+      </c>
+      <c r="R48" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
@@ -5662,6 +6080,12 @@
       <c r="P49" s="18" t="s">
         <v>314</v>
       </c>
+      <c r="Q49" t="s">
+        <v>618</v>
+      </c>
+      <c r="R49" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -5712,6 +6136,12 @@
       <c r="P50" s="18" t="s">
         <v>336</v>
       </c>
+      <c r="Q50" t="s">
+        <v>618</v>
+      </c>
+      <c r="R50" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
@@ -5762,6 +6192,12 @@
       <c r="P51" s="18" t="s">
         <v>340</v>
       </c>
+      <c r="Q51" t="s">
+        <v>618</v>
+      </c>
+      <c r="R51" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="52" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="42">
@@ -5812,8 +6248,12 @@
       <c r="P52" s="44" t="s">
         <v>342</v>
       </c>
-      <c r="Q52" s="44"/>
-      <c r="R52" s="44"/>
+      <c r="Q52" t="s">
+        <v>617</v>
+      </c>
+      <c r="R52" t="s">
+        <v>620</v>
+      </c>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
     </row>
@@ -5866,8 +6306,12 @@
       <c r="P53" s="10" t="s">
         <v>539</v>
       </c>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
+      <c r="Q53" t="s">
+        <v>617</v>
+      </c>
+      <c r="R53" t="s">
+        <v>620</v>
+      </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
     </row>
@@ -5920,6 +6364,12 @@
       <c r="P54" s="10" t="s">
         <v>354</v>
       </c>
+      <c r="Q54" t="s">
+        <v>618</v>
+      </c>
+      <c r="R54" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="55" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55">
@@ -5970,8 +6420,12 @@
       <c r="P55" s="21" t="s">
         <v>349</v>
       </c>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
+      <c r="Q55" t="s">
+        <v>617</v>
+      </c>
+      <c r="R55" t="s">
+        <v>620</v>
+      </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
     </row>
@@ -6024,6 +6478,12 @@
       <c r="P56" s="10" t="s">
         <v>360</v>
       </c>
+      <c r="Q56" t="s">
+        <v>618</v>
+      </c>
+      <c r="R56" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="57" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A57" s="47">
@@ -6063,16 +6523,22 @@
         <v>10</v>
       </c>
       <c r="M57" s="51" t="s">
-        <v>606</v>
+        <v>660</v>
       </c>
       <c r="N57" s="49" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>608</v>
+        <v>662</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>609</v>
+        <v>659</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>617</v>
+      </c>
+      <c r="R57" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6124,6 +6590,12 @@
       <c r="P58" s="10" t="s">
         <v>371</v>
       </c>
+      <c r="Q58" t="s">
+        <v>618</v>
+      </c>
+      <c r="R58" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
@@ -6174,6 +6646,12 @@
       <c r="P59" s="10" t="s">
         <v>373</v>
       </c>
+      <c r="Q59" t="s">
+        <v>618</v>
+      </c>
+      <c r="R59" t="s">
+        <v>621</v>
+      </c>
     </row>
     <row r="60" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
@@ -6224,6 +6702,12 @@
       <c r="P60" s="14" t="s">
         <v>396</v>
       </c>
+      <c r="Q60" t="s">
+        <v>618</v>
+      </c>
+      <c r="R60" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="61" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
@@ -6274,6 +6758,12 @@
       <c r="P61" s="14" t="s">
         <v>397</v>
       </c>
+      <c r="Q61" t="s">
+        <v>618</v>
+      </c>
+      <c r="R61" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="62" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
@@ -6324,6 +6814,12 @@
       <c r="P62" s="14" t="s">
         <v>398</v>
       </c>
+      <c r="Q62" t="s">
+        <v>618</v>
+      </c>
+      <c r="R62" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="63" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
@@ -6374,6 +6870,12 @@
       <c r="P63" s="14" t="s">
         <v>412</v>
       </c>
+      <c r="Q63" t="s">
+        <v>618</v>
+      </c>
+      <c r="R63" t="s">
+        <v>620</v>
+      </c>
     </row>
     <row r="64" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
@@ -6424,8 +6926,14 @@
       <c r="P64" s="14" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q64" t="s">
+        <v>618</v>
+      </c>
+      <c r="R64" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6474,8 +6982,14 @@
       <c r="P65" s="14" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q65" t="s">
+        <v>618</v>
+      </c>
+      <c r="R65" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6524,8 +7038,14 @@
       <c r="P66" s="14" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q66" t="s">
+        <v>618</v>
+      </c>
+      <c r="R66" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6574,8 +7094,14 @@
       <c r="P67" s="18" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q67" t="s">
+        <v>617</v>
+      </c>
+      <c r="R67" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="22">
         <v>66</v>
       </c>
@@ -6624,8 +7150,14 @@
       <c r="P68" s="24" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q68" t="s">
+        <v>618</v>
+      </c>
+      <c r="R68" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="22">
         <v>67</v>
       </c>
@@ -6674,8 +7206,14 @@
       <c r="P69" s="24" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q69" t="s">
+        <v>618</v>
+      </c>
+      <c r="R69" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6724,8 +7262,14 @@
       <c r="P70" s="20" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" s="42" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q70" t="s">
+        <v>617</v>
+      </c>
+      <c r="R70" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="42">
         <v>69</v>
       </c>
@@ -6774,8 +7318,14 @@
       <c r="P71" s="46" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q71" t="s">
+        <v>618</v>
+      </c>
+      <c r="R71" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -6824,8 +7374,14 @@
       <c r="P72" s="24" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q72" t="s">
+        <v>618</v>
+      </c>
+      <c r="R72" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6874,8 +7430,14 @@
       <c r="P73" s="24" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="Q73" t="s">
+        <v>618</v>
+      </c>
+      <c r="R73" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6924,8 +7486,14 @@
       <c r="P74" s="10" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q74" t="s">
+        <v>618</v>
+      </c>
+      <c r="R74" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="47">
         <v>73</v>
       </c>
@@ -6963,20 +7531,25 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>612</v>
+        <v>665</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>611</v>
+        <v>664</v>
       </c>
       <c r="P75" s="49" t="s">
-        <v>614</v>
-      </c>
-      <c r="Q75" s="49"/>
-    </row>
-    <row r="76" spans="1:17" s="47" customFormat="1" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>617</v>
+      </c>
+      <c r="R75" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="47">
         <v>74</v>
       </c>
@@ -7014,20 +7587,25 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
-        <v>613</v>
+        <v>667</v>
       </c>
       <c r="N76" s="49" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>610</v>
-      </c>
-      <c r="Q76" s="49"/>
-    </row>
-    <row r="77" spans="1:17" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>668</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>617</v>
+      </c>
+      <c r="R76" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -7076,8 +7654,14 @@
       <c r="P77" s="24" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q77" t="s">
+        <v>618</v>
+      </c>
+      <c r="R77" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -7126,8 +7710,14 @@
       <c r="P78" s="24" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q78" t="s">
+        <v>618</v>
+      </c>
+      <c r="R78" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -7176,8 +7766,14 @@
       <c r="P79" s="24" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q79" t="s">
+        <v>618</v>
+      </c>
+      <c r="R79" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7226,8 +7822,14 @@
       <c r="P80" s="24" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q80" t="s">
+        <v>618</v>
+      </c>
+      <c r="R80" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7276,8 +7878,14 @@
       <c r="P81" s="24" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q81" t="s">
+        <v>618</v>
+      </c>
+      <c r="R81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7326,8 +7934,14 @@
       <c r="P82" s="24" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q82" t="s">
+        <v>618</v>
+      </c>
+      <c r="R82" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7376,8 +7990,14 @@
       <c r="P83" s="24" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q83" t="s">
+        <v>618</v>
+      </c>
+      <c r="R83" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7426,8 +8046,14 @@
       <c r="P84" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q84" t="s">
+        <v>618</v>
+      </c>
+      <c r="R84" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7476,8 +8102,14 @@
       <c r="P85" s="30" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="86" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q85" t="s">
+        <v>618</v>
+      </c>
+      <c r="R85" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7526,8 +8158,14 @@
       <c r="P86" s="36" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q86" t="s">
+        <v>618</v>
+      </c>
+      <c r="R86" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7576,8 +8214,14 @@
       <c r="P87" s="24" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="88" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q87" t="s">
+        <v>618</v>
+      </c>
+      <c r="R87" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7626,8 +8270,14 @@
       <c r="P88" s="24" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q88" t="s">
+        <v>618</v>
+      </c>
+      <c r="R88" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7676,8 +8326,14 @@
       <c r="P89" s="24" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q89" t="s">
+        <v>618</v>
+      </c>
+      <c r="R89" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7726,8 +8382,14 @@
       <c r="P90" s="24" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q90" t="s">
+        <v>618</v>
+      </c>
+      <c r="R90" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7776,8 +8438,14 @@
       <c r="P91" s="24" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q91" t="s">
+        <v>618</v>
+      </c>
+      <c r="R91" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7826,8 +8494,14 @@
       <c r="P92" s="24" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="Q92" t="s">
+        <v>618</v>
+      </c>
+      <c r="R92" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="47">
         <v>91</v>
       </c>
@@ -7876,8 +8550,14 @@
       <c r="P93" s="49" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q93" t="s">
+        <v>617</v>
+      </c>
+      <c r="R93" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7926,8 +8606,14 @@
       <c r="P94" s="24" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q94" t="s">
+        <v>618</v>
+      </c>
+      <c r="R94" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7976,8 +8662,14 @@
       <c r="P95" s="24" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q95" t="s">
+        <v>618</v>
+      </c>
+      <c r="R95" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -8026,8 +8718,14 @@
       <c r="P96" s="24" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q96" t="s">
+        <v>618</v>
+      </c>
+      <c r="R96" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -8076,8 +8774,14 @@
       <c r="P97" s="24" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q97" t="s">
+        <v>618</v>
+      </c>
+      <c r="R97" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -8126,8 +8830,14 @@
       <c r="P98" s="24" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q98" t="s">
+        <v>618</v>
+      </c>
+      <c r="R98" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -8175,6 +8885,460 @@
       </c>
       <c r="P99" s="41" t="s">
         <v>586</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>618</v>
+      </c>
+      <c r="R99" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C100" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>623</v>
+      </c>
+      <c r="F100" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G100" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H100" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I100" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J100" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K100" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L100" s="24">
+        <v>10</v>
+      </c>
+      <c r="M100" s="26" t="s">
+        <v>636</v>
+      </c>
+      <c r="N100" s="28" t="s">
+        <v>626</v>
+      </c>
+      <c r="O100" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="P100" s="24" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>618</v>
+      </c>
+      <c r="R100" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="C101" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="D101" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="E101" s="23" t="s">
+        <v>622</v>
+      </c>
+      <c r="F101" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G101" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H101" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I101" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J101" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K101" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L101" s="24">
+        <v>10</v>
+      </c>
+      <c r="M101" s="26" t="s">
+        <v>637</v>
+      </c>
+      <c r="N101" s="28" t="s">
+        <v>627</v>
+      </c>
+      <c r="O101" s="26" t="s">
+        <v>631</v>
+      </c>
+      <c r="P101" s="24" t="s">
+        <v>633</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>618</v>
+      </c>
+      <c r="R101" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C102" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="D102" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="F102" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G102" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H102" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I102" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J102" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K102" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L102" s="24">
+        <v>10</v>
+      </c>
+      <c r="M102" s="26" t="s">
+        <v>638</v>
+      </c>
+      <c r="N102" s="28" t="s">
+        <v>628</v>
+      </c>
+      <c r="O102" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="P102" s="24" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>618</v>
+      </c>
+      <c r="R102" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C103" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="D103" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="F103" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G103" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H103" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I103" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J103" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K103" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L103" s="24">
+        <v>10</v>
+      </c>
+      <c r="M103" s="26" t="s">
+        <v>639</v>
+      </c>
+      <c r="N103" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="O103" s="26" t="s">
+        <v>630</v>
+      </c>
+      <c r="P103" s="24" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>618</v>
+      </c>
+      <c r="R103" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C104" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="D104" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>612</v>
+      </c>
+      <c r="F104" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G104" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H104" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I104" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J104" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K104" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L104" s="24">
+        <v>10</v>
+      </c>
+      <c r="M104" s="16" t="s">
+        <v>651</v>
+      </c>
+      <c r="N104" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="O104" s="26" t="s">
+        <v>644</v>
+      </c>
+      <c r="P104" s="24" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>618</v>
+      </c>
+      <c r="R104" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C105" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="D105" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="E105" s="23" t="s">
+        <v>613</v>
+      </c>
+      <c r="F105" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G105" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H105" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I105" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J105" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K105" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L105" s="24">
+        <v>10</v>
+      </c>
+      <c r="M105" s="16" t="s">
+        <v>652</v>
+      </c>
+      <c r="N105" s="28" t="s">
+        <v>641</v>
+      </c>
+      <c r="O105" s="26" t="s">
+        <v>645</v>
+      </c>
+      <c r="P105" s="24" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>618</v>
+      </c>
+      <c r="R105" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C106" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="D106" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="E106" s="23" t="s">
+        <v>614</v>
+      </c>
+      <c r="F106" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G106" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H106" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I106" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J106" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K106" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L106" s="24">
+        <v>10</v>
+      </c>
+      <c r="M106" s="16" t="s">
+        <v>653</v>
+      </c>
+      <c r="N106" s="28" t="s">
+        <v>642</v>
+      </c>
+      <c r="O106" s="26" t="s">
+        <v>593</v>
+      </c>
+      <c r="P106" s="24" t="s">
+        <v>649</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>618</v>
+      </c>
+      <c r="R106" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C107" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="D107" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="E107" s="23" t="s">
+        <v>615</v>
+      </c>
+      <c r="F107" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G107" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H107" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I107" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J107" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K107" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L107" s="24">
+        <v>10</v>
+      </c>
+      <c r="M107" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="N107" s="28" t="s">
+        <v>643</v>
+      </c>
+      <c r="O107" s="26" t="s">
+        <v>646</v>
+      </c>
+      <c r="P107" s="24" t="s">
+        <v>650</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>618</v>
+      </c>
+      <c r="R107" t="s">
+        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C09CA205-D40E-46F2-BE10-DFF0015D3D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67B61F-9806-4B9A-9AE6-C3814FFB2D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -2342,18 +2342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2602,6 +2590,18 @@
   </si>
   <si>
     <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2,2,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3260,9 +3260,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S76" sqref="S76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3334,10 +3334,10 @@
         <v>65</v>
       </c>
       <c r="Q1" t="s">
+        <v>613</v>
+      </c>
+      <c r="R1" t="s">
         <v>616</v>
-      </c>
-      <c r="R1" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -3390,10 +3390,10 @@
         <v>92</v>
       </c>
       <c r="Q2" t="s">
+        <v>614</v>
+      </c>
+      <c r="R2" t="s">
         <v>617</v>
-      </c>
-      <c r="R2" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3446,10 +3446,10 @@
         <v>93</v>
       </c>
       <c r="Q3" t="s">
+        <v>614</v>
+      </c>
+      <c r="R3" t="s">
         <v>617</v>
-      </c>
-      <c r="R3" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -3502,10 +3502,10 @@
         <v>94</v>
       </c>
       <c r="Q4" t="s">
+        <v>614</v>
+      </c>
+      <c r="R4" t="s">
         <v>617</v>
-      </c>
-      <c r="R4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3558,10 +3558,10 @@
         <v>95</v>
       </c>
       <c r="Q5" t="s">
+        <v>614</v>
+      </c>
+      <c r="R5" t="s">
         <v>617</v>
-      </c>
-      <c r="R5" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3614,10 +3614,10 @@
         <v>96</v>
       </c>
       <c r="Q6" t="s">
+        <v>614</v>
+      </c>
+      <c r="R6" t="s">
         <v>617</v>
-      </c>
-      <c r="R6" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3670,10 +3670,10 @@
         <v>97</v>
       </c>
       <c r="Q7" t="s">
+        <v>614</v>
+      </c>
+      <c r="R7" t="s">
         <v>617</v>
-      </c>
-      <c r="R7" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3726,10 +3726,10 @@
         <v>98</v>
       </c>
       <c r="Q8" t="s">
+        <v>614</v>
+      </c>
+      <c r="R8" t="s">
         <v>617</v>
-      </c>
-      <c r="R8" t="s">
-        <v>620</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -3784,10 +3784,10 @@
         <v>99</v>
       </c>
       <c r="Q9" t="s">
+        <v>614</v>
+      </c>
+      <c r="R9" t="s">
         <v>617</v>
-      </c>
-      <c r="R9" t="s">
-        <v>620</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -3842,10 +3842,10 @@
         <v>100</v>
       </c>
       <c r="Q10" t="s">
+        <v>614</v>
+      </c>
+      <c r="R10" t="s">
         <v>617</v>
-      </c>
-      <c r="R10" t="s">
-        <v>620</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -3900,10 +3900,10 @@
         <v>101</v>
       </c>
       <c r="Q11" t="s">
+        <v>614</v>
+      </c>
+      <c r="R11" t="s">
         <v>617</v>
-      </c>
-      <c r="R11" t="s">
-        <v>620</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -3958,10 +3958,10 @@
         <v>102</v>
       </c>
       <c r="Q12" t="s">
+        <v>614</v>
+      </c>
+      <c r="R12" t="s">
         <v>617</v>
-      </c>
-      <c r="R12" t="s">
-        <v>620</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -4016,10 +4016,10 @@
         <v>103</v>
       </c>
       <c r="Q13" t="s">
+        <v>614</v>
+      </c>
+      <c r="R13" t="s">
         <v>617</v>
-      </c>
-      <c r="R13" t="s">
-        <v>620</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -4062,22 +4062,22 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="Q14" t="s">
+        <v>614</v>
+      </c>
+      <c r="R14" t="s">
         <v>617</v>
-      </c>
-      <c r="R14" t="s">
-        <v>620</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
@@ -4132,10 +4132,10 @@
         <v>120</v>
       </c>
       <c r="Q15" t="s">
+        <v>614</v>
+      </c>
+      <c r="R15" t="s">
         <v>617</v>
-      </c>
-      <c r="R15" t="s">
-        <v>620</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4190,10 +4190,10 @@
         <v>126</v>
       </c>
       <c r="Q16" t="s">
+        <v>614</v>
+      </c>
+      <c r="R16" t="s">
         <v>617</v>
-      </c>
-      <c r="R16" t="s">
-        <v>620</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4248,10 +4248,10 @@
         <v>149</v>
       </c>
       <c r="Q17" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R17" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -4304,10 +4304,10 @@
         <v>150</v>
       </c>
       <c r="Q18" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R18" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -4360,10 +4360,10 @@
         <v>151</v>
       </c>
       <c r="Q19" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R19" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -4416,10 +4416,10 @@
         <v>145</v>
       </c>
       <c r="Q20" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R20" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -4472,10 +4472,10 @@
         <v>156</v>
       </c>
       <c r="Q21" t="s">
+        <v>614</v>
+      </c>
+      <c r="R21" t="s">
         <v>617</v>
-      </c>
-      <c r="R21" t="s">
-        <v>620</v>
       </c>
       <c r="S21" s="10"/>
     </row>
@@ -4529,10 +4529,10 @@
         <v>160</v>
       </c>
       <c r="Q22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R22" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -4587,10 +4587,10 @@
         <v>167</v>
       </c>
       <c r="Q23" t="s">
+        <v>614</v>
+      </c>
+      <c r="R23" t="s">
         <v>617</v>
-      </c>
-      <c r="R23" t="s">
-        <v>620</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -4645,10 +4645,10 @@
         <v>172</v>
       </c>
       <c r="Q24" t="s">
+        <v>614</v>
+      </c>
+      <c r="R24" t="s">
         <v>617</v>
-      </c>
-      <c r="R24" t="s">
-        <v>620</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -4703,10 +4703,10 @@
         <v>179</v>
       </c>
       <c r="Q25" t="s">
+        <v>614</v>
+      </c>
+      <c r="R25" t="s">
         <v>617</v>
-      </c>
-      <c r="R25" t="s">
-        <v>620</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -4761,10 +4761,10 @@
         <v>192</v>
       </c>
       <c r="Q26" t="s">
+        <v>614</v>
+      </c>
+      <c r="R26" t="s">
         <v>617</v>
-      </c>
-      <c r="R26" t="s">
-        <v>620</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
@@ -4819,10 +4819,10 @@
         <v>190</v>
       </c>
       <c r="Q27" t="s">
+        <v>614</v>
+      </c>
+      <c r="R27" t="s">
         <v>617</v>
-      </c>
-      <c r="R27" t="s">
-        <v>620</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -4877,10 +4877,10 @@
         <v>199</v>
       </c>
       <c r="Q28" t="s">
+        <v>614</v>
+      </c>
+      <c r="R28" t="s">
         <v>617</v>
-      </c>
-      <c r="R28" t="s">
-        <v>620</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -4935,10 +4935,10 @@
         <v>202</v>
       </c>
       <c r="Q29" t="s">
+        <v>614</v>
+      </c>
+      <c r="R29" t="s">
         <v>617</v>
-      </c>
-      <c r="R29" t="s">
-        <v>620</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -4993,10 +4993,10 @@
         <v>210</v>
       </c>
       <c r="Q30" t="s">
+        <v>614</v>
+      </c>
+      <c r="R30" t="s">
         <v>617</v>
-      </c>
-      <c r="R30" t="s">
-        <v>620</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
@@ -5051,10 +5051,10 @@
         <v>215</v>
       </c>
       <c r="Q31" t="s">
+        <v>614</v>
+      </c>
+      <c r="R31" t="s">
         <v>617</v>
-      </c>
-      <c r="R31" t="s">
-        <v>620</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -5109,10 +5109,10 @@
         <v>250</v>
       </c>
       <c r="Q32" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R32" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
@@ -5167,10 +5167,10 @@
         <v>251</v>
       </c>
       <c r="Q33" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R33" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -5225,10 +5225,10 @@
         <v>252</v>
       </c>
       <c r="Q34" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R34" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
@@ -5283,10 +5283,10 @@
         <v>253</v>
       </c>
       <c r="Q35" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R35" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
@@ -5341,10 +5341,10 @@
         <v>256</v>
       </c>
       <c r="Q36" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R36" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
@@ -5399,10 +5399,10 @@
         <v>255</v>
       </c>
       <c r="Q37" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R37" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
@@ -5457,10 +5457,10 @@
         <v>254</v>
       </c>
       <c r="Q38" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R38" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -5515,10 +5515,10 @@
         <v>269</v>
       </c>
       <c r="Q39" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R39" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -5573,10 +5573,10 @@
         <v>257</v>
       </c>
       <c r="Q40" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R40" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
@@ -5631,10 +5631,10 @@
         <v>274</v>
       </c>
       <c r="Q41" t="s">
+        <v>614</v>
+      </c>
+      <c r="R41" t="s">
         <v>617</v>
-      </c>
-      <c r="R41" t="s">
-        <v>620</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -5689,10 +5689,10 @@
         <v>321</v>
       </c>
       <c r="Q42" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R42" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5745,10 +5745,10 @@
         <v>320</v>
       </c>
       <c r="Q43" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R43" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5801,10 +5801,10 @@
         <v>319</v>
       </c>
       <c r="Q44" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R44" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5857,10 +5857,10 @@
         <v>318</v>
       </c>
       <c r="Q45" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R45" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5913,10 +5913,10 @@
         <v>311</v>
       </c>
       <c r="Q46" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R46" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5969,10 +5969,10 @@
         <v>312</v>
       </c>
       <c r="Q47" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R47" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6025,10 +6025,10 @@
         <v>313</v>
       </c>
       <c r="Q48" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R48" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6081,10 +6081,10 @@
         <v>314</v>
       </c>
       <c r="Q49" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R49" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6137,10 +6137,10 @@
         <v>336</v>
       </c>
       <c r="Q50" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R50" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -6193,10 +6193,10 @@
         <v>340</v>
       </c>
       <c r="Q51" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R51" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -6249,10 +6249,10 @@
         <v>342</v>
       </c>
       <c r="Q52" t="s">
+        <v>614</v>
+      </c>
+      <c r="R52" t="s">
         <v>617</v>
-      </c>
-      <c r="R52" t="s">
-        <v>620</v>
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
@@ -6307,10 +6307,10 @@
         <v>539</v>
       </c>
       <c r="Q53" t="s">
+        <v>614</v>
+      </c>
+      <c r="R53" t="s">
         <v>617</v>
-      </c>
-      <c r="R53" t="s">
-        <v>620</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
@@ -6365,10 +6365,10 @@
         <v>354</v>
       </c>
       <c r="Q54" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R54" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6421,10 +6421,10 @@
         <v>349</v>
       </c>
       <c r="Q55" t="s">
+        <v>614</v>
+      </c>
+      <c r="R55" t="s">
         <v>617</v>
-      </c>
-      <c r="R55" t="s">
-        <v>620</v>
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
@@ -6479,10 +6479,10 @@
         <v>360</v>
       </c>
       <c r="Q56" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R56" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -6523,22 +6523,22 @@
         <v>10</v>
       </c>
       <c r="M57" s="51" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="N57" s="49" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="Q57" t="s">
+        <v>614</v>
+      </c>
+      <c r="R57" t="s">
         <v>617</v>
-      </c>
-      <c r="R57" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6591,10 +6591,10 @@
         <v>371</v>
       </c>
       <c r="Q58" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R58" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -6647,10 +6647,10 @@
         <v>373</v>
       </c>
       <c r="Q59" t="s">
+        <v>615</v>
+      </c>
+      <c r="R59" t="s">
         <v>618</v>
-      </c>
-      <c r="R59" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6703,10 +6703,10 @@
         <v>396</v>
       </c>
       <c r="Q60" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R60" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6759,10 +6759,10 @@
         <v>397</v>
       </c>
       <c r="Q61" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R61" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6815,10 +6815,10 @@
         <v>398</v>
       </c>
       <c r="Q62" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R62" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6871,10 +6871,10 @@
         <v>412</v>
       </c>
       <c r="Q63" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R63" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6927,10 +6927,10 @@
         <v>415</v>
       </c>
       <c r="Q64" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R64" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -6983,10 +6983,10 @@
         <v>448</v>
       </c>
       <c r="Q65" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R65" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -7039,10 +7039,10 @@
         <v>450</v>
       </c>
       <c r="Q66" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R66" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -7095,10 +7095,10 @@
         <v>389</v>
       </c>
       <c r="Q67" t="s">
+        <v>614</v>
+      </c>
+      <c r="R67" t="s">
         <v>617</v>
-      </c>
-      <c r="R67" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7151,10 +7151,10 @@
         <v>419</v>
       </c>
       <c r="Q68" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R68" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7207,10 +7207,10 @@
         <v>423</v>
       </c>
       <c r="Q69" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R69" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -7263,10 +7263,10 @@
         <v>544</v>
       </c>
       <c r="Q70" t="s">
+        <v>614</v>
+      </c>
+      <c r="R70" t="s">
         <v>617</v>
-      </c>
-      <c r="R70" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -7319,10 +7319,10 @@
         <v>528</v>
       </c>
       <c r="Q71" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R71" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7375,10 +7375,10 @@
         <v>452</v>
       </c>
       <c r="Q72" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R72" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7431,10 +7431,10 @@
         <v>454</v>
       </c>
       <c r="Q73" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R73" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -7487,10 +7487,10 @@
         <v>456</v>
       </c>
       <c r="Q74" t="s">
+        <v>615</v>
+      </c>
+      <c r="R74" t="s">
         <v>618</v>
-      </c>
-      <c r="R74" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7531,22 +7531,22 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="P75" s="49" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="Q75" t="s">
+        <v>614</v>
+      </c>
+      <c r="R75" t="s">
         <v>617</v>
-      </c>
-      <c r="R75" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7587,22 +7587,22 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="N76" s="49" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="Q76" t="s">
+        <v>614</v>
+      </c>
+      <c r="R76" t="s">
         <v>617</v>
-      </c>
-      <c r="R76" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7655,10 +7655,10 @@
         <v>472</v>
       </c>
       <c r="Q77" t="s">
+        <v>615</v>
+      </c>
+      <c r="R77" t="s">
         <v>618</v>
-      </c>
-      <c r="R77" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7711,10 +7711,10 @@
         <v>473</v>
       </c>
       <c r="Q78" t="s">
+        <v>615</v>
+      </c>
+      <c r="R78" t="s">
         <v>618</v>
-      </c>
-      <c r="R78" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7767,10 +7767,10 @@
         <v>475</v>
       </c>
       <c r="Q79" t="s">
+        <v>615</v>
+      </c>
+      <c r="R79" t="s">
         <v>618</v>
-      </c>
-      <c r="R79" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7823,10 +7823,10 @@
         <v>486</v>
       </c>
       <c r="Q80" t="s">
+        <v>615</v>
+      </c>
+      <c r="R80" t="s">
         <v>618</v>
-      </c>
-      <c r="R80" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7879,10 +7879,10 @@
         <v>488</v>
       </c>
       <c r="Q81" t="s">
+        <v>615</v>
+      </c>
+      <c r="R81" t="s">
         <v>618</v>
-      </c>
-      <c r="R81" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -7935,10 +7935,10 @@
         <v>501</v>
       </c>
       <c r="Q82" t="s">
+        <v>615</v>
+      </c>
+      <c r="R82" t="s">
         <v>618</v>
-      </c>
-      <c r="R82" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -7991,10 +7991,10 @@
         <v>505</v>
       </c>
       <c r="Q83" t="s">
+        <v>615</v>
+      </c>
+      <c r="R83" t="s">
         <v>618</v>
-      </c>
-      <c r="R83" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -8047,10 +8047,10 @@
         <v>507</v>
       </c>
       <c r="Q84" t="s">
+        <v>615</v>
+      </c>
+      <c r="R84" t="s">
         <v>618</v>
-      </c>
-      <c r="R84" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
@@ -8103,10 +8103,10 @@
         <v>514</v>
       </c>
       <c r="Q85" t="s">
+        <v>615</v>
+      </c>
+      <c r="R85" t="s">
         <v>618</v>
-      </c>
-      <c r="R85" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -8159,10 +8159,10 @@
         <v>524</v>
       </c>
       <c r="Q86" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="R86" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8215,10 +8215,10 @@
         <v>533</v>
       </c>
       <c r="Q87" t="s">
+        <v>615</v>
+      </c>
+      <c r="R87" t="s">
         <v>618</v>
-      </c>
-      <c r="R87" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8271,10 +8271,10 @@
         <v>536</v>
       </c>
       <c r="Q88" t="s">
+        <v>615</v>
+      </c>
+      <c r="R88" t="s">
         <v>618</v>
-      </c>
-      <c r="R88" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
@@ -8327,10 +8327,10 @@
         <v>558</v>
       </c>
       <c r="Q89" t="s">
+        <v>615</v>
+      </c>
+      <c r="R89" t="s">
         <v>618</v>
-      </c>
-      <c r="R89" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
@@ -8383,10 +8383,10 @@
         <v>559</v>
       </c>
       <c r="Q90" t="s">
+        <v>615</v>
+      </c>
+      <c r="R90" t="s">
         <v>618</v>
-      </c>
-      <c r="R90" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
@@ -8439,10 +8439,10 @@
         <v>565</v>
       </c>
       <c r="Q91" t="s">
+        <v>615</v>
+      </c>
+      <c r="R91" t="s">
         <v>618</v>
-      </c>
-      <c r="R91" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
@@ -8495,10 +8495,10 @@
         <v>569</v>
       </c>
       <c r="Q92" t="s">
+        <v>615</v>
+      </c>
+      <c r="R92" t="s">
         <v>618</v>
-      </c>
-      <c r="R92" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -8539,22 +8539,22 @@
         <v>10</v>
       </c>
       <c r="M93" s="51" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="N93" s="52" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="O93" s="51" t="s">
-        <v>601</v>
+        <v>667</v>
       </c>
       <c r="P93" s="49" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
       <c r="Q93" t="s">
+        <v>614</v>
+      </c>
+      <c r="R93" t="s">
         <v>617</v>
-      </c>
-      <c r="R93" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
@@ -8607,10 +8607,10 @@
         <v>570</v>
       </c>
       <c r="Q94" t="s">
+        <v>615</v>
+      </c>
+      <c r="R94" t="s">
         <v>618</v>
-      </c>
-      <c r="R94" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
@@ -8663,10 +8663,10 @@
         <v>589</v>
       </c>
       <c r="Q95" t="s">
+        <v>615</v>
+      </c>
+      <c r="R95" t="s">
         <v>618</v>
-      </c>
-      <c r="R95" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
@@ -8719,10 +8719,10 @@
         <v>590</v>
       </c>
       <c r="Q96" t="s">
+        <v>615</v>
+      </c>
+      <c r="R96" t="s">
         <v>618</v>
-      </c>
-      <c r="R96" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
@@ -8775,10 +8775,10 @@
         <v>591</v>
       </c>
       <c r="Q97" t="s">
+        <v>615</v>
+      </c>
+      <c r="R97" t="s">
         <v>618</v>
-      </c>
-      <c r="R97" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
@@ -8831,10 +8831,10 @@
         <v>592</v>
       </c>
       <c r="Q98" t="s">
+        <v>615</v>
+      </c>
+      <c r="R98" t="s">
         <v>618</v>
-      </c>
-      <c r="R98" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
@@ -8887,10 +8887,10 @@
         <v>586</v>
       </c>
       <c r="Q99" t="s">
+        <v>615</v>
+      </c>
+      <c r="R99" t="s">
         <v>618</v>
-      </c>
-      <c r="R99" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
@@ -8898,16 +8898,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F100" s="24">
         <v>4E+18</v>
@@ -8931,22 +8931,22 @@
         <v>10</v>
       </c>
       <c r="M100" s="26" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="Q100" t="s">
+        <v>615</v>
+      </c>
+      <c r="R100" t="s">
         <v>618</v>
-      </c>
-      <c r="R100" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
@@ -8954,16 +8954,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="F101" s="24">
         <v>4E+18</v>
@@ -8987,22 +8987,22 @@
         <v>10</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="O101" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="P101" s="24" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="Q101" t="s">
+        <v>615</v>
+      </c>
+      <c r="R101" t="s">
         <v>618</v>
-      </c>
-      <c r="R101" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
@@ -9010,16 +9010,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F102" s="24">
         <v>4E+18</v>
@@ -9043,22 +9043,22 @@
         <v>10</v>
       </c>
       <c r="M102" s="26" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="N102" s="28" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="O102" s="26" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="P102" s="24" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="Q102" t="s">
+        <v>615</v>
+      </c>
+      <c r="R102" t="s">
         <v>618</v>
-      </c>
-      <c r="R102" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9066,16 +9066,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="F103" s="24">
         <v>4E+18</v>
@@ -9099,22 +9099,22 @@
         <v>10</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Q103" t="s">
+        <v>615</v>
+      </c>
+      <c r="R103" t="s">
         <v>618</v>
-      </c>
-      <c r="R103" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
@@ -9122,16 +9122,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="F104" s="24">
         <v>4E+18</v>
@@ -9155,22 +9155,22 @@
         <v>10</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="O104" s="26" t="s">
+        <v>641</v>
+      </c>
+      <c r="P104" s="24" t="s">
         <v>644</v>
       </c>
-      <c r="P104" s="24" t="s">
-        <v>647</v>
-      </c>
       <c r="Q104" t="s">
+        <v>615</v>
+      </c>
+      <c r="R104" t="s">
         <v>618</v>
-      </c>
-      <c r="R104" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
@@ -9178,16 +9178,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="F105" s="24">
         <v>4E+18</v>
@@ -9211,22 +9211,22 @@
         <v>10</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="O105" s="26" t="s">
+        <v>642</v>
+      </c>
+      <c r="P105" s="24" t="s">
         <v>645</v>
       </c>
-      <c r="P105" s="24" t="s">
-        <v>648</v>
-      </c>
       <c r="Q105" t="s">
+        <v>615</v>
+      </c>
+      <c r="R105" t="s">
         <v>618</v>
-      </c>
-      <c r="R105" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
@@ -9234,16 +9234,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="F106" s="24">
         <v>4E+18</v>
@@ -9267,22 +9267,22 @@
         <v>10</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="N106" s="28" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="O106" s="26" t="s">
         <v>593</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="Q106" t="s">
+        <v>615</v>
+      </c>
+      <c r="R106" t="s">
         <v>618</v>
-      </c>
-      <c r="R106" t="s">
-        <v>621</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
@@ -9290,16 +9290,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F107" s="24">
         <v>4E+18</v>
@@ -9323,22 +9323,22 @@
         <v>10</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="N107" s="28" t="s">
+        <v>640</v>
+      </c>
+      <c r="O107" s="26" t="s">
         <v>643</v>
       </c>
-      <c r="O107" s="26" t="s">
-        <v>646</v>
-      </c>
       <c r="P107" s="24" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="Q107" t="s">
+        <v>615</v>
+      </c>
+      <c r="R107" t="s">
         <v>618</v>
-      </c>
-      <c r="R107" t="s">
-        <v>621</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67B61F-9806-4B9A-9AE6-C3814FFB2D86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475A2B6-2952-4F46-8179-A70F47428268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwelveBossTable" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="667">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2342,14 +2342,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b98</t>
   </si>
   <si>
@@ -2537,71 +2529,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2,2,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2,2,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3261,8 +3253,8 @@
   <dimension ref="A1:T107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3334,10 +3326,10 @@
         <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R1" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -3390,10 +3382,10 @@
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R2" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3446,10 +3438,10 @@
         <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -3502,10 +3494,10 @@
         <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3558,10 +3550,10 @@
         <v>95</v>
       </c>
       <c r="Q5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3614,10 +3606,10 @@
         <v>96</v>
       </c>
       <c r="Q6" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R6" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3670,10 +3662,10 @@
         <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3726,10 +3718,10 @@
         <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R8" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -3784,10 +3776,10 @@
         <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R9" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -3842,10 +3834,10 @@
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R10" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -3900,10 +3892,10 @@
         <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R11" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -3958,10 +3950,10 @@
         <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R12" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -4016,10 +4008,10 @@
         <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R13" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -4062,22 +4054,22 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
+        <v>656</v>
+      </c>
+      <c r="N14" s="49" t="s">
+        <v>655</v>
+      </c>
+      <c r="O14" s="49" t="s">
+        <v>654</v>
+      </c>
+      <c r="P14" s="49" t="s">
         <v>653</v>
       </c>
-      <c r="N14" s="49" t="s">
-        <v>654</v>
-      </c>
-      <c r="O14" s="49" t="s">
-        <v>655</v>
-      </c>
-      <c r="P14" s="49" t="s">
-        <v>652</v>
-      </c>
       <c r="Q14" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R14" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
@@ -4132,10 +4124,10 @@
         <v>120</v>
       </c>
       <c r="Q15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R15" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4190,10 +4182,10 @@
         <v>126</v>
       </c>
       <c r="Q16" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R16" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4248,10 +4240,10 @@
         <v>149</v>
       </c>
       <c r="Q17" t="s">
+        <v>613</v>
+      </c>
+      <c r="R17" t="s">
         <v>615</v>
-      </c>
-      <c r="R17" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -4304,10 +4296,10 @@
         <v>150</v>
       </c>
       <c r="Q18" t="s">
+        <v>613</v>
+      </c>
+      <c r="R18" t="s">
         <v>615</v>
-      </c>
-      <c r="R18" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -4360,10 +4352,10 @@
         <v>151</v>
       </c>
       <c r="Q19" t="s">
+        <v>613</v>
+      </c>
+      <c r="R19" t="s">
         <v>615</v>
-      </c>
-      <c r="R19" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -4416,10 +4408,10 @@
         <v>145</v>
       </c>
       <c r="Q20" t="s">
+        <v>613</v>
+      </c>
+      <c r="R20" t="s">
         <v>615</v>
-      </c>
-      <c r="R20" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -4472,10 +4464,10 @@
         <v>156</v>
       </c>
       <c r="Q21" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R21" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S21" s="10"/>
     </row>
@@ -4529,10 +4521,10 @@
         <v>160</v>
       </c>
       <c r="Q22" t="s">
+        <v>613</v>
+      </c>
+      <c r="R22" t="s">
         <v>615</v>
-      </c>
-      <c r="R22" t="s">
-        <v>617</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -4587,10 +4579,10 @@
         <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -4645,10 +4637,10 @@
         <v>172</v>
       </c>
       <c r="Q24" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R24" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -4703,10 +4695,10 @@
         <v>179</v>
       </c>
       <c r="Q25" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R25" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -4761,10 +4753,10 @@
         <v>192</v>
       </c>
       <c r="Q26" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R26" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
@@ -4819,10 +4811,10 @@
         <v>190</v>
       </c>
       <c r="Q27" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R27" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -4877,10 +4869,10 @@
         <v>199</v>
       </c>
       <c r="Q28" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R28" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -4935,10 +4927,10 @@
         <v>202</v>
       </c>
       <c r="Q29" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R29" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -4993,10 +4985,10 @@
         <v>210</v>
       </c>
       <c r="Q30" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R30" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
@@ -5051,10 +5043,10 @@
         <v>215</v>
       </c>
       <c r="Q31" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R31" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -5109,10 +5101,10 @@
         <v>250</v>
       </c>
       <c r="Q32" t="s">
+        <v>613</v>
+      </c>
+      <c r="R32" t="s">
         <v>615</v>
-      </c>
-      <c r="R32" t="s">
-        <v>617</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
@@ -5167,10 +5159,10 @@
         <v>251</v>
       </c>
       <c r="Q33" t="s">
+        <v>613</v>
+      </c>
+      <c r="R33" t="s">
         <v>615</v>
-      </c>
-      <c r="R33" t="s">
-        <v>617</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -5225,10 +5217,10 @@
         <v>252</v>
       </c>
       <c r="Q34" t="s">
+        <v>613</v>
+      </c>
+      <c r="R34" t="s">
         <v>615</v>
-      </c>
-      <c r="R34" t="s">
-        <v>617</v>
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
@@ -5283,10 +5275,10 @@
         <v>253</v>
       </c>
       <c r="Q35" t="s">
+        <v>613</v>
+      </c>
+      <c r="R35" t="s">
         <v>615</v>
-      </c>
-      <c r="R35" t="s">
-        <v>617</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
@@ -5341,10 +5333,10 @@
         <v>256</v>
       </c>
       <c r="Q36" t="s">
+        <v>613</v>
+      </c>
+      <c r="R36" t="s">
         <v>615</v>
-      </c>
-      <c r="R36" t="s">
-        <v>617</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
@@ -5399,10 +5391,10 @@
         <v>255</v>
       </c>
       <c r="Q37" t="s">
+        <v>613</v>
+      </c>
+      <c r="R37" t="s">
         <v>615</v>
-      </c>
-      <c r="R37" t="s">
-        <v>617</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
@@ -5457,10 +5449,10 @@
         <v>254</v>
       </c>
       <c r="Q38" t="s">
+        <v>613</v>
+      </c>
+      <c r="R38" t="s">
         <v>615</v>
-      </c>
-      <c r="R38" t="s">
-        <v>617</v>
       </c>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -5515,10 +5507,10 @@
         <v>269</v>
       </c>
       <c r="Q39" t="s">
+        <v>613</v>
+      </c>
+      <c r="R39" t="s">
         <v>615</v>
-      </c>
-      <c r="R39" t="s">
-        <v>617</v>
       </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -5573,10 +5565,10 @@
         <v>257</v>
       </c>
       <c r="Q40" t="s">
+        <v>613</v>
+      </c>
+      <c r="R40" t="s">
         <v>615</v>
-      </c>
-      <c r="R40" t="s">
-        <v>617</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
@@ -5631,10 +5623,10 @@
         <v>274</v>
       </c>
       <c r="Q41" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R41" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -5689,10 +5681,10 @@
         <v>321</v>
       </c>
       <c r="Q42" t="s">
+        <v>613</v>
+      </c>
+      <c r="R42" t="s">
         <v>615</v>
-      </c>
-      <c r="R42" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5745,10 +5737,10 @@
         <v>320</v>
       </c>
       <c r="Q43" t="s">
+        <v>613</v>
+      </c>
+      <c r="R43" t="s">
         <v>615</v>
-      </c>
-      <c r="R43" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5801,10 +5793,10 @@
         <v>319</v>
       </c>
       <c r="Q44" t="s">
+        <v>613</v>
+      </c>
+      <c r="R44" t="s">
         <v>615</v>
-      </c>
-      <c r="R44" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5857,10 +5849,10 @@
         <v>318</v>
       </c>
       <c r="Q45" t="s">
+        <v>613</v>
+      </c>
+      <c r="R45" t="s">
         <v>615</v>
-      </c>
-      <c r="R45" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5913,10 +5905,10 @@
         <v>311</v>
       </c>
       <c r="Q46" t="s">
+        <v>613</v>
+      </c>
+      <c r="R46" t="s">
         <v>615</v>
-      </c>
-      <c r="R46" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -5969,10 +5961,10 @@
         <v>312</v>
       </c>
       <c r="Q47" t="s">
+        <v>613</v>
+      </c>
+      <c r="R47" t="s">
         <v>615</v>
-      </c>
-      <c r="R47" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6025,10 +6017,10 @@
         <v>313</v>
       </c>
       <c r="Q48" t="s">
+        <v>613</v>
+      </c>
+      <c r="R48" t="s">
         <v>615</v>
-      </c>
-      <c r="R48" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6081,10 +6073,10 @@
         <v>314</v>
       </c>
       <c r="Q49" t="s">
+        <v>613</v>
+      </c>
+      <c r="R49" t="s">
         <v>615</v>
-      </c>
-      <c r="R49" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6137,10 +6129,10 @@
         <v>336</v>
       </c>
       <c r="Q50" t="s">
+        <v>613</v>
+      </c>
+      <c r="R50" t="s">
         <v>615</v>
-      </c>
-      <c r="R50" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -6193,10 +6185,10 @@
         <v>340</v>
       </c>
       <c r="Q51" t="s">
+        <v>613</v>
+      </c>
+      <c r="R51" t="s">
         <v>615</v>
-      </c>
-      <c r="R51" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -6249,10 +6241,10 @@
         <v>342</v>
       </c>
       <c r="Q52" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R52" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
@@ -6307,10 +6299,10 @@
         <v>539</v>
       </c>
       <c r="Q53" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R53" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
@@ -6365,10 +6357,10 @@
         <v>354</v>
       </c>
       <c r="Q54" t="s">
+        <v>613</v>
+      </c>
+      <c r="R54" t="s">
         <v>615</v>
-      </c>
-      <c r="R54" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6421,10 +6413,10 @@
         <v>349</v>
       </c>
       <c r="Q55" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R55" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
@@ -6479,10 +6471,10 @@
         <v>360</v>
       </c>
       <c r="Q56" t="s">
+        <v>613</v>
+      </c>
+      <c r="R56" t="s">
         <v>615</v>
-      </c>
-      <c r="R56" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -6532,13 +6524,13 @@
         <v>659</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="Q57" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R57" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6591,10 +6583,10 @@
         <v>371</v>
       </c>
       <c r="Q58" t="s">
+        <v>613</v>
+      </c>
+      <c r="R58" t="s">
         <v>615</v>
-      </c>
-      <c r="R58" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -6647,10 +6639,10 @@
         <v>373</v>
       </c>
       <c r="Q59" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R59" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6703,10 +6695,10 @@
         <v>396</v>
       </c>
       <c r="Q60" t="s">
+        <v>613</v>
+      </c>
+      <c r="R60" t="s">
         <v>615</v>
-      </c>
-      <c r="R60" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6759,10 +6751,10 @@
         <v>397</v>
       </c>
       <c r="Q61" t="s">
+        <v>613</v>
+      </c>
+      <c r="R61" t="s">
         <v>615</v>
-      </c>
-      <c r="R61" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6815,10 +6807,10 @@
         <v>398</v>
       </c>
       <c r="Q62" t="s">
+        <v>613</v>
+      </c>
+      <c r="R62" t="s">
         <v>615</v>
-      </c>
-      <c r="R62" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6871,10 +6863,10 @@
         <v>412</v>
       </c>
       <c r="Q63" t="s">
+        <v>613</v>
+      </c>
+      <c r="R63" t="s">
         <v>615</v>
-      </c>
-      <c r="R63" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6927,10 +6919,10 @@
         <v>415</v>
       </c>
       <c r="Q64" t="s">
+        <v>613</v>
+      </c>
+      <c r="R64" t="s">
         <v>615</v>
-      </c>
-      <c r="R64" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -6983,10 +6975,10 @@
         <v>448</v>
       </c>
       <c r="Q65" t="s">
+        <v>613</v>
+      </c>
+      <c r="R65" t="s">
         <v>615</v>
-      </c>
-      <c r="R65" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -7039,10 +7031,10 @@
         <v>450</v>
       </c>
       <c r="Q66" t="s">
+        <v>613</v>
+      </c>
+      <c r="R66" t="s">
         <v>615</v>
-      </c>
-      <c r="R66" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -7095,10 +7087,10 @@
         <v>389</v>
       </c>
       <c r="Q67" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R67" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7151,10 +7143,10 @@
         <v>419</v>
       </c>
       <c r="Q68" t="s">
+        <v>613</v>
+      </c>
+      <c r="R68" t="s">
         <v>615</v>
-      </c>
-      <c r="R68" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7207,10 +7199,10 @@
         <v>423</v>
       </c>
       <c r="Q69" t="s">
+        <v>613</v>
+      </c>
+      <c r="R69" t="s">
         <v>615</v>
-      </c>
-      <c r="R69" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -7263,10 +7255,10 @@
         <v>544</v>
       </c>
       <c r="Q70" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R70" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -7319,10 +7311,10 @@
         <v>528</v>
       </c>
       <c r="Q71" t="s">
+        <v>613</v>
+      </c>
+      <c r="R71" t="s">
         <v>615</v>
-      </c>
-      <c r="R71" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7375,10 +7367,10 @@
         <v>452</v>
       </c>
       <c r="Q72" t="s">
+        <v>613</v>
+      </c>
+      <c r="R72" t="s">
         <v>615</v>
-      </c>
-      <c r="R72" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7431,10 +7423,10 @@
         <v>454</v>
       </c>
       <c r="Q73" t="s">
+        <v>613</v>
+      </c>
+      <c r="R73" t="s">
         <v>615</v>
-      </c>
-      <c r="R73" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -7487,10 +7479,10 @@
         <v>456</v>
       </c>
       <c r="Q74" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R74" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7531,22 +7523,22 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
+        <v>665</v>
+      </c>
+      <c r="N75" s="49" t="s">
+        <v>664</v>
+      </c>
+      <c r="O75" s="53" t="s">
         <v>663</v>
       </c>
-      <c r="N75" s="49" t="s">
-        <v>662</v>
-      </c>
-      <c r="O75" s="53" t="s">
+      <c r="P75" s="49" t="s">
         <v>661</v>
       </c>
-      <c r="P75" s="49" t="s">
-        <v>660</v>
-      </c>
       <c r="Q75" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R75" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7587,22 +7579,22 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
+        <v>666</v>
+      </c>
+      <c r="N76" s="49" t="s">
         <v>664</v>
       </c>
-      <c r="N76" s="49" t="s">
-        <v>600</v>
-      </c>
       <c r="O76" s="53" t="s">
-        <v>599</v>
+        <v>663</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q76" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R76" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7655,10 +7647,10 @@
         <v>472</v>
       </c>
       <c r="Q77" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R77" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7711,10 +7703,10 @@
         <v>473</v>
       </c>
       <c r="Q78" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R78" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7767,10 +7759,10 @@
         <v>475</v>
       </c>
       <c r="Q79" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R79" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7823,10 +7815,10 @@
         <v>486</v>
       </c>
       <c r="Q80" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R80" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7879,10 +7871,10 @@
         <v>488</v>
       </c>
       <c r="Q81" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R81" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -7935,10 +7927,10 @@
         <v>501</v>
       </c>
       <c r="Q82" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R82" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -7991,10 +7983,10 @@
         <v>505</v>
       </c>
       <c r="Q83" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R83" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -8047,10 +8039,10 @@
         <v>507</v>
       </c>
       <c r="Q84" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R84" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
@@ -8103,10 +8095,10 @@
         <v>514</v>
       </c>
       <c r="Q85" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R85" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -8159,10 +8151,10 @@
         <v>524</v>
       </c>
       <c r="Q86" t="s">
+        <v>613</v>
+      </c>
+      <c r="R86" t="s">
         <v>615</v>
-      </c>
-      <c r="R86" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8215,10 +8207,10 @@
         <v>533</v>
       </c>
       <c r="Q87" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R87" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8271,10 +8263,10 @@
         <v>536</v>
       </c>
       <c r="Q88" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R88" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
@@ -8327,10 +8319,10 @@
         <v>558</v>
       </c>
       <c r="Q89" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R89" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
@@ -8383,10 +8375,10 @@
         <v>559</v>
       </c>
       <c r="Q90" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R90" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
@@ -8439,10 +8431,10 @@
         <v>565</v>
       </c>
       <c r="Q91" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R91" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
@@ -8495,10 +8487,10 @@
         <v>569</v>
       </c>
       <c r="Q92" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R92" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -8539,22 +8531,22 @@
         <v>10</v>
       </c>
       <c r="M93" s="51" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="N93" s="52" t="s">
-        <v>668</v>
+        <v>651</v>
       </c>
       <c r="O93" s="51" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
       <c r="P93" s="49" t="s">
-        <v>666</v>
+        <v>650</v>
       </c>
       <c r="Q93" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R93" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
@@ -8607,10 +8599,10 @@
         <v>570</v>
       </c>
       <c r="Q94" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R94" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
@@ -8663,10 +8655,10 @@
         <v>589</v>
       </c>
       <c r="Q95" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R95" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
@@ -8719,10 +8711,10 @@
         <v>590</v>
       </c>
       <c r="Q96" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R96" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
@@ -8775,10 +8767,10 @@
         <v>591</v>
       </c>
       <c r="Q97" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R97" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
@@ -8831,10 +8823,10 @@
         <v>592</v>
       </c>
       <c r="Q98" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R98" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
@@ -8887,10 +8879,10 @@
         <v>586</v>
       </c>
       <c r="Q99" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R99" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
@@ -8898,16 +8890,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F100" s="24">
         <v>4E+18</v>
@@ -8931,22 +8923,22 @@
         <v>10</v>
       </c>
       <c r="M100" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q100" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R100" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
@@ -8954,16 +8946,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F101" s="24">
         <v>4E+18</v>
@@ -8987,22 +8979,22 @@
         <v>10</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O101" s="26" t="s">
+        <v>626</v>
+      </c>
+      <c r="P101" s="24" t="s">
         <v>628</v>
       </c>
-      <c r="P101" s="24" t="s">
-        <v>630</v>
-      </c>
       <c r="Q101" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R101" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
@@ -9010,16 +9002,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F102" s="24">
         <v>4E+18</v>
@@ -9043,22 +9035,22 @@
         <v>10</v>
       </c>
       <c r="M102" s="26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="N102" s="28" t="s">
+        <v>623</v>
+      </c>
+      <c r="O102" s="26" t="s">
         <v>625</v>
       </c>
-      <c r="O102" s="26" t="s">
-        <v>627</v>
-      </c>
       <c r="P102" s="24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="Q102" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R102" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9066,16 +9058,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="F103" s="24">
         <v>4E+18</v>
@@ -9099,22 +9091,22 @@
         <v>10</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="Q103" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R103" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
@@ -9122,16 +9114,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F104" s="24">
         <v>4E+18</v>
@@ -9155,22 +9147,22 @@
         <v>10</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q104" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R104" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
@@ -9178,16 +9170,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F105" s="24">
         <v>4E+18</v>
@@ -9211,22 +9203,22 @@
         <v>10</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q105" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R105" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
@@ -9234,16 +9226,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F106" s="24">
         <v>4E+18</v>
@@ -9267,22 +9259,22 @@
         <v>10</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="N106" s="28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="O106" s="26" t="s">
         <v>593</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="Q106" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R106" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
@@ -9290,16 +9282,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="F107" s="24">
         <v>4E+18</v>
@@ -9323,22 +9315,22 @@
         <v>10</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="N107" s="28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="Q107" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="R107" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8475A2B6-2952-4F46-8179-A70F47428268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E53A9-688F-447F-B1F1-C2842649606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwelveBossTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="UnitExchage" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="718">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2529,71 +2531,264 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2,2,3,3,3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <t>b106</t>
+  </si>
+  <si>
+    <t>b107</t>
+  </si>
+  <si>
+    <t>b108</t>
+  </si>
+  <si>
+    <t>9015,9015,1297,9015,9015,7170,9015,9015,7160</t>
+  </si>
+  <si>
+    <t>9015,9015,1298,9015,9015,7171,9015,9015,7161</t>
+  </si>
+  <si>
+    <t>9015,9015,1299,9015,9015,7172,9015,9015,7162</t>
+  </si>
+  <si>
+    <t>쿠노이치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시노비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9번</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1가,2가,3가,4가,5가,6가,7가,8가,10가</t>
+  </si>
+  <si>
+    <t>1E+96,2E+96,3E+96,4E+96,5E+96,6E+96,7E+96,8E+96,1E+97</t>
+  </si>
+  <si>
+    <t>5,5,1,5,5,1,5,5,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,6,1,6,6,1,6,6,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,1,7,7,1,7,7,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20가,30가,40가,50가,60가,70가,80가,90가,100가</t>
+  </si>
+  <si>
+    <t>2E+97,3E+97,4E+97,5E+97,6E+97,7E+97,8E+97,9E+97,1E+98</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2E+98,1.4E+98,1.6E+98,1.8E+98,2E+98,2.2E+98,2.4E+98,2.6E+98,3E+98</t>
+  </si>
+  <si>
+    <t>120가,140가,160가,180가,200가,220가,240가,260가,300가</t>
+  </si>
+  <si>
+    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1,1,1,2,2,2,2,2,1,1,1,1,1,2,2,2,2,2,3,3,3,3,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2601,6 +2796,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2658,7 +2856,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2700,6 +2898,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2761,7 +2965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2929,6 +3133,12 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -3250,11 +3460,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T107"/>
+  <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4054,16 +4264,16 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>654</v>
+        <v>702</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>653</v>
+        <v>701</v>
       </c>
       <c r="Q14" t="s">
         <v>612</v>
@@ -6515,16 +6725,16 @@
         <v>10</v>
       </c>
       <c r="M57" s="51" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="N57" s="49" t="s">
-        <v>658</v>
+        <v>714</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>659</v>
+        <v>713</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>660</v>
+        <v>711</v>
       </c>
       <c r="Q57" t="s">
         <v>612</v>
@@ -7523,16 +7733,16 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
-        <v>665</v>
+        <v>710</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="P75" s="49" t="s">
-        <v>661</v>
+        <v>709</v>
       </c>
       <c r="Q75" t="s">
         <v>612</v>
@@ -7579,16 +7789,16 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="N76" s="49" t="s">
-        <v>664</v>
+        <v>708</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>663</v>
+        <v>707</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="Q76" t="s">
         <v>612</v>
@@ -8531,16 +8741,16 @@
         <v>10</v>
       </c>
       <c r="M93" s="51" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="N93" s="52" t="s">
-        <v>651</v>
+        <v>717</v>
       </c>
       <c r="O93" s="51" t="s">
-        <v>652</v>
+        <v>716</v>
       </c>
       <c r="P93" s="49" t="s">
-        <v>650</v>
+        <v>715</v>
       </c>
       <c r="Q93" t="s">
         <v>612</v>
@@ -9330,6 +9540,174 @@
         <v>613</v>
       </c>
       <c r="R107" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C108" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="D108" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="E108" s="23" t="s">
+        <v>656</v>
+      </c>
+      <c r="F108" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G108" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H108" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I108" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J108" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K108" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L108" s="24">
+        <v>10</v>
+      </c>
+      <c r="M108" s="16" t="s">
+        <v>693</v>
+      </c>
+      <c r="N108" s="28" t="s">
+        <v>653</v>
+      </c>
+      <c r="O108" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="P108" s="24" t="s">
+        <v>692</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>613</v>
+      </c>
+      <c r="R108" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="C109" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="D109" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="F109" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G109" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H109" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I109" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J109" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K109" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L109" s="24">
+        <v>10</v>
+      </c>
+      <c r="M109" s="16" t="s">
+        <v>698</v>
+      </c>
+      <c r="N109" s="28" t="s">
+        <v>654</v>
+      </c>
+      <c r="O109" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="P109" s="24" t="s">
+        <v>697</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>613</v>
+      </c>
+      <c r="R109" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C110" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="D110" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="E110" s="23" t="s">
+        <v>658</v>
+      </c>
+      <c r="F110" s="24">
+        <v>4E+18</v>
+      </c>
+      <c r="G110" s="24">
+        <v>300000000000</v>
+      </c>
+      <c r="H110" s="25">
+        <v>2.0000000000000001E+40</v>
+      </c>
+      <c r="I110" s="22">
+        <v>500000</v>
+      </c>
+      <c r="J110" s="24">
+        <v>20000000000</v>
+      </c>
+      <c r="K110" s="24" t="b">
+        <v>0</v>
+      </c>
+      <c r="L110" s="24">
+        <v>10</v>
+      </c>
+      <c r="M110" s="16" t="s">
+        <v>699</v>
+      </c>
+      <c r="N110" s="28" t="s">
+        <v>655</v>
+      </c>
+      <c r="O110" s="26" t="s">
+        <v>696</v>
+      </c>
+      <c r="P110" s="24" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>613</v>
+      </c>
+      <c r="R110" t="s">
         <v>616</v>
       </c>
     </row>
@@ -9341,6 +9719,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EAE7F4-8691-4D03-84AF-1960CD5DE767}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA13F930-E34D-4ECF-99BE-1F6CBFC52311}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -9573,4 +9964,782 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D4C6C4-9444-46C4-8908-7992075C8D2B}">
+  <dimension ref="A2:AE50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.875" customWidth="1"/>
+    <col min="16" max="20" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="21" max="24" width="6.875" customWidth="1"/>
+    <col min="30" max="30" width="23.125" customWidth="1"/>
+    <col min="31" max="31" width="18.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E2" t="s">
+        <v>685</v>
+      </c>
+      <c r="F2" t="s">
+        <v>686</v>
+      </c>
+      <c r="G2" t="s">
+        <v>687</v>
+      </c>
+      <c r="H2" t="s">
+        <v>688</v>
+      </c>
+      <c r="I2" t="s">
+        <v>689</v>
+      </c>
+      <c r="J2" t="s">
+        <v>690</v>
+      </c>
+      <c r="K2" t="s">
+        <v>691</v>
+      </c>
+      <c r="L2" t="s">
+        <v>659</v>
+      </c>
+      <c r="O2" t="s">
+        <v>62</v>
+      </c>
+      <c r="P2" t="s">
+        <v>683</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>684</v>
+      </c>
+      <c r="R2" t="s">
+        <v>685</v>
+      </c>
+      <c r="S2" t="s">
+        <v>686</v>
+      </c>
+      <c r="T2" t="s">
+        <v>687</v>
+      </c>
+      <c r="U2" t="s">
+        <v>688</v>
+      </c>
+      <c r="V2" t="s">
+        <v>689</v>
+      </c>
+      <c r="W2" t="s">
+        <v>690</v>
+      </c>
+      <c r="X2" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>659</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="C3" s="55">
+        <v>120</v>
+      </c>
+      <c r="D3" s="55">
+        <f>C3+20</f>
+        <v>140</v>
+      </c>
+      <c r="E3" s="55">
+        <f t="shared" ref="E3:I3" si="0">D3+20</f>
+        <v>160</v>
+      </c>
+      <c r="F3" s="55">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="G3" s="55">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="H3" s="55">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="I3" s="55">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="J3" s="55">
+        <v>260</v>
+      </c>
+      <c r="K3" s="55">
+        <v>300</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>662</v>
+      </c>
+      <c r="AC3">
+        <v>4</v>
+      </c>
+      <c r="AD3">
+        <f>POWER(10,AC3)</f>
+        <v>10000</v>
+      </c>
+      <c r="AE3" t="str">
+        <f>RIGHT(AD3,AC3)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="55" t="str">
+        <f>C4&amp;","&amp;D4&amp;","&amp;E4&amp;","&amp;F4&amp;","&amp;G4&amp;","&amp;H4&amp;","&amp;I4&amp;","&amp;J4&amp;","&amp;K4</f>
+        <v>120가,140가,160가,180가,200가,220가,240가,260가,300가</v>
+      </c>
+      <c r="C4" t="str">
+        <f>$C$3&amp;L4</f>
+        <v>120가</v>
+      </c>
+      <c r="D4" t="str">
+        <f>$D$3&amp;L4</f>
+        <v>140가</v>
+      </c>
+      <c r="E4" t="str">
+        <f>$E$3&amp;L4</f>
+        <v>160가</v>
+      </c>
+      <c r="F4" t="str">
+        <f>$F$3&amp;L4</f>
+        <v>180가</v>
+      </c>
+      <c r="G4" t="str">
+        <f>$G$3&amp;L4</f>
+        <v>200가</v>
+      </c>
+      <c r="H4" t="str">
+        <f>$H$3&amp;L4</f>
+        <v>220가</v>
+      </c>
+      <c r="I4" t="str">
+        <f>$I$3&amp;L4</f>
+        <v>240가</v>
+      </c>
+      <c r="J4" t="str">
+        <f>$J$3&amp;L4</f>
+        <v>260가</v>
+      </c>
+      <c r="K4" t="str">
+        <f>$K$3&amp;L4</f>
+        <v>300가</v>
+      </c>
+      <c r="L4" s="55" t="s">
+        <v>682</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="55" t="str">
+        <f>P4&amp;","&amp;Q4&amp;","&amp;R4&amp;","&amp;S4&amp;","&amp;T4&amp;","&amp;U4&amp;","&amp;V4&amp;","&amp;W4&amp;","&amp;X4</f>
+        <v>1.2E+98,1.4E+98,1.6E+98,1.8E+98,2E+98,2.2E+98,2.4E+98,2.6E+98,3E+98</v>
+      </c>
+      <c r="P4">
+        <f>$C$3*Y4</f>
+        <v>1.2000000000000001E+98</v>
+      </c>
+      <c r="Q4">
+        <f>$D$3*Y4</f>
+        <v>1.4E+98</v>
+      </c>
+      <c r="R4">
+        <f>$E$3*Y4</f>
+        <v>1.6000000000000001E+98</v>
+      </c>
+      <c r="S4">
+        <f>$F$3*Y4</f>
+        <v>1.8000000000000002E+98</v>
+      </c>
+      <c r="T4">
+        <f>$G$3*Y4</f>
+        <v>2E+98</v>
+      </c>
+      <c r="U4">
+        <f>$H$3*Y4</f>
+        <v>2.2000000000000001E+98</v>
+      </c>
+      <c r="V4">
+        <f>$I$3*Y4</f>
+        <v>2.4000000000000002E+98</v>
+      </c>
+      <c r="W4">
+        <f>$J$3*Y4</f>
+        <v>2.6000000000000003E+98</v>
+      </c>
+      <c r="X4">
+        <f>$K$3*Y4</f>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>VLOOKUP(L4,AB:AE,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC4">
+        <v>8</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD26" si="1">POWER(10,AC4)</f>
+        <v>100000000</v>
+      </c>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE26" si="2">RIGHT(AD4,AC4)</f>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="55"/>
+      <c r="AB5" t="s">
+        <v>665</v>
+      </c>
+      <c r="AC5">
+        <v>12</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="AE5" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" s="55"/>
+      <c r="AB6" t="s">
+        <v>666</v>
+      </c>
+      <c r="AC6">
+        <v>16</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="AE6" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="55"/>
+      <c r="AB7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC7">
+        <v>20</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+      <c r="AE7" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" s="55"/>
+      <c r="AB8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC8">
+        <v>24</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="AE8" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" s="55"/>
+      <c r="AB9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9">
+        <v>28</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="AE9" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" s="55"/>
+      <c r="AB10" t="s">
+        <v>667</v>
+      </c>
+      <c r="AC10">
+        <v>32</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="AE10" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" s="55"/>
+      <c r="AB11" t="s">
+        <v>668</v>
+      </c>
+      <c r="AC11">
+        <v>36</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="1"/>
+        <v>1E+36</v>
+      </c>
+      <c r="AE11" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12" s="55"/>
+      <c r="AB12" t="s">
+        <v>669</v>
+      </c>
+      <c r="AC12">
+        <v>40</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="1"/>
+        <v>1E+40</v>
+      </c>
+      <c r="AE12" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13" s="55"/>
+      <c r="AB13" t="s">
+        <v>670</v>
+      </c>
+      <c r="AC13">
+        <v>44</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="AE13" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="55"/>
+      <c r="N14">
+        <v>11</v>
+      </c>
+      <c r="O14" s="55"/>
+      <c r="AB14" t="s">
+        <v>671</v>
+      </c>
+      <c r="AC14">
+        <v>48</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="1"/>
+        <v>1E+48</v>
+      </c>
+      <c r="AE14" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="55"/>
+      <c r="N15">
+        <v>12</v>
+      </c>
+      <c r="O15" s="55"/>
+      <c r="AB15" t="s">
+        <v>673</v>
+      </c>
+      <c r="AC15">
+        <v>52</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="AE15" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="O16" s="56"/>
+      <c r="AB16" t="s">
+        <v>674</v>
+      </c>
+      <c r="AC16">
+        <v>56</v>
+      </c>
+      <c r="AD16">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="AE16" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+56</v>
+      </c>
+    </row>
+    <row r="17" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB17" t="s">
+        <v>675</v>
+      </c>
+      <c r="AC17">
+        <v>60</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="AE17" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+60</v>
+      </c>
+    </row>
+    <row r="18" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB18" t="s">
+        <v>676</v>
+      </c>
+      <c r="AC18">
+        <v>64</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="1"/>
+        <v>1E+64</v>
+      </c>
+      <c r="AE18" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+64</v>
+      </c>
+    </row>
+    <row r="19" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB19" t="s">
+        <v>677</v>
+      </c>
+      <c r="AC19">
+        <v>68</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="AE19" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+68</v>
+      </c>
+    </row>
+    <row r="20" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB20" t="s">
+        <v>678</v>
+      </c>
+      <c r="AC20">
+        <v>72</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="AE20" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+72</v>
+      </c>
+    </row>
+    <row r="21" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB21" t="s">
+        <v>679</v>
+      </c>
+      <c r="AC21">
+        <v>76</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="1"/>
+        <v>1E+76</v>
+      </c>
+      <c r="AE21" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+76</v>
+      </c>
+    </row>
+    <row r="22" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB22" t="s">
+        <v>680</v>
+      </c>
+      <c r="AC22">
+        <v>80</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="1"/>
+        <v>1E+80</v>
+      </c>
+      <c r="AE22" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="23" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB23" t="s">
+        <v>681</v>
+      </c>
+      <c r="AC23">
+        <v>84</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="AE23" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+84</v>
+      </c>
+    </row>
+    <row r="24" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB24" t="s">
+        <v>663</v>
+      </c>
+      <c r="AC24">
+        <v>88</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="AE24" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+88</v>
+      </c>
+    </row>
+    <row r="25" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB25" t="s">
+        <v>672</v>
+      </c>
+      <c r="AC25">
+        <v>92</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="AE25" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+92</v>
+      </c>
+    </row>
+    <row r="26" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AB26" t="s">
+        <v>682</v>
+      </c>
+      <c r="AC26">
+        <v>96</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="AE26" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="27" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD27" s="56"/>
+    </row>
+    <row r="28" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD28" s="56"/>
+    </row>
+    <row r="29" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD29" s="56"/>
+    </row>
+    <row r="30" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD30" s="56"/>
+    </row>
+    <row r="31" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD31" s="56"/>
+    </row>
+    <row r="32" spans="28:31" x14ac:dyDescent="0.3">
+      <c r="AD32" s="56"/>
+    </row>
+    <row r="33" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD33" s="56"/>
+    </row>
+    <row r="34" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD34" s="56"/>
+    </row>
+    <row r="35" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD35" s="56"/>
+    </row>
+    <row r="36" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD36" s="56"/>
+    </row>
+    <row r="37" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD37" s="56"/>
+    </row>
+    <row r="38" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD38" s="56"/>
+    </row>
+    <row r="39" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD39" s="56"/>
+    </row>
+    <row r="40" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD40" s="56"/>
+    </row>
+    <row r="41" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD41" s="56"/>
+    </row>
+    <row r="42" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD42" s="56"/>
+    </row>
+    <row r="43" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD43" s="56"/>
+    </row>
+    <row r="44" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD44" s="56"/>
+    </row>
+    <row r="45" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD45" s="56"/>
+    </row>
+    <row r="46" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD46" s="56"/>
+    </row>
+    <row r="47" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD47" s="56"/>
+    </row>
+    <row r="48" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD48" s="56"/>
+    </row>
+    <row r="49" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD49" s="56"/>
+    </row>
+    <row r="50" spans="30:30" x14ac:dyDescent="0.3">
+      <c r="AD50" s="56"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1E53A9-688F-447F-B1F1-C2842649606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD44E77-AE15-4ABD-9FE2-C4C7B3C5CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -2130,14 +2130,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8000,8001,8002,8003,8004,8005,8006,8007,8008,8009,8010,8011,8012,8013,8014,8015,8016,8017,8018,8019,8020</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,50,100,150,200,300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>b88</t>
   </si>
   <si>
@@ -2789,6 +2781,14 @@
   </si>
   <si>
     <t>9002,9002,9002,9002,9002,9002,9002,9002,9002,9002,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009,9009</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8000,8001,8002,8003,8004,8005,8006,8007,8008,8009,8010,8011,8012,8013,8014,8015,8016,8017,8018,8019,8020,8021,8022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50,100,150,200,300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,3000,3500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3463,8 +3463,8 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D93" sqref="D93"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3536,10 +3536,10 @@
         <v>65</v>
       </c>
       <c r="Q1" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="R1" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
@@ -3592,10 +3592,10 @@
         <v>92</v>
       </c>
       <c r="Q2" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R2" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -3648,10 +3648,10 @@
         <v>93</v>
       </c>
       <c r="Q3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -3704,10 +3704,10 @@
         <v>94</v>
       </c>
       <c r="Q4" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3760,10 +3760,10 @@
         <v>95</v>
       </c>
       <c r="Q5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -3816,10 +3816,10 @@
         <v>96</v>
       </c>
       <c r="Q6" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R6" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -3872,10 +3872,10 @@
         <v>97</v>
       </c>
       <c r="Q7" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R7" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="8" spans="1:20" s="9" customFormat="1" x14ac:dyDescent="0.3">
@@ -3928,10 +3928,10 @@
         <v>98</v>
       </c>
       <c r="Q8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R8" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -3986,10 +3986,10 @@
         <v>99</v>
       </c>
       <c r="Q9" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R9" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -4044,10 +4044,10 @@
         <v>100</v>
       </c>
       <c r="Q10" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R10" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S10" s="10"/>
       <c r="T10" s="10"/>
@@ -4102,10 +4102,10 @@
         <v>101</v>
       </c>
       <c r="Q11" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R11" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
@@ -4160,10 +4160,10 @@
         <v>102</v>
       </c>
       <c r="Q12" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R12" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -4218,10 +4218,10 @@
         <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R13" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -4264,22 +4264,22 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="Q14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R14" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S14" s="49"/>
       <c r="T14" s="49"/>
@@ -4334,10 +4334,10 @@
         <v>120</v>
       </c>
       <c r="Q15" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R15" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S15" s="10"/>
       <c r="T15" s="10"/>
@@ -4392,10 +4392,10 @@
         <v>126</v>
       </c>
       <c r="Q16" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S16" s="10"/>
       <c r="T16" s="10"/>
@@ -4450,10 +4450,10 @@
         <v>149</v>
       </c>
       <c r="Q17" t="s">
+        <v>611</v>
+      </c>
+      <c r="R17" t="s">
         <v>613</v>
-      </c>
-      <c r="R17" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
@@ -4506,10 +4506,10 @@
         <v>150</v>
       </c>
       <c r="Q18" t="s">
+        <v>611</v>
+      </c>
+      <c r="R18" t="s">
         <v>613</v>
-      </c>
-      <c r="R18" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
@@ -4562,10 +4562,10 @@
         <v>151</v>
       </c>
       <c r="Q19" t="s">
+        <v>611</v>
+      </c>
+      <c r="R19" t="s">
         <v>613</v>
-      </c>
-      <c r="R19" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
@@ -4618,10 +4618,10 @@
         <v>145</v>
       </c>
       <c r="Q20" t="s">
+        <v>611</v>
+      </c>
+      <c r="R20" t="s">
         <v>613</v>
-      </c>
-      <c r="R20" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -4674,10 +4674,10 @@
         <v>156</v>
       </c>
       <c r="Q21" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R21" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S21" s="10"/>
     </row>
@@ -4731,10 +4731,10 @@
         <v>160</v>
       </c>
       <c r="Q22" t="s">
+        <v>611</v>
+      </c>
+      <c r="R22" t="s">
         <v>613</v>
-      </c>
-      <c r="R22" t="s">
-        <v>615</v>
       </c>
       <c r="S22" s="14"/>
       <c r="T22" s="14"/>
@@ -4789,10 +4789,10 @@
         <v>167</v>
       </c>
       <c r="Q23" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R23" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S23" s="14"/>
       <c r="T23" s="14"/>
@@ -4847,10 +4847,10 @@
         <v>172</v>
       </c>
       <c r="Q24" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R24" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S24" s="14"/>
       <c r="T24" s="14"/>
@@ -4905,10 +4905,10 @@
         <v>179</v>
       </c>
       <c r="Q25" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R25" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S25" s="14"/>
       <c r="T25" s="14"/>
@@ -4963,10 +4963,10 @@
         <v>192</v>
       </c>
       <c r="Q26" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R26" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S26" s="10"/>
       <c r="T26" s="10"/>
@@ -5021,10 +5021,10 @@
         <v>190</v>
       </c>
       <c r="Q27" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R27" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S27" s="14"/>
       <c r="T27" s="14"/>
@@ -5079,10 +5079,10 @@
         <v>199</v>
       </c>
       <c r="Q28" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R28" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S28" s="14"/>
       <c r="T28" s="14"/>
@@ -5137,10 +5137,10 @@
         <v>202</v>
       </c>
       <c r="Q29" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R29" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S29" s="14"/>
       <c r="T29" s="14"/>
@@ -5195,10 +5195,10 @@
         <v>210</v>
       </c>
       <c r="Q30" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R30" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S30" s="14"/>
       <c r="T30" s="14"/>
@@ -5253,10 +5253,10 @@
         <v>215</v>
       </c>
       <c r="Q31" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R31" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S31" s="14"/>
       <c r="T31" s="14"/>
@@ -5311,10 +5311,10 @@
         <v>250</v>
       </c>
       <c r="Q32" t="s">
+        <v>611</v>
+      </c>
+      <c r="R32" t="s">
         <v>613</v>
-      </c>
-      <c r="R32" t="s">
-        <v>615</v>
       </c>
       <c r="S32" s="14"/>
       <c r="T32" s="14"/>
@@ -5369,10 +5369,10 @@
         <v>251</v>
       </c>
       <c r="Q33" t="s">
+        <v>611</v>
+      </c>
+      <c r="R33" t="s">
         <v>613</v>
-      </c>
-      <c r="R33" t="s">
-        <v>615</v>
       </c>
       <c r="S33" s="14"/>
       <c r="T33" s="14"/>
@@ -5427,10 +5427,10 @@
         <v>252</v>
       </c>
       <c r="Q34" t="s">
+        <v>611</v>
+      </c>
+      <c r="R34" t="s">
         <v>613</v>
-      </c>
-      <c r="R34" t="s">
-        <v>615</v>
       </c>
       <c r="S34" s="14"/>
       <c r="T34" s="14"/>
@@ -5485,10 +5485,10 @@
         <v>253</v>
       </c>
       <c r="Q35" t="s">
+        <v>611</v>
+      </c>
+      <c r="R35" t="s">
         <v>613</v>
-      </c>
-      <c r="R35" t="s">
-        <v>615</v>
       </c>
       <c r="S35" s="14"/>
       <c r="T35" s="14"/>
@@ -5543,10 +5543,10 @@
         <v>256</v>
       </c>
       <c r="Q36" t="s">
+        <v>611</v>
+      </c>
+      <c r="R36" t="s">
         <v>613</v>
-      </c>
-      <c r="R36" t="s">
-        <v>615</v>
       </c>
       <c r="S36" s="14"/>
       <c r="T36" s="14"/>
@@ -5601,10 +5601,10 @@
         <v>255</v>
       </c>
       <c r="Q37" t="s">
+        <v>611</v>
+      </c>
+      <c r="R37" t="s">
         <v>613</v>
-      </c>
-      <c r="R37" t="s">
-        <v>615</v>
       </c>
       <c r="S37" s="14"/>
       <c r="T37" s="14"/>
@@ -5659,10 +5659,10 @@
         <v>254</v>
       </c>
       <c r="Q38" t="s">
+        <v>611</v>
+      </c>
+      <c r="R38" t="s">
         <v>613</v>
-      </c>
-      <c r="R38" t="s">
-        <v>615</v>
       </c>
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
@@ -5717,10 +5717,10 @@
         <v>269</v>
       </c>
       <c r="Q39" t="s">
+        <v>611</v>
+      </c>
+      <c r="R39" t="s">
         <v>613</v>
-      </c>
-      <c r="R39" t="s">
-        <v>615</v>
       </c>
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
@@ -5775,10 +5775,10 @@
         <v>257</v>
       </c>
       <c r="Q40" t="s">
+        <v>611</v>
+      </c>
+      <c r="R40" t="s">
         <v>613</v>
-      </c>
-      <c r="R40" t="s">
-        <v>615</v>
       </c>
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
@@ -5833,10 +5833,10 @@
         <v>274</v>
       </c>
       <c r="Q41" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R41" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
@@ -5891,10 +5891,10 @@
         <v>321</v>
       </c>
       <c r="Q42" t="s">
+        <v>611</v>
+      </c>
+      <c r="R42" t="s">
         <v>613</v>
-      </c>
-      <c r="R42" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -5947,10 +5947,10 @@
         <v>320</v>
       </c>
       <c r="Q43" t="s">
+        <v>611</v>
+      </c>
+      <c r="R43" t="s">
         <v>613</v>
-      </c>
-      <c r="R43" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6003,10 +6003,10 @@
         <v>319</v>
       </c>
       <c r="Q44" t="s">
+        <v>611</v>
+      </c>
+      <c r="R44" t="s">
         <v>613</v>
-      </c>
-      <c r="R44" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="45" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6059,10 +6059,10 @@
         <v>318</v>
       </c>
       <c r="Q45" t="s">
+        <v>611</v>
+      </c>
+      <c r="R45" t="s">
         <v>613</v>
-      </c>
-      <c r="R45" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -6115,10 +6115,10 @@
         <v>311</v>
       </c>
       <c r="Q46" t="s">
+        <v>611</v>
+      </c>
+      <c r="R46" t="s">
         <v>613</v>
-      </c>
-      <c r="R46" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -6171,10 +6171,10 @@
         <v>312</v>
       </c>
       <c r="Q47" t="s">
+        <v>611</v>
+      </c>
+      <c r="R47" t="s">
         <v>613</v>
-      </c>
-      <c r="R47" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -6227,10 +6227,10 @@
         <v>313</v>
       </c>
       <c r="Q48" t="s">
+        <v>611</v>
+      </c>
+      <c r="R48" t="s">
         <v>613</v>
-      </c>
-      <c r="R48" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
@@ -6283,10 +6283,10 @@
         <v>314</v>
       </c>
       <c r="Q49" t="s">
+        <v>611</v>
+      </c>
+      <c r="R49" t="s">
         <v>613</v>
-      </c>
-      <c r="R49" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
@@ -6339,10 +6339,10 @@
         <v>336</v>
       </c>
       <c r="Q50" t="s">
+        <v>611</v>
+      </c>
+      <c r="R50" t="s">
         <v>613</v>
-      </c>
-      <c r="R50" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -6395,10 +6395,10 @@
         <v>340</v>
       </c>
       <c r="Q51" t="s">
+        <v>611</v>
+      </c>
+      <c r="R51" t="s">
         <v>613</v>
-      </c>
-      <c r="R51" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="52" spans="1:20" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -6451,10 +6451,10 @@
         <v>342</v>
       </c>
       <c r="Q52" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R52" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S52" s="44"/>
       <c r="T52" s="44"/>
@@ -6509,10 +6509,10 @@
         <v>539</v>
       </c>
       <c r="Q53" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R53" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="14"/>
@@ -6567,10 +6567,10 @@
         <v>354</v>
       </c>
       <c r="Q54" t="s">
+        <v>611</v>
+      </c>
+      <c r="R54" t="s">
         <v>613</v>
-      </c>
-      <c r="R54" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="55" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6623,10 +6623,10 @@
         <v>349</v>
       </c>
       <c r="Q55" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R55" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="S55" s="14"/>
       <c r="T55" s="14"/>
@@ -6681,10 +6681,10 @@
         <v>360</v>
       </c>
       <c r="Q56" t="s">
+        <v>611</v>
+      </c>
+      <c r="R56" t="s">
         <v>613</v>
-      </c>
-      <c r="R56" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="57" spans="1:20" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -6725,22 +6725,22 @@
         <v>10</v>
       </c>
       <c r="M57" s="51" t="s">
+        <v>710</v>
+      </c>
+      <c r="N57" s="49" t="s">
         <v>712</v>
       </c>
-      <c r="N57" s="49" t="s">
-        <v>714</v>
-      </c>
       <c r="O57" s="51" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="Q57" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R57" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -6793,10 +6793,10 @@
         <v>371</v>
       </c>
       <c r="Q58" t="s">
+        <v>611</v>
+      </c>
+      <c r="R58" t="s">
         <v>613</v>
-      </c>
-      <c r="R58" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -6849,10 +6849,10 @@
         <v>373</v>
       </c>
       <c r="Q59" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R59" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6905,10 +6905,10 @@
         <v>396</v>
       </c>
       <c r="Q60" t="s">
+        <v>611</v>
+      </c>
+      <c r="R60" t="s">
         <v>613</v>
-      </c>
-      <c r="R60" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="61" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -6961,10 +6961,10 @@
         <v>397</v>
       </c>
       <c r="Q61" t="s">
+        <v>611</v>
+      </c>
+      <c r="R61" t="s">
         <v>613</v>
-      </c>
-      <c r="R61" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7017,10 +7017,10 @@
         <v>398</v>
       </c>
       <c r="Q62" t="s">
+        <v>611</v>
+      </c>
+      <c r="R62" t="s">
         <v>613</v>
-      </c>
-      <c r="R62" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="63" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7073,10 +7073,10 @@
         <v>412</v>
       </c>
       <c r="Q63" t="s">
+        <v>611</v>
+      </c>
+      <c r="R63" t="s">
         <v>613</v>
-      </c>
-      <c r="R63" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="64" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
@@ -7129,10 +7129,10 @@
         <v>415</v>
       </c>
       <c r="Q64" t="s">
+        <v>611</v>
+      </c>
+      <c r="R64" t="s">
         <v>613</v>
-      </c>
-      <c r="R64" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.3">
@@ -7185,10 +7185,10 @@
         <v>448</v>
       </c>
       <c r="Q65" t="s">
+        <v>611</v>
+      </c>
+      <c r="R65" t="s">
         <v>613</v>
-      </c>
-      <c r="R65" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.3">
@@ -7241,10 +7241,10 @@
         <v>450</v>
       </c>
       <c r="Q66" t="s">
+        <v>611</v>
+      </c>
+      <c r="R66" t="s">
         <v>613</v>
-      </c>
-      <c r="R66" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.3">
@@ -7297,10 +7297,10 @@
         <v>389</v>
       </c>
       <c r="Q67" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R67" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="68" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7353,10 +7353,10 @@
         <v>419</v>
       </c>
       <c r="Q68" t="s">
+        <v>611</v>
+      </c>
+      <c r="R68" t="s">
         <v>613</v>
-      </c>
-      <c r="R68" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="69" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7409,10 +7409,10 @@
         <v>423</v>
       </c>
       <c r="Q69" t="s">
+        <v>611</v>
+      </c>
+      <c r="R69" t="s">
         <v>613</v>
-      </c>
-      <c r="R69" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.3">
@@ -7453,22 +7453,22 @@
         <v>10</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>544</v>
+        <v>717</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>543</v>
+        <v>716</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>544</v>
+        <v>717</v>
       </c>
       <c r="P70" s="20" t="s">
-        <v>544</v>
+        <v>717</v>
       </c>
       <c r="Q70" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R70" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="71" spans="1:18" s="42" customFormat="1" x14ac:dyDescent="0.3">
@@ -7521,10 +7521,10 @@
         <v>528</v>
       </c>
       <c r="Q71" t="s">
+        <v>611</v>
+      </c>
+      <c r="R71" t="s">
         <v>613</v>
-      </c>
-      <c r="R71" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="72" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7577,10 +7577,10 @@
         <v>452</v>
       </c>
       <c r="Q72" t="s">
+        <v>611</v>
+      </c>
+      <c r="R72" t="s">
         <v>613</v>
-      </c>
-      <c r="R72" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="73" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7633,10 +7633,10 @@
         <v>454</v>
       </c>
       <c r="Q73" t="s">
+        <v>611</v>
+      </c>
+      <c r="R73" t="s">
         <v>613</v>
-      </c>
-      <c r="R73" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.3">
@@ -7689,10 +7689,10 @@
         <v>456</v>
       </c>
       <c r="Q74" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R74" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7733,22 +7733,22 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="O75" s="53" t="s">
+        <v>705</v>
+      </c>
+      <c r="P75" s="49" t="s">
         <v>707</v>
       </c>
-      <c r="P75" s="49" t="s">
-        <v>709</v>
-      </c>
       <c r="Q75" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R75" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="76" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -7789,22 +7789,22 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="N76" s="49" t="s">
         <v>706</v>
       </c>
-      <c r="N76" s="49" t="s">
-        <v>708</v>
-      </c>
       <c r="O76" s="53" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="Q76" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R76" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="77" spans="1:18" s="22" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -7857,10 +7857,10 @@
         <v>472</v>
       </c>
       <c r="Q77" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R77" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="78" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7913,10 +7913,10 @@
         <v>473</v>
       </c>
       <c r="Q78" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R78" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -7969,10 +7969,10 @@
         <v>475</v>
       </c>
       <c r="Q79" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R79" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8025,10 +8025,10 @@
         <v>486</v>
       </c>
       <c r="Q80" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R80" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="81" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8081,10 +8081,10 @@
         <v>488</v>
       </c>
       <c r="Q81" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R81" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.3">
@@ -8137,10 +8137,10 @@
         <v>501</v>
       </c>
       <c r="Q82" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R82" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.3">
@@ -8193,10 +8193,10 @@
         <v>505</v>
       </c>
       <c r="Q83" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R83" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.3">
@@ -8249,10 +8249,10 @@
         <v>507</v>
       </c>
       <c r="Q84" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R84" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.3">
@@ -8305,10 +8305,10 @@
         <v>514</v>
       </c>
       <c r="Q85" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R85" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.3">
@@ -8361,10 +8361,10 @@
         <v>524</v>
       </c>
       <c r="Q86" t="s">
+        <v>611</v>
+      </c>
+      <c r="R86" t="s">
         <v>613</v>
-      </c>
-      <c r="R86" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="87" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8417,10 +8417,10 @@
         <v>533</v>
       </c>
       <c r="Q87" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R87" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="22" customFormat="1" x14ac:dyDescent="0.3">
@@ -8473,10 +8473,10 @@
         <v>536</v>
       </c>
       <c r="Q88" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R88" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.3">
@@ -8517,22 +8517,22 @@
         <v>10</v>
       </c>
       <c r="M89" s="26" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="N89" s="28" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="O89" s="26" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Q89" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R89" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.3">
@@ -8540,16 +8540,16 @@
         <v>88</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="E90" s="23" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F90" s="24">
         <v>4E+18</v>
@@ -8573,22 +8573,22 @@
         <v>10</v>
       </c>
       <c r="M90" s="26" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="N90" s="28" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="O90" s="26" t="s">
+        <v>555</v>
+      </c>
+      <c r="P90" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="P90" s="24" t="s">
-        <v>559</v>
-      </c>
       <c r="Q90" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R90" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.3">
@@ -8596,16 +8596,16 @@
         <v>89</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C91" s="23" t="s">
         <v>547</v>
       </c>
-      <c r="C91" s="23" t="s">
-        <v>549</v>
-      </c>
       <c r="D91" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E91" s="23" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F91" s="24">
         <v>4E+18</v>
@@ -8629,22 +8629,22 @@
         <v>10</v>
       </c>
       <c r="M91" s="26" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="N91" s="28" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="O91" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P91" s="24" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="Q91" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R91" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.3">
@@ -8652,16 +8652,16 @@
         <v>90</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C92" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="C92" s="23" t="s">
-        <v>550</v>
-      </c>
       <c r="D92" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E92" s="23" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="F92" s="24">
         <v>4E+18</v>
@@ -8685,22 +8685,22 @@
         <v>10</v>
       </c>
       <c r="M92" s="26" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N92" s="28" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="O92" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="P92" s="24" t="s">
         <v>567</v>
       </c>
-      <c r="P92" s="24" t="s">
-        <v>569</v>
-      </c>
       <c r="Q92" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R92" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="93" spans="1:18" s="47" customFormat="1" x14ac:dyDescent="0.3">
@@ -8708,16 +8708,16 @@
         <v>91</v>
       </c>
       <c r="B93" s="47" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C93" s="48" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D93" s="48" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E93" s="48" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F93" s="49">
         <v>4E+18</v>
@@ -8741,22 +8741,22 @@
         <v>10</v>
       </c>
       <c r="M93" s="51" t="s">
+        <v>713</v>
+      </c>
+      <c r="N93" s="52" t="s">
         <v>715</v>
       </c>
-      <c r="N93" s="52" t="s">
-        <v>717</v>
-      </c>
       <c r="O93" s="51" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="P93" s="49" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="Q93" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="R93" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.3">
@@ -8764,16 +8764,16 @@
         <v>92</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F94" s="10">
         <v>4E+18</v>
@@ -8797,22 +8797,22 @@
         <v>10</v>
       </c>
       <c r="M94" s="26" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="N94" s="28" t="s">
+        <v>562</v>
+      </c>
+      <c r="O94" s="26" t="s">
         <v>564</v>
       </c>
-      <c r="O94" s="26" t="s">
-        <v>566</v>
-      </c>
       <c r="P94" s="24" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="Q94" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R94" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.3">
@@ -8820,7 +8820,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C95" s="23" t="s">
         <v>117</v>
@@ -8853,22 +8853,22 @@
         <v>10</v>
       </c>
       <c r="M95" s="26" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="N95" s="28" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O95" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P95" s="24" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="Q95" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R95" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.3">
@@ -8876,7 +8876,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C96" s="23" t="s">
         <v>182</v>
@@ -8909,22 +8909,22 @@
         <v>10</v>
       </c>
       <c r="M96" s="26" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="N96" s="28" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O96" s="26" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="P96" s="24" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="Q96" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R96" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.3">
@@ -8932,16 +8932,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E97" s="23" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F97" s="24">
         <v>4E+18</v>
@@ -8965,22 +8965,22 @@
         <v>10</v>
       </c>
       <c r="M97" s="26" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="N97" s="28" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="O97" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P97" s="24" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="Q97" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R97" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.3">
@@ -8988,16 +8988,16 @@
         <v>96</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F98" s="10">
         <v>4E+18</v>
@@ -9021,22 +9021,22 @@
         <v>10</v>
       </c>
       <c r="M98" s="26" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="N98" s="28" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="O98" s="26" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="P98" s="24" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="Q98" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R98" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.3">
@@ -9044,16 +9044,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F99" s="10">
         <v>4E+18</v>
@@ -9077,22 +9077,22 @@
         <v>10</v>
       </c>
       <c r="M99" s="40" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="N99" s="39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="O99" s="40" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P99" s="41" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="Q99" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R99" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.3">
@@ -9100,16 +9100,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E100" s="23" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="F100" s="24">
         <v>4E+18</v>
@@ -9133,22 +9133,22 @@
         <v>10</v>
       </c>
       <c r="M100" s="26" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="N100" s="28" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="O100" s="26" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="P100" s="24" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="Q100" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R100" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.3">
@@ -9156,16 +9156,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E101" s="23" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F101" s="24">
         <v>4E+18</v>
@@ -9189,22 +9189,22 @@
         <v>10</v>
       </c>
       <c r="M101" s="26" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="N101" s="28" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="O101" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="P101" s="24" t="s">
         <v>626</v>
       </c>
-      <c r="P101" s="24" t="s">
-        <v>628</v>
-      </c>
       <c r="Q101" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R101" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.3">
@@ -9212,16 +9212,16 @@
         <v>100</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E102" s="23" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F102" s="24">
         <v>4E+18</v>
@@ -9245,22 +9245,22 @@
         <v>10</v>
       </c>
       <c r="M102" s="26" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="N102" s="28" t="s">
+        <v>621</v>
+      </c>
+      <c r="O102" s="26" t="s">
         <v>623</v>
       </c>
-      <c r="O102" s="26" t="s">
-        <v>625</v>
-      </c>
       <c r="P102" s="24" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="Q102" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R102" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.3">
@@ -9268,16 +9268,16 @@
         <v>101</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E103" s="23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F103" s="24">
         <v>4E+18</v>
@@ -9301,22 +9301,22 @@
         <v>10</v>
       </c>
       <c r="M103" s="26" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="N103" s="28" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="O103" s="26" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P103" s="24" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="Q103" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R103" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.3">
@@ -9324,16 +9324,16 @@
         <v>102</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E104" s="23" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F104" s="24">
         <v>4E+18</v>
@@ -9357,22 +9357,22 @@
         <v>10</v>
       </c>
       <c r="M104" s="16" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="N104" s="28" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="O104" s="26" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="P104" s="24" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="Q104" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R104" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.3">
@@ -9380,16 +9380,16 @@
         <v>103</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="E105" s="23" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F105" s="24">
         <v>4E+18</v>
@@ -9413,22 +9413,22 @@
         <v>10</v>
       </c>
       <c r="M105" s="16" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="N105" s="28" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="O105" s="26" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="P105" s="24" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="Q105" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R105" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.3">
@@ -9436,16 +9436,16 @@
         <v>104</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E106" s="23" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F106" s="24">
         <v>4E+18</v>
@@ -9469,22 +9469,22 @@
         <v>10</v>
       </c>
       <c r="M106" s="16" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N106" s="28" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="O106" s="26" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="P106" s="24" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="Q106" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R106" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.3">
@@ -9492,16 +9492,16 @@
         <v>105</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E107" s="23" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="F107" s="24">
         <v>4E+18</v>
@@ -9525,22 +9525,22 @@
         <v>10</v>
       </c>
       <c r="M107" s="16" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="N107" s="28" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="O107" s="26" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="P107" s="24" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="Q107" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R107" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.3">
@@ -9548,16 +9548,16 @@
         <v>106</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E108" s="23" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="F108" s="24">
         <v>4E+18</v>
@@ -9581,22 +9581,22 @@
         <v>10</v>
       </c>
       <c r="M108" s="16" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="N108" s="28" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="O108" s="26" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="P108" s="24" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="Q108" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R108" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.3">
@@ -9604,16 +9604,16 @@
         <v>107</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E109" s="23" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="F109" s="24">
         <v>4E+18</v>
@@ -9637,22 +9637,22 @@
         <v>10</v>
       </c>
       <c r="M109" s="16" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="N109" s="28" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="O109" s="26" t="s">
+        <v>693</v>
+      </c>
+      <c r="P109" s="24" t="s">
         <v>695</v>
       </c>
-      <c r="P109" s="24" t="s">
-        <v>697</v>
-      </c>
       <c r="Q109" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R109" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.3">
@@ -9660,16 +9660,16 @@
         <v>108</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E110" s="23" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="F110" s="24">
         <v>4E+18</v>
@@ -9693,22 +9693,22 @@
         <v>10</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="N110" s="28" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="O110" s="26" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="P110" s="24" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="Q110" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="R110" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -9989,73 +9989,73 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D2" t="s">
+        <v>682</v>
+      </c>
+      <c r="E2" t="s">
         <v>683</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>684</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>685</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>686</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>687</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>688</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>689</v>
       </c>
-      <c r="J2" t="s">
-        <v>690</v>
-      </c>
-      <c r="K2" t="s">
-        <v>691</v>
-      </c>
       <c r="L2" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="O2" t="s">
         <v>62</v>
       </c>
       <c r="P2" t="s">
+        <v>681</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>682</v>
+      </c>
+      <c r="R2" t="s">
         <v>683</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>684</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>685</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>686</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>687</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>688</v>
       </c>
-      <c r="V2" t="s">
+      <c r="X2" t="s">
         <v>689</v>
       </c>
-      <c r="W2" t="s">
-        <v>690</v>
-      </c>
-      <c r="X2" t="s">
-        <v>691</v>
-      </c>
       <c r="Y2" t="s">
+        <v>657</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>658</v>
+      </c>
+      <c r="AC2" t="s">
         <v>659</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>660</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.3">
@@ -10093,7 +10093,7 @@
         <v>300</v>
       </c>
       <c r="AB3" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="AC3">
         <v>4</v>
@@ -10152,7 +10152,7 @@
         <v>300가</v>
       </c>
       <c r="L4" s="55" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -10202,7 +10202,7 @@
         <v>1E+96</v>
       </c>
       <c r="AB4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="AC4">
         <v>8</v>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="O5" s="55"/>
       <c r="AB5" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="AC5">
         <v>12</v>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="O6" s="55"/>
       <c r="AB6" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="AC6">
         <v>16</v>
@@ -10352,7 +10352,7 @@
       </c>
       <c r="O10" s="55"/>
       <c r="AB10" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="AC10">
         <v>32</v>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="O11" s="55"/>
       <c r="AB11" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="AC11">
         <v>36</v>
@@ -10402,7 +10402,7 @@
       </c>
       <c r="O12" s="55"/>
       <c r="AB12" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="AC12">
         <v>40</v>
@@ -10427,7 +10427,7 @@
       </c>
       <c r="O13" s="55"/>
       <c r="AB13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="AC13">
         <v>44</v>
@@ -10451,7 +10451,7 @@
       </c>
       <c r="O14" s="55"/>
       <c r="AB14" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="AC14">
         <v>48</v>
@@ -10475,7 +10475,7 @@
       </c>
       <c r="O15" s="55"/>
       <c r="AB15" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="AC15">
         <v>52</v>
@@ -10492,7 +10492,7 @@
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="O16" s="56"/>
       <c r="AB16" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="AC16">
         <v>56</v>
@@ -10508,7 +10508,7 @@
     </row>
     <row r="17" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB17" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="AC17">
         <v>60</v>
@@ -10524,7 +10524,7 @@
     </row>
     <row r="18" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB18" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="AC18">
         <v>64</v>
@@ -10540,7 +10540,7 @@
     </row>
     <row r="19" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB19" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="AC19">
         <v>68</v>
@@ -10556,7 +10556,7 @@
     </row>
     <row r="20" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB20" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="AC20">
         <v>72</v>
@@ -10572,7 +10572,7 @@
     </row>
     <row r="21" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB21" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="AC21">
         <v>76</v>
@@ -10588,7 +10588,7 @@
     </row>
     <row r="22" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB22" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="AC22">
         <v>80</v>
@@ -10604,7 +10604,7 @@
     </row>
     <row r="23" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB23" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="AC23">
         <v>84</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="24" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB24" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="AC24">
         <v>88</v>
@@ -10636,7 +10636,7 @@
     </row>
     <row r="25" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB25" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="AC25">
         <v>92</v>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="26" spans="28:31" x14ac:dyDescent="0.3">
       <c r="AB26" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="AC26">
         <v>96</v>

--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -5,19 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD44E77-AE15-4ABD-9FE2-C4C7B3C5CF2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC91BF-72BB-4BEC-886D-E72908A2BD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwelveBossTable" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
-    <sheet name="UnitExchage" sheetId="3" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitExchage" sheetId="3" r:id="rId3"/>
+    <sheet name="StageExpansion" sheetId="4" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1173" uniqueCount="718">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="727">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2789,6 +2792,42 @@
   </si>
   <si>
     <t>10,50,100,150,200,300,400,500,600,700,800,900,1000,1200,1400,1600,1800,2000,2200,2400,2600,3000,3500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붉은 구미호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복붙용(해당 칼럼에 맞게 복붙, 복사 후 ctr+alt+v -&gt; alt+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기만 입력하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙여넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대산군 점수체크용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자 동굴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2799,7 +2838,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2855,8 +2894,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2906,8 +2953,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2941,6 +3006,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2965,7 +3054,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3140,6 +3229,57 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="60% - 강조색6" xfId="6" builtinId="52"/>
@@ -3161,6 +3301,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="TwelveBossTable"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="UnitExchage"/>
+      <sheetName val="StageExpansion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="14">
+          <cell r="M14" t="str">
+            <v>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+          <cell r="N14" t="str">
+            <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+          </cell>
+          <cell r="O14" t="str">
+            <v>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</v>
+          </cell>
+          <cell r="P14" t="str">
+            <v>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="M57" t="str">
+            <v>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+          <cell r="N57" t="str">
+            <v>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</v>
+          </cell>
+          <cell r="O57" t="str">
+            <v>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</v>
+          </cell>
+          <cell r="P57" t="str">
+            <v>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="M75" t="str">
+            <v>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143</v>
+          </cell>
+          <cell r="N75" t="str">
+            <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+          </cell>
+          <cell r="O75" t="str">
+            <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</v>
+          </cell>
+          <cell r="P75" t="str">
+            <v>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="M76" t="str">
+            <v>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+          <cell r="N76" t="str">
+            <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+          </cell>
+          <cell r="O76" t="str">
+            <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</v>
+          </cell>
+          <cell r="P76" t="str">
+            <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="M93" t="str">
+            <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="M94" t="str">
+            <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="M95" t="str">
+            <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="M96" t="str">
+            <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3463,8 +3702,8 @@
   <dimension ref="A1:T110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M70" sqref="M70"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9719,19 +9958,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EAE7F4-8691-4D03-84AF-1960CD5DE767}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA13F930-E34D-4ECF-99BE-1F6CBFC52311}">
   <dimension ref="A1:I14"/>
   <sheetViews>
@@ -9966,7 +10192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D4C6C4-9444-46C4-8908-7992075C8D2B}">
   <dimension ref="A2:AE50"/>
   <sheetViews>
@@ -10742,4 +10968,1981 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EAE7F4-8691-4D03-84AF-1960CD5DE767}">
+  <dimension ref="B1:N72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="59" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="71"/>
+    <col min="3" max="5" width="11.875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="71" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="73" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="73" customWidth="1"/>
+    <col min="9" max="9" width="19.25" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.25" style="57" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="57" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="57" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="59"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B2" s="57"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B3" s="59" t="s">
+        <v>718</v>
+      </c>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="59"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B4" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="H4" s="57"/>
+      <c r="K4" s="57" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="61"/>
+      <c r="C5" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="I5" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="K5" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="L5" s="61" t="s">
+        <v>659</v>
+      </c>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+    </row>
+    <row r="6" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C6" s="64" t="str">
+        <f>[1]TwelveBossTable!M14</f>
+        <v>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D6" s="64" t="str">
+        <f>[1]TwelveBossTable!N14</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E6" s="64" t="str">
+        <f>[1]TwelveBossTable!O14</f>
+        <v>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F6" s="64" t="str">
+        <f>[1]TwelveBossTable!P14</f>
+        <v>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+      </c>
+      <c r="G6" s="65">
+        <v>0</v>
+      </c>
+      <c r="H6" s="66">
+        <v>0</v>
+      </c>
+      <c r="I6" s="67">
+        <v>0</v>
+      </c>
+      <c r="K6" s="67" t="s">
+        <v>660</v>
+      </c>
+      <c r="L6" s="67">
+        <v>4</v>
+      </c>
+      <c r="M6" s="68">
+        <f>POWER(10,L6)</f>
+        <v>10000</v>
+      </c>
+      <c r="N6" s="68" t="str">
+        <f>RIGHT(M6,L6)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B7" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="C7" s="64" t="str">
+        <f>C6&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14</f>
+        <v>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+      </c>
+      <c r="D7" s="64" t="str">
+        <f t="shared" ref="D7:F7" si="0">D6&amp;","&amp;D8&amp;","&amp;D9&amp;","&amp;D10&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E7" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F7" s="64" t="str">
+        <f t="shared" si="0"/>
+        <v>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+      </c>
+      <c r="G7" s="65">
+        <v>0</v>
+      </c>
+      <c r="H7" s="66">
+        <v>0</v>
+      </c>
+      <c r="I7" s="67">
+        <v>0</v>
+      </c>
+      <c r="K7" s="67" t="s">
+        <v>662</v>
+      </c>
+      <c r="L7" s="67">
+        <v>8</v>
+      </c>
+      <c r="M7" s="68">
+        <f t="shared" ref="M7:M29" si="1">POWER(10,L7)</f>
+        <v>100000000</v>
+      </c>
+      <c r="N7" s="68" t="str">
+        <f t="shared" ref="N7:N29" si="2">RIGHT(M7,L7)</f>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B8" s="63">
+        <v>234</v>
+      </c>
+      <c r="C8" s="64">
+        <f t="shared" ref="C8:C14" si="3">G8*I8</f>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D8" s="64">
+        <v>25</v>
+      </c>
+      <c r="E8" s="64">
+        <v>30</v>
+      </c>
+      <c r="F8" s="64" t="str">
+        <f t="shared" ref="F8:F14" si="4">G8&amp;H8</f>
+        <v>10가</v>
+      </c>
+      <c r="G8" s="69">
+        <v>10</v>
+      </c>
+      <c r="H8" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I8" s="67" t="str">
+        <f t="shared" ref="I8:I14" si="5">VLOOKUP(H8,K:N,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="K8" s="67" t="s">
+        <v>663</v>
+      </c>
+      <c r="L8" s="67">
+        <v>12</v>
+      </c>
+      <c r="M8" s="68">
+        <f t="shared" si="1"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="N8" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B9" s="63">
+        <v>235</v>
+      </c>
+      <c r="C9" s="64">
+        <f t="shared" si="3"/>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D9" s="64">
+        <v>25</v>
+      </c>
+      <c r="E9" s="64">
+        <v>30</v>
+      </c>
+      <c r="F9" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>20가</v>
+      </c>
+      <c r="G9" s="69">
+        <v>20</v>
+      </c>
+      <c r="H9" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I9" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K9" s="67" t="s">
+        <v>664</v>
+      </c>
+      <c r="L9" s="67">
+        <v>16</v>
+      </c>
+      <c r="M9" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+16</v>
+      </c>
+      <c r="N9" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B10" s="63">
+        <v>236</v>
+      </c>
+      <c r="C10" s="64">
+        <f t="shared" si="3"/>
+        <v>5E+97</v>
+      </c>
+      <c r="D10" s="64">
+        <v>25</v>
+      </c>
+      <c r="E10" s="64">
+        <v>30</v>
+      </c>
+      <c r="F10" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>50가</v>
+      </c>
+      <c r="G10" s="69">
+        <v>50</v>
+      </c>
+      <c r="H10" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I10" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K10" s="67" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10" s="67">
+        <v>20</v>
+      </c>
+      <c r="M10" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+20</v>
+      </c>
+      <c r="N10" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B11" s="63">
+        <v>237</v>
+      </c>
+      <c r="C11" s="64">
+        <f t="shared" si="3"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D11" s="64">
+        <v>25</v>
+      </c>
+      <c r="E11" s="64">
+        <v>30</v>
+      </c>
+      <c r="F11" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>100가</v>
+      </c>
+      <c r="G11" s="69">
+        <v>100</v>
+      </c>
+      <c r="H11" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I11" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" s="67">
+        <v>24</v>
+      </c>
+      <c r="M11" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="N11" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B12" s="63">
+        <v>238</v>
+      </c>
+      <c r="C12" s="64">
+        <f t="shared" si="3"/>
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="D12" s="64">
+        <v>25</v>
+      </c>
+      <c r="E12" s="64">
+        <v>30</v>
+      </c>
+      <c r="F12" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>150가</v>
+      </c>
+      <c r="G12" s="69">
+        <v>150</v>
+      </c>
+      <c r="H12" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I12" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="67">
+        <v>28</v>
+      </c>
+      <c r="M12" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="N12" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B13" s="63">
+        <v>239</v>
+      </c>
+      <c r="C13" s="64">
+        <f t="shared" si="3"/>
+        <v>2E+98</v>
+      </c>
+      <c r="D13" s="64">
+        <v>25</v>
+      </c>
+      <c r="E13" s="64">
+        <v>30</v>
+      </c>
+      <c r="F13" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>200가</v>
+      </c>
+      <c r="G13" s="69">
+        <v>200</v>
+      </c>
+      <c r="H13" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I13" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="L13" s="67">
+        <v>32</v>
+      </c>
+      <c r="M13" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="N13" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B14" s="63">
+        <v>240</v>
+      </c>
+      <c r="C14" s="64">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D14" s="64">
+        <v>25</v>
+      </c>
+      <c r="E14" s="64">
+        <v>30</v>
+      </c>
+      <c r="F14" s="64" t="str">
+        <f t="shared" si="4"/>
+        <v>300가</v>
+      </c>
+      <c r="G14" s="69">
+        <v>300</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I14" s="67" t="str">
+        <f t="shared" si="5"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>666</v>
+      </c>
+      <c r="L14" s="67">
+        <v>36</v>
+      </c>
+      <c r="M14" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+36</v>
+      </c>
+      <c r="N14" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="K15" s="67" t="s">
+        <v>667</v>
+      </c>
+      <c r="L15" s="67">
+        <v>40</v>
+      </c>
+      <c r="M15" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+40</v>
+      </c>
+      <c r="N15" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="67"/>
+      <c r="K16" s="67" t="s">
+        <v>668</v>
+      </c>
+      <c r="L16" s="67">
+        <v>44</v>
+      </c>
+      <c r="M16" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="N16" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="67"/>
+      <c r="K17" s="67" t="s">
+        <v>669</v>
+      </c>
+      <c r="L17" s="67">
+        <v>48</v>
+      </c>
+      <c r="M17" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+48</v>
+      </c>
+      <c r="N17" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="59"/>
+      <c r="K18" s="67" t="s">
+        <v>671</v>
+      </c>
+      <c r="L18" s="67">
+        <v>52</v>
+      </c>
+      <c r="M18" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="N18" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="H19" s="57"/>
+      <c r="K19" s="67" t="s">
+        <v>672</v>
+      </c>
+      <c r="L19" s="67">
+        <v>56</v>
+      </c>
+      <c r="M19" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="N19" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="61"/>
+      <c r="C20" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="I20" s="61" t="s">
+        <v>658</v>
+      </c>
+      <c r="K20" s="67" t="s">
+        <v>673</v>
+      </c>
+      <c r="L20" s="67">
+        <v>60</v>
+      </c>
+      <c r="M20" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="N20" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C21" s="64" t="str">
+        <f>[1]TwelveBossTable!M57</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D21" s="64" t="str">
+        <f>[1]TwelveBossTable!N57</f>
+        <v>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</v>
+      </c>
+      <c r="E21" s="64" t="str">
+        <f>[1]TwelveBossTable!O57</f>
+        <v>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</v>
+      </c>
+      <c r="F21" s="64" t="str">
+        <f>[1]TwelveBossTable!P57</f>
+        <v>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+      </c>
+      <c r="G21" s="65">
+        <v>0</v>
+      </c>
+      <c r="H21" s="66">
+        <v>0</v>
+      </c>
+      <c r="I21" s="67">
+        <v>0</v>
+      </c>
+      <c r="K21" s="67" t="s">
+        <v>674</v>
+      </c>
+      <c r="L21" s="67">
+        <v>64</v>
+      </c>
+      <c r="M21" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+64</v>
+      </c>
+      <c r="N21" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B22" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="C22" s="64" t="str">
+        <f>C21&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+      </c>
+      <c r="D22" s="64" t="str">
+        <f t="shared" ref="D22:F22" si="6">D21&amp;","&amp;D23&amp;","&amp;D24&amp;","&amp;D25&amp;","&amp;D26&amp;","&amp;D27&amp;","&amp;D28&amp;","&amp;D29</f>
+        <v>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E22" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F22" s="64" t="str">
+        <f t="shared" si="6"/>
+        <v>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+      </c>
+      <c r="G22" s="65">
+        <v>0</v>
+      </c>
+      <c r="H22" s="66">
+        <v>0</v>
+      </c>
+      <c r="I22" s="67">
+        <v>0</v>
+      </c>
+      <c r="K22" s="67" t="s">
+        <v>675</v>
+      </c>
+      <c r="L22" s="67">
+        <v>68</v>
+      </c>
+      <c r="M22" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="N22" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B23" s="63">
+        <v>234</v>
+      </c>
+      <c r="C23" s="64">
+        <f t="shared" ref="C23:C29" si="7">G23*I23</f>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D23" s="64">
+        <v>25</v>
+      </c>
+      <c r="E23" s="64">
+        <v>30</v>
+      </c>
+      <c r="F23" s="64" t="str">
+        <f t="shared" ref="F23:F29" si="8">G23&amp;H23</f>
+        <v>10가</v>
+      </c>
+      <c r="G23" s="69">
+        <v>10</v>
+      </c>
+      <c r="H23" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I23" s="67" t="str">
+        <f t="shared" ref="I23:I29" si="9">VLOOKUP(H23,K:N,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="K23" s="67" t="s">
+        <v>676</v>
+      </c>
+      <c r="L23" s="67">
+        <v>72</v>
+      </c>
+      <c r="M23" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="N23" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B24" s="63">
+        <v>235</v>
+      </c>
+      <c r="C24" s="64">
+        <f t="shared" si="7"/>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D24" s="64">
+        <v>25</v>
+      </c>
+      <c r="E24" s="64">
+        <v>30</v>
+      </c>
+      <c r="F24" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>20가</v>
+      </c>
+      <c r="G24" s="69">
+        <v>20</v>
+      </c>
+      <c r="H24" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I24" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K24" s="67" t="s">
+        <v>677</v>
+      </c>
+      <c r="L24" s="67">
+        <v>76</v>
+      </c>
+      <c r="M24" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+76</v>
+      </c>
+      <c r="N24" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B25" s="63">
+        <v>236</v>
+      </c>
+      <c r="C25" s="64">
+        <f t="shared" si="7"/>
+        <v>5E+97</v>
+      </c>
+      <c r="D25" s="64">
+        <v>25</v>
+      </c>
+      <c r="E25" s="64">
+        <v>30</v>
+      </c>
+      <c r="F25" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>50가</v>
+      </c>
+      <c r="G25" s="69">
+        <v>50</v>
+      </c>
+      <c r="H25" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I25" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K25" s="67" t="s">
+        <v>678</v>
+      </c>
+      <c r="L25" s="67">
+        <v>80</v>
+      </c>
+      <c r="M25" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+80</v>
+      </c>
+      <c r="N25" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B26" s="63">
+        <v>237</v>
+      </c>
+      <c r="C26" s="64">
+        <f t="shared" si="7"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D26" s="64">
+        <v>25</v>
+      </c>
+      <c r="E26" s="64">
+        <v>30</v>
+      </c>
+      <c r="F26" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>100가</v>
+      </c>
+      <c r="G26" s="69">
+        <v>100</v>
+      </c>
+      <c r="H26" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I26" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K26" s="67" t="s">
+        <v>679</v>
+      </c>
+      <c r="L26" s="67">
+        <v>84</v>
+      </c>
+      <c r="M26" s="68">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="N26" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B27" s="63">
+        <v>238</v>
+      </c>
+      <c r="C27" s="64">
+        <f t="shared" si="7"/>
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="D27" s="64">
+        <v>25</v>
+      </c>
+      <c r="E27" s="64">
+        <v>30</v>
+      </c>
+      <c r="F27" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>150가</v>
+      </c>
+      <c r="G27" s="69">
+        <v>150</v>
+      </c>
+      <c r="H27" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I27" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K27" s="67" t="s">
+        <v>661</v>
+      </c>
+      <c r="L27" s="67">
+        <v>88</v>
+      </c>
+      <c r="M27" s="68">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="N27" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B28" s="63">
+        <v>239</v>
+      </c>
+      <c r="C28" s="64">
+        <f t="shared" si="7"/>
+        <v>2E+98</v>
+      </c>
+      <c r="D28" s="64">
+        <v>25</v>
+      </c>
+      <c r="E28" s="64">
+        <v>30</v>
+      </c>
+      <c r="F28" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>200가</v>
+      </c>
+      <c r="G28" s="69">
+        <v>200</v>
+      </c>
+      <c r="H28" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I28" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K28" s="67" t="s">
+        <v>670</v>
+      </c>
+      <c r="L28" s="67">
+        <v>92</v>
+      </c>
+      <c r="M28" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="N28" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B29" s="63">
+        <v>240</v>
+      </c>
+      <c r="C29" s="64">
+        <f t="shared" si="7"/>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D29" s="64">
+        <v>25</v>
+      </c>
+      <c r="E29" s="64">
+        <v>30</v>
+      </c>
+      <c r="F29" s="64" t="str">
+        <f t="shared" si="8"/>
+        <v>300가</v>
+      </c>
+      <c r="G29" s="69">
+        <v>300</v>
+      </c>
+      <c r="H29" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I29" s="67" t="str">
+        <f t="shared" si="9"/>
+        <v>1E+96</v>
+      </c>
+      <c r="K29" s="67" t="s">
+        <v>680</v>
+      </c>
+      <c r="L29" s="67">
+        <v>96</v>
+      </c>
+      <c r="M29" s="68">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="N29" s="68" t="str">
+        <f t="shared" si="2"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="66"/>
+      <c r="I30" s="67"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B33" s="59" t="s">
+        <v>441</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="59"/>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B34" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="H34" s="57"/>
+    </row>
+    <row r="35" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="61"/>
+      <c r="C35" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D35" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H35" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="I35" s="59"/>
+    </row>
+    <row r="36" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C36" s="64" t="str">
+        <f>[1]TwelveBossTable!M75</f>
+        <v>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143</v>
+      </c>
+      <c r="D36" s="64" t="str">
+        <f>[1]TwelveBossTable!N75</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E36" s="64" t="str">
+        <f>[1]TwelveBossTable!O75</f>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</v>
+      </c>
+      <c r="F36" s="64" t="str">
+        <f>[1]TwelveBossTable!P75</f>
+        <v>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점</v>
+      </c>
+      <c r="G36" s="65">
+        <v>0</v>
+      </c>
+      <c r="H36" s="66">
+        <v>0</v>
+      </c>
+      <c r="I36" s="59"/>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B37" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="C37" s="64" t="str">
+        <f>C36&amp;","&amp;C38&amp;","&amp;C39&amp;","&amp;C40&amp;","&amp;C41&amp;","&amp;C42&amp;","&amp;C43&amp;","&amp;C44</f>
+        <v>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,143,144,145,146,147,148,150</v>
+      </c>
+      <c r="D37" s="64" t="str">
+        <f t="shared" ref="D37:F37" si="10">D36&amp;","&amp;D38&amp;","&amp;D39&amp;","&amp;D40&amp;","&amp;D41&amp;","&amp;D42&amp;","&amp;D43&amp;","&amp;D44</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E37" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F37" s="64" t="str">
+        <f t="shared" si="10"/>
+        <v>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점,143점,144점,145점,146점,147점,148점,150점</v>
+      </c>
+      <c r="G37" s="65">
+        <v>0</v>
+      </c>
+      <c r="H37" s="66">
+        <v>0</v>
+      </c>
+      <c r="I37" s="59"/>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B38" s="63">
+        <v>234</v>
+      </c>
+      <c r="C38" s="64">
+        <f>G38</f>
+        <v>143</v>
+      </c>
+      <c r="D38" s="64">
+        <v>25</v>
+      </c>
+      <c r="E38" s="64">
+        <v>30</v>
+      </c>
+      <c r="F38" s="64" t="str">
+        <f t="shared" ref="F38:F44" si="11">G38&amp;H38</f>
+        <v>143점</v>
+      </c>
+      <c r="G38" s="69">
+        <v>143</v>
+      </c>
+      <c r="H38" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I38" s="59"/>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B39" s="63">
+        <v>235</v>
+      </c>
+      <c r="C39" s="64">
+        <f t="shared" ref="C39:C44" si="12">G39</f>
+        <v>144</v>
+      </c>
+      <c r="D39" s="64">
+        <v>25</v>
+      </c>
+      <c r="E39" s="64">
+        <v>30</v>
+      </c>
+      <c r="F39" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>144점</v>
+      </c>
+      <c r="G39" s="69">
+        <v>144</v>
+      </c>
+      <c r="H39" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I39" s="59"/>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B40" s="63">
+        <v>236</v>
+      </c>
+      <c r="C40" s="64">
+        <f t="shared" si="12"/>
+        <v>145</v>
+      </c>
+      <c r="D40" s="64">
+        <v>25</v>
+      </c>
+      <c r="E40" s="64">
+        <v>30</v>
+      </c>
+      <c r="F40" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>145점</v>
+      </c>
+      <c r="G40" s="69">
+        <v>145</v>
+      </c>
+      <c r="H40" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I40" s="59"/>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B41" s="63">
+        <v>237</v>
+      </c>
+      <c r="C41" s="64">
+        <f t="shared" si="12"/>
+        <v>146</v>
+      </c>
+      <c r="D41" s="64">
+        <v>25</v>
+      </c>
+      <c r="E41" s="64">
+        <v>30</v>
+      </c>
+      <c r="F41" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>146점</v>
+      </c>
+      <c r="G41" s="69">
+        <v>146</v>
+      </c>
+      <c r="H41" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I41" s="59"/>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="63">
+        <v>238</v>
+      </c>
+      <c r="C42" s="64">
+        <f t="shared" si="12"/>
+        <v>147</v>
+      </c>
+      <c r="D42" s="64">
+        <v>25</v>
+      </c>
+      <c r="E42" s="64">
+        <v>30</v>
+      </c>
+      <c r="F42" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>147점</v>
+      </c>
+      <c r="G42" s="69">
+        <v>147</v>
+      </c>
+      <c r="H42" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I42" s="59"/>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="63">
+        <v>239</v>
+      </c>
+      <c r="C43" s="64">
+        <f t="shared" si="12"/>
+        <v>148</v>
+      </c>
+      <c r="D43" s="64">
+        <v>25</v>
+      </c>
+      <c r="E43" s="64">
+        <v>30</v>
+      </c>
+      <c r="F43" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>148점</v>
+      </c>
+      <c r="G43" s="69">
+        <v>148</v>
+      </c>
+      <c r="H43" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I43" s="59"/>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="63">
+        <v>240</v>
+      </c>
+      <c r="C44" s="64">
+        <f t="shared" si="12"/>
+        <v>150</v>
+      </c>
+      <c r="D44" s="64">
+        <v>25</v>
+      </c>
+      <c r="E44" s="64">
+        <v>30</v>
+      </c>
+      <c r="F44" s="64" t="str">
+        <f t="shared" si="11"/>
+        <v>150점</v>
+      </c>
+      <c r="G44" s="69">
+        <v>150</v>
+      </c>
+      <c r="H44" s="66" t="s">
+        <v>724</v>
+      </c>
+      <c r="I44" s="59"/>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="64"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="67"/>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="59" t="s">
+        <v>725</v>
+      </c>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="59"/>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C48" s="58"/>
+      <c r="D48" s="58"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="H48" s="57"/>
+    </row>
+    <row r="49" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="61"/>
+      <c r="C49" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E49" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F49" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H49" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="I49" s="61" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C50" s="64" t="str">
+        <f>[1]TwelveBossTable!M76</f>
+        <v>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="D50" s="64" t="str">
+        <f>[1]TwelveBossTable!N76</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E50" s="64" t="str">
+        <f>[1]TwelveBossTable!O76</f>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</v>
+      </c>
+      <c r="F50" s="64" t="str">
+        <f>[1]TwelveBossTable!P76</f>
+        <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
+      </c>
+      <c r="G50" s="65">
+        <v>0</v>
+      </c>
+      <c r="H50" s="66">
+        <v>0</v>
+      </c>
+      <c r="I50" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B51" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="C51" s="64" t="str">
+        <f>C50&amp;","&amp;C52&amp;","&amp;C53&amp;","&amp;C54&amp;","&amp;C55&amp;","&amp;C56&amp;","&amp;C57&amp;","&amp;C58</f>
+        <v>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+      </c>
+      <c r="D51" s="64" t="str">
+        <f t="shared" ref="D51:F51" si="13">D50&amp;","&amp;D52&amp;","&amp;D53&amp;","&amp;D54&amp;","&amp;D55&amp;","&amp;D56&amp;","&amp;D57&amp;","&amp;D58</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E51" s="64" t="str">
+        <f t="shared" si="13"/>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F51" s="64" t="str">
+        <f t="shared" si="13"/>
+        <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+      </c>
+      <c r="G51" s="65">
+        <v>0</v>
+      </c>
+      <c r="H51" s="66">
+        <v>0</v>
+      </c>
+      <c r="I51" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B52" s="63">
+        <v>234</v>
+      </c>
+      <c r="C52" s="64">
+        <f t="shared" ref="C52:C58" si="14">G52*I52</f>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D52" s="64">
+        <v>25</v>
+      </c>
+      <c r="E52" s="64">
+        <v>30</v>
+      </c>
+      <c r="F52" s="64" t="str">
+        <f t="shared" ref="F52:F58" si="15">G52&amp;H52</f>
+        <v>10가</v>
+      </c>
+      <c r="G52" s="69">
+        <v>10</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I52" s="67" t="str">
+        <f t="shared" ref="I52:I58" si="16">VLOOKUP(H52,K:N,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B53" s="63">
+        <v>235</v>
+      </c>
+      <c r="C53" s="64">
+        <f t="shared" si="14"/>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D53" s="64">
+        <v>25</v>
+      </c>
+      <c r="E53" s="64">
+        <v>30</v>
+      </c>
+      <c r="F53" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>20가</v>
+      </c>
+      <c r="G53" s="69">
+        <v>20</v>
+      </c>
+      <c r="H53" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I53" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B54" s="63">
+        <v>236</v>
+      </c>
+      <c r="C54" s="64">
+        <f t="shared" si="14"/>
+        <v>5E+97</v>
+      </c>
+      <c r="D54" s="64">
+        <v>25</v>
+      </c>
+      <c r="E54" s="64">
+        <v>30</v>
+      </c>
+      <c r="F54" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>50가</v>
+      </c>
+      <c r="G54" s="69">
+        <v>50</v>
+      </c>
+      <c r="H54" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I54" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B55" s="63">
+        <v>237</v>
+      </c>
+      <c r="C55" s="64">
+        <f t="shared" si="14"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D55" s="64">
+        <v>25</v>
+      </c>
+      <c r="E55" s="64">
+        <v>30</v>
+      </c>
+      <c r="F55" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>100가</v>
+      </c>
+      <c r="G55" s="69">
+        <v>100</v>
+      </c>
+      <c r="H55" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I55" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B56" s="63">
+        <v>238</v>
+      </c>
+      <c r="C56" s="64">
+        <f t="shared" si="14"/>
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="D56" s="64">
+        <v>25</v>
+      </c>
+      <c r="E56" s="64">
+        <v>30</v>
+      </c>
+      <c r="F56" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>150가</v>
+      </c>
+      <c r="G56" s="69">
+        <v>150</v>
+      </c>
+      <c r="H56" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I56" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" s="63">
+        <v>239</v>
+      </c>
+      <c r="C57" s="64">
+        <f t="shared" si="14"/>
+        <v>2E+98</v>
+      </c>
+      <c r="D57" s="64">
+        <v>25</v>
+      </c>
+      <c r="E57" s="64">
+        <v>30</v>
+      </c>
+      <c r="F57" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>200가</v>
+      </c>
+      <c r="G57" s="69">
+        <v>200</v>
+      </c>
+      <c r="H57" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I57" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" s="63">
+        <v>240</v>
+      </c>
+      <c r="C58" s="64">
+        <f t="shared" si="14"/>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D58" s="64">
+        <v>25</v>
+      </c>
+      <c r="E58" s="64">
+        <v>30</v>
+      </c>
+      <c r="F58" s="64" t="str">
+        <f t="shared" si="15"/>
+        <v>300가</v>
+      </c>
+      <c r="G58" s="69">
+        <v>300</v>
+      </c>
+      <c r="H58" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I58" s="67" t="str">
+        <f t="shared" si="16"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B61" s="59" t="s">
+        <v>726</v>
+      </c>
+      <c r="C61" s="58"/>
+      <c r="D61" s="58"/>
+      <c r="E61" s="58"/>
+      <c r="F61" s="60"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="59"/>
+    </row>
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B62" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C62" s="58"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="57"/>
+      <c r="G62" s="57" t="s">
+        <v>720</v>
+      </c>
+      <c r="H62" s="57"/>
+    </row>
+    <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B63" s="61"/>
+      <c r="C63" s="62" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="H63" s="61" t="s">
+        <v>657</v>
+      </c>
+      <c r="I63" s="61" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="63" t="s">
+        <v>722</v>
+      </c>
+      <c r="C64" s="70" t="str">
+        <f>[1]TwelveBossTable!M93</f>
+        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
+      </c>
+      <c r="D64" s="70" t="str">
+        <f>[1]TwelveBossTable!M94</f>
+        <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="E64" s="70" t="str">
+        <f>[1]TwelveBossTable!M95</f>
+        <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="F64" s="70" t="str">
+        <f>[1]TwelveBossTable!M96</f>
+        <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
+      </c>
+      <c r="G64" s="65">
+        <v>0</v>
+      </c>
+      <c r="H64" s="66">
+        <v>0</v>
+      </c>
+      <c r="I64" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="63" t="s">
+        <v>723</v>
+      </c>
+      <c r="C65" s="64" t="str">
+        <f>C64&amp;","&amp;C66&amp;","&amp;C67&amp;","&amp;C68&amp;","&amp;C69&amp;","&amp;C70&amp;","&amp;C71&amp;","&amp;C72</f>
+        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+      </c>
+      <c r="D65" s="64" t="str">
+        <f t="shared" ref="D65:F65" si="17">D64&amp;","&amp;D66&amp;","&amp;D67&amp;","&amp;D68&amp;","&amp;D69&amp;","&amp;D70&amp;","&amp;D71&amp;","&amp;D72</f>
+        <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25,25,25,25,25,25,25</v>
+      </c>
+      <c r="E65" s="64" t="str">
+        <f t="shared" si="17"/>
+        <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30,30,30,30,30,30,30</v>
+      </c>
+      <c r="F65" s="64" t="str">
+        <f t="shared" si="17"/>
+        <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10가,20가,50가,100가,150가,200가,300가</v>
+      </c>
+      <c r="G65" s="65">
+        <v>0</v>
+      </c>
+      <c r="H65" s="66">
+        <v>0</v>
+      </c>
+      <c r="I65" s="67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="63">
+        <v>234</v>
+      </c>
+      <c r="C66" s="64">
+        <f t="shared" ref="C66:C72" si="18">G66*I66</f>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D66" s="64">
+        <v>25</v>
+      </c>
+      <c r="E66" s="64">
+        <v>30</v>
+      </c>
+      <c r="F66" s="64" t="str">
+        <f t="shared" ref="F66:F72" si="19">G66&amp;H66</f>
+        <v>10가</v>
+      </c>
+      <c r="G66" s="69">
+        <v>10</v>
+      </c>
+      <c r="H66" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I66" s="67" t="str">
+        <f t="shared" ref="I66:I72" si="20">VLOOKUP(H66,K:N,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="63">
+        <v>235</v>
+      </c>
+      <c r="C67" s="64">
+        <f t="shared" si="18"/>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D67" s="64">
+        <v>25</v>
+      </c>
+      <c r="E67" s="64">
+        <v>30</v>
+      </c>
+      <c r="F67" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>20가</v>
+      </c>
+      <c r="G67" s="69">
+        <v>20</v>
+      </c>
+      <c r="H67" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I67" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="63">
+        <v>236</v>
+      </c>
+      <c r="C68" s="64">
+        <f t="shared" si="18"/>
+        <v>5E+97</v>
+      </c>
+      <c r="D68" s="64">
+        <v>25</v>
+      </c>
+      <c r="E68" s="64">
+        <v>30</v>
+      </c>
+      <c r="F68" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>50가</v>
+      </c>
+      <c r="G68" s="69">
+        <v>50</v>
+      </c>
+      <c r="H68" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I68" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="63">
+        <v>237</v>
+      </c>
+      <c r="C69" s="64">
+        <f t="shared" si="18"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D69" s="64">
+        <v>25</v>
+      </c>
+      <c r="E69" s="64">
+        <v>30</v>
+      </c>
+      <c r="F69" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>100가</v>
+      </c>
+      <c r="G69" s="69">
+        <v>100</v>
+      </c>
+      <c r="H69" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I69" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="63">
+        <v>238</v>
+      </c>
+      <c r="C70" s="64">
+        <f t="shared" si="18"/>
+        <v>1.5000000000000001E+98</v>
+      </c>
+      <c r="D70" s="64">
+        <v>25</v>
+      </c>
+      <c r="E70" s="64">
+        <v>30</v>
+      </c>
+      <c r="F70" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>150가</v>
+      </c>
+      <c r="G70" s="69">
+        <v>150</v>
+      </c>
+      <c r="H70" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I70" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="63">
+        <v>239</v>
+      </c>
+      <c r="C71" s="64">
+        <f t="shared" si="18"/>
+        <v>2E+98</v>
+      </c>
+      <c r="D71" s="64">
+        <v>25</v>
+      </c>
+      <c r="E71" s="64">
+        <v>30</v>
+      </c>
+      <c r="F71" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>200가</v>
+      </c>
+      <c r="G71" s="69">
+        <v>200</v>
+      </c>
+      <c r="H71" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I71" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B72" s="63">
+        <v>240</v>
+      </c>
+      <c r="C72" s="64">
+        <f t="shared" si="18"/>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D72" s="64">
+        <v>25</v>
+      </c>
+      <c r="E72" s="64">
+        <v>30</v>
+      </c>
+      <c r="F72" s="64" t="str">
+        <f t="shared" si="19"/>
+        <v>300가</v>
+      </c>
+      <c r="G72" s="69">
+        <v>300</v>
+      </c>
+      <c r="H72" s="66" t="s">
+        <v>680</v>
+      </c>
+      <c r="I72" s="67" t="str">
+        <f t="shared" si="20"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/06.Table/TwelveBossTable.xlsx
+++ b/Assets/06.Table/TwelveBossTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC91BF-72BB-4BEC-886D-E72908A2BD50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F531A0AD-14C8-411C-A1AB-0C7C506EDF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TwelveBossTable" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="726">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2719,62 +2719,6 @@
     <t>120가,140가,160가,180가,200가,220가,240가,260가,300가</t>
   </si>
   <si>
-    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2827,7 +2771,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>그림자 동굴</t>
+    <t>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</t>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+  </si>
+  <si>
+    <t>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</t>
+  </si>
+  <si>
+    <t>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,30,30,30</t>
+  </si>
+  <si>
+    <t>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
+  </si>
+  <si>
+    <t>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</t>
+  </si>
+  <si>
+    <t>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30</t>
+  </si>
+  <si>
+    <t>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점,144점,145점,146점</t>
+  </si>
+  <si>
+    <t>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</t>
+  </si>
+  <si>
+    <t>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</t>
+  </si>
+  <si>
+    <t>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3054,7 +3040,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3268,9 +3254,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -3371,26 +3354,6 @@
           </cell>
           <cell r="P76" t="str">
             <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="M93" t="str">
-            <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="M94" t="str">
-            <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="M95" t="str">
-            <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="M96" t="str">
-            <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
           </cell>
         </row>
       </sheetData>
@@ -3701,9 +3664,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:T110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4503,16 +4466,16 @@
         <v>10</v>
       </c>
       <c r="M14" s="51" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="N14" s="49" t="s">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="P14" s="49" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="Q14" t="s">
         <v>610</v>
@@ -6964,16 +6927,16 @@
         <v>10</v>
       </c>
       <c r="M57" s="51" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="N57" s="49" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="O57" s="51" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="P57" s="49" t="s">
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="Q57" t="s">
         <v>610</v>
@@ -7692,16 +7655,16 @@
         <v>10</v>
       </c>
       <c r="M70" s="20" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="N70" s="27" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="O70" s="20" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="P70" s="20" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
       <c r="Q70" t="s">
         <v>610</v>
@@ -7972,16 +7935,16 @@
         <v>10</v>
       </c>
       <c r="M75" s="51" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="N75" s="49" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="O75" s="53" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="P75" s="49" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="Q75" t="s">
         <v>610</v>
@@ -8028,16 +7991,16 @@
         <v>10</v>
       </c>
       <c r="M76" s="51" t="s">
-        <v>704</v>
+        <v>723</v>
       </c>
       <c r="N76" s="49" t="s">
-        <v>706</v>
+        <v>720</v>
       </c>
       <c r="O76" s="53" t="s">
-        <v>705</v>
+        <v>721</v>
       </c>
       <c r="P76" s="49" t="s">
-        <v>703</v>
+        <v>724</v>
       </c>
       <c r="Q76" t="s">
         <v>610</v>
@@ -8980,16 +8943,16 @@
         <v>10</v>
       </c>
       <c r="M93" s="51" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="N93" s="52" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="O93" s="51" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="P93" s="49" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="Q93" t="s">
         <v>610</v>
@@ -10197,7 +10160,7 @@
   <dimension ref="A2:AE50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10972,20 +10935,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8EAE7F4-8691-4D03-84AF-1960CD5DE767}">
-  <dimension ref="B1:N72"/>
+  <dimension ref="B1:N74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.5" style="59" customWidth="1"/>
-    <col min="2" max="2" width="8.75" style="71"/>
-    <col min="3" max="5" width="11.875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="71" customWidth="1"/>
-    <col min="7" max="7" width="11.375" style="73" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="73" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="70"/>
+    <col min="3" max="5" width="11.875" style="71" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="70" customWidth="1"/>
+    <col min="7" max="7" width="11.375" style="72" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="72" customWidth="1"/>
     <col min="9" max="9" width="19.25" style="57" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.25" style="57" customWidth="1"/>
     <col min="11" max="11" width="14.625" style="57" bestFit="1" customWidth="1"/>
@@ -11013,7 +10976,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="59" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="C3" s="58"/>
       <c r="D3" s="58"/>
@@ -11025,18 +10988,18 @@
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="57" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C4" s="58"/>
       <c r="D4" s="58"/>
       <c r="E4" s="58"/>
       <c r="F4" s="57"/>
       <c r="G4" s="57" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="H4" s="57"/>
       <c r="K4" s="57" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -11073,7 +11036,7 @@
     </row>
     <row r="6" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B6" s="63" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C6" s="64" t="str">
         <f>[1]TwelveBossTable!M14</f>
@@ -11117,23 +11080,23 @@
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="63" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C7" s="64" t="str">
-        <f>C6&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10&amp;","&amp;C11&amp;","&amp;C12&amp;","&amp;C13&amp;","&amp;C14</f>
-        <v>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+        <f>C6&amp;","&amp;C8&amp;","&amp;C9&amp;","&amp;C10</f>
+        <v>1000000000000000,10000000000000000,10000000000000000000,100000000000000000000,100000000000000000000000,1000000000000000000000000,1000000000000000000000000000,10000000000000000000000000000,10000000000000000000000000000000,100000000000000000000000000000000,500000000000000000000000000000000,1000000000000000000000000000000000,10000000000000000000000000000000000,50000000000000000000000000000000000,100000000000000000000000000000000000,300000000000000000000000000000000000,500000000000000000000000000000000000,800000000000000000000000000000000000,1000000000000000000000000000000000000,2000000000000000000000000000000000000,10000000000000000000000000000000000000,50000000000000000000000000000000000000,100000000000000000000000000000000000000,150000000000000000000000000000000000000,200000000000000000000000000000000000000,300000000000000000000000000000000000000,400000000000000000000000000000000000000,500000000000000000000000000000000000000,600000000000000000000000000000000000000,700000000000000000000000000000000000000,900000000000000000000000000000000000000,1100000000000000000000000000000000000000,1300000000000000000000000000000000000000,1500000000000000000000000000000000000000,2000000000000000000000000000000000000000,2500000000000000000000000000000000000000,3000000000000000000000000000000000000000,5000000000000000000000000000000000000000,7000000000000000000000000000000000000000,10000000000000000000000000000000000000000,15000000000000000000000000000000000000000,20000000000000000000000000000000000000000,30000000000000000000000000000000000000000,40000000000000000000000000000000000000000,60000000000000000000000000000000000000000,80000000000000000000000000000000000000000,100000000000000000000000000000000000000000,150000000000000000000000000000000000000000,200000000000000000000000000000000000000000,300000000000000000000000000000000000000000,500000000000000000000000000000000000000000,700000000000000000000000000000000000000000,1000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000,2000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000,3000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000,36000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000,14000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000,31000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000,24000000000000000000000000000000000000000000000000000,28000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000,42000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000,3500000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000,4500000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000,18000000000000000000000000000000000000000000000000000000000000000000,21000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,65000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,120000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,180000000000000000000000000000000000000000000000000000000000000000000,210000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,1300000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000,800000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</v>
       </c>
       <c r="D7" s="64" t="str">
-        <f t="shared" ref="D7:F7" si="0">D6&amp;","&amp;D8&amp;","&amp;D9&amp;","&amp;D10&amp;","&amp;D11&amp;","&amp;D12&amp;","&amp;D13&amp;","&amp;D14</f>
-        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+        <f>D6&amp;","&amp;D8&amp;","&amp;D9&amp;","&amp;D10</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
       </c>
       <c r="E7" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</v>
+        <f>E6&amp;","&amp;E8&amp;","&amp;E9&amp;","&amp;E10</f>
+        <v>10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,10,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,15,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,20,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30,30</v>
       </c>
       <c r="F7" s="64" t="str">
-        <f t="shared" si="0"/>
-        <v>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+        <f>F6&amp;","&amp;F8&amp;","&amp;F9&amp;","&amp;F10</f>
+        <v>1000조,1경,1000경,1해,1000해,1자,1000자,1양,1000양,1구,5구,10구,100구,500구,1000구,3000구,5000구,8000구,1간,2간,10간,50간,100간,150간,200간,300간,400간,500간,600간,700간,900간,1100간,1300간,1500간,2000간,2500간,3000간,5000간,7000간,1정,1정5000간,2정,3정,4정,6정,8정,10정,15정,20정,30정,50정,70정,100정,150정,200정,250정,300정,500정,700정,1000정,1300정,1600정,2000정,2400정,3000정,3600정,4200정,5000정,6000정,8000정,1재,2재,3재,5재,7재,10재,13재,16재,20재,30재,40재,50재,70재,90재,110재,140재,170재,240재,310재,400재,500재,700재,900재,1200재,1500재,2000재,2500재,3500재,5000재,7000재,1극,1극5000재,2극,2극5000재,3극,4극,5극,7극,10극,13극,16극,20극,30극,40극,60극,80극,100극,130극,160극,200극,250극,300극,350극,500극,700극,1000극,1500극,2000극,3000극,5000극,7000극,1항,1항3000극,1항6000극,2항,2항4000극,2항8000극,3항5000극,4항2000극,5항,6항,8항,10항,15항,20항,25항,30항,40항,50항,60항,80항,100항,200항,300항,500항,700항,1000항,1500항,2000항,2500항,3000항,4000항,5000항,6000항,8000항,1아,1아3000항,1아6000항,2아,2아5000항,3아,5아,7아,10아,15아,20아,30아,50아,60아,80아,100아,120아,150아,180아,210아,250아,300아,350아,400아,500아,700아,1000아,1500아,2000아,2500아,3000아,4000아,5000아,6000아,8000아,1나,2나,4나,6나,10나,15나,20나,30나,40나,60나,80나,100나,150나,200나,250나,300나,400나,500나,700나,1000나,1500나,2000나,2500나,3000나,4000나,5000나,7000나,1불,1불5000나,2불,2불5000나,3불,4불,5불,6불,8불,10불,15불,20불,25불,35불,50불,70불,100불,130불,160불,200불,250불,300불,350불,400불,450불,500불,600불,800불,1000불,1200불,1500불,1800불,2100불,2500불,3000불,3500불,5000불,6500불,8000불,1무,1무2000불,1무5000불,1무8000불,2무1000불,2무5000불,3무,3무5000불,4무,5무,6무,8무,10무,15무,20무,30무,50무,70무,100무,130무,160무,200무,250무,300무,400무,500무,600무,800무,1000무,1500무,2000무,3000무,5000무,7000무,1대,1대3000무,1대6000무,2대,2대5000무,3대,5대,7대,10대,15대,20대,30대,50대,70대,100대,130대,160대,200대,250대,300대,400대,500대,600대,800대,1000대,1500대,2000대,4000대,6000대,8000대,1겁,1겁5000대,2겁,3겁,5겁,7겁,10겁,15겁,20겁,40겁,60겁,100겁,150겁,200겁,300겁,400겁,500겁,600겁,800겁,1000겁,1200겁,1600겁,2000겁,4000겁,1업,2업,4업,8업,12업,20업,30업,40업,100업,200업,400업,1000업,2000업,4000업,6000업,1긍,1긍5000업,2긍,4긍,10긍,20긍,40긍,50긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</v>
       </c>
       <c r="G7" s="65">
         <v>0</v>
@@ -11151,21 +11114,21 @@
         <v>8</v>
       </c>
       <c r="M7" s="68">
-        <f t="shared" ref="M7:M29" si="1">POWER(10,L7)</f>
+        <f t="shared" ref="M7:M29" si="0">POWER(10,L7)</f>
         <v>100000000</v>
       </c>
       <c r="N7" s="68" t="str">
-        <f t="shared" ref="N7:N29" si="2">RIGHT(M7,L7)</f>
+        <f t="shared" ref="N7:N29" si="1">RIGHT(M7,L7)</f>
         <v>00000000</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" s="63">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="C8" s="64">
-        <f t="shared" ref="C8:C14" si="3">G8*I8</f>
-        <v>1.0000000000000001E+97</v>
+        <f t="shared" ref="C8:C10" si="2">G8*I8</f>
+        <v>1.0000000000000001E+99</v>
       </c>
       <c r="D8" s="64">
         <v>25</v>
@@ -11174,17 +11137,17 @@
         <v>30</v>
       </c>
       <c r="F8" s="64" t="str">
-        <f t="shared" ref="F8:F14" si="4">G8&amp;H8</f>
-        <v>10가</v>
+        <f t="shared" ref="F8:F10" si="3">G8&amp;H8</f>
+        <v>1000가</v>
       </c>
       <c r="G8" s="69">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H8" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I8" s="67" t="str">
-        <f t="shared" ref="I8:I14" si="5">VLOOKUP(H8,K:N,4,FALSE)</f>
+        <f t="shared" ref="I8:I10" si="4">VLOOKUP(H8,K:N,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K8" s="67" t="s">
@@ -11194,21 +11157,21 @@
         <v>12</v>
       </c>
       <c r="M8" s="68">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="N8" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="N8" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>000000000000</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="63">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C9" s="64">
-        <f t="shared" si="3"/>
-        <v>2.0000000000000001E+97</v>
+        <f t="shared" si="2"/>
+        <v>1.6E+99</v>
       </c>
       <c r="D9" s="64">
         <v>25</v>
@@ -11217,17 +11180,17 @@
         <v>30</v>
       </c>
       <c r="F9" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>20가</v>
+        <f t="shared" si="3"/>
+        <v>1600가</v>
       </c>
       <c r="G9" s="69">
-        <v>20</v>
+        <v>1600</v>
       </c>
       <c r="H9" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I9" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
       <c r="K9" s="67" t="s">
@@ -11237,21 +11200,21 @@
         <v>16</v>
       </c>
       <c r="M9" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="N9" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1E+16</v>
-      </c>
-      <c r="N9" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>0000000000000000</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="63">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C10" s="64">
-        <f t="shared" si="3"/>
-        <v>5E+97</v>
+        <f t="shared" si="2"/>
+        <v>2.0000000000000002E+99</v>
       </c>
       <c r="D10" s="64">
         <v>25</v>
@@ -11260,17 +11223,17 @@
         <v>30</v>
       </c>
       <c r="F10" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>50가</v>
+        <f t="shared" si="3"/>
+        <v>2000가</v>
       </c>
       <c r="G10" s="69">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I10" s="67" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1E+96</v>
       </c>
       <c r="K10" s="67" t="s">
@@ -11280,42 +11243,23 @@
         <v>20</v>
       </c>
       <c r="M10" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+20</v>
+      </c>
+      <c r="N10" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
-      <c r="N10" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+20</v>
-      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B11" s="63">
-        <v>237</v>
-      </c>
-      <c r="C11" s="64">
-        <f t="shared" si="3"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D11" s="64">
-        <v>25</v>
-      </c>
-      <c r="E11" s="64">
-        <v>30</v>
-      </c>
-      <c r="F11" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>100가</v>
-      </c>
-      <c r="G11" s="69">
-        <v>100</v>
-      </c>
-      <c r="H11" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I11" s="67" t="str">
-        <f t="shared" si="5"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="67"/>
       <c r="K11" s="67" t="s">
         <v>50</v>
       </c>
@@ -11323,42 +11267,23 @@
         <v>24</v>
       </c>
       <c r="M11" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="N11" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999998E+23</v>
-      </c>
-      <c r="N11" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+24</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B12" s="63">
-        <v>238</v>
-      </c>
-      <c r="C12" s="64">
-        <f t="shared" si="3"/>
-        <v>1.5000000000000001E+98</v>
-      </c>
-      <c r="D12" s="64">
-        <v>25</v>
-      </c>
-      <c r="E12" s="64">
-        <v>30</v>
-      </c>
-      <c r="F12" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>150가</v>
-      </c>
-      <c r="G12" s="69">
-        <v>150</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I12" s="67" t="str">
-        <f t="shared" si="5"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="67"/>
       <c r="K12" s="67" t="s">
         <v>33</v>
       </c>
@@ -11366,42 +11291,23 @@
         <v>28</v>
       </c>
       <c r="M12" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="N12" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999996E+27</v>
-      </c>
-      <c r="N12" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+28</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B13" s="63">
-        <v>239</v>
-      </c>
-      <c r="C13" s="64">
-        <f t="shared" si="3"/>
-        <v>2E+98</v>
-      </c>
-      <c r="D13" s="64">
-        <v>25</v>
-      </c>
-      <c r="E13" s="64">
-        <v>30</v>
-      </c>
-      <c r="F13" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>200가</v>
-      </c>
-      <c r="G13" s="69">
-        <v>200</v>
-      </c>
-      <c r="H13" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I13" s="67" t="str">
-        <f t="shared" si="5"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
       <c r="K13" s="67" t="s">
         <v>665</v>
       </c>
@@ -11409,42 +11315,23 @@
         <v>32</v>
       </c>
       <c r="M13" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="N13" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1.0000000000000001E+32</v>
-      </c>
-      <c r="N13" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+32</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B14" s="63">
-        <v>240</v>
-      </c>
-      <c r="C14" s="64">
-        <f t="shared" si="3"/>
-        <v>3.0000000000000001E+98</v>
-      </c>
-      <c r="D14" s="64">
-        <v>25</v>
-      </c>
-      <c r="E14" s="64">
-        <v>30</v>
-      </c>
-      <c r="F14" s="64" t="str">
-        <f t="shared" si="4"/>
-        <v>300가</v>
-      </c>
-      <c r="G14" s="69">
-        <v>300</v>
-      </c>
-      <c r="H14" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I14" s="67" t="str">
-        <f t="shared" si="5"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
       <c r="K14" s="67" t="s">
         <v>666</v>
       </c>
@@ -11452,11 +11339,11 @@
         <v>36</v>
       </c>
       <c r="M14" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+36</v>
+      </c>
+      <c r="N14" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1E+36</v>
-      </c>
-      <c r="N14" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -11476,11 +11363,11 @@
         <v>40</v>
       </c>
       <c r="M15" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+40</v>
+      </c>
+      <c r="N15" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1E+40</v>
-      </c>
-      <c r="N15" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -11500,11 +11387,11 @@
         <v>44</v>
       </c>
       <c r="M16" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="N16" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1.0000000000000001E+44</v>
-      </c>
-      <c r="N16" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -11524,11 +11411,11 @@
         <v>48</v>
       </c>
       <c r="M17" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+48</v>
+      </c>
+      <c r="N17" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1E+48</v>
-      </c>
-      <c r="N17" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -11550,24 +11437,24 @@
         <v>52</v>
       </c>
       <c r="M18" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="N18" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999999E+51</v>
-      </c>
-      <c r="N18" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+52</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="57" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C19" s="58"/>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
       <c r="F19" s="57"/>
       <c r="G19" s="57" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="H19" s="57"/>
       <c r="K19" s="67" t="s">
@@ -11577,11 +11464,11 @@
         <v>56</v>
       </c>
       <c r="M19" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="N19" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1.0000000000000001E+56</v>
-      </c>
-      <c r="N19" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -11615,17 +11502,17 @@
         <v>60</v>
       </c>
       <c r="M20" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="N20" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999995E+59</v>
-      </c>
-      <c r="N20" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+60</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B21" s="63" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C21" s="64" t="str">
         <f>[1]TwelveBossTable!M57</f>
@@ -11659,33 +11546,33 @@
         <v>64</v>
       </c>
       <c r="M21" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+64</v>
+      </c>
+      <c r="N21" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1E+64</v>
       </c>
-      <c r="N21" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+64</v>
-      </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="63" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C22" s="64" t="str">
-        <f>C21&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25&amp;","&amp;C26&amp;","&amp;C27&amp;","&amp;C28&amp;","&amp;C29</f>
-        <v>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+        <f>C21&amp;","&amp;C23&amp;","&amp;C24&amp;","&amp;C25</f>
+        <v>1000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000,900000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000,12000000000000000000000000000000000000000000000000000000000000000000000000,16000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</v>
       </c>
       <c r="D22" s="64" t="str">
-        <f t="shared" ref="D22:F22" si="6">D21&amp;","&amp;D23&amp;","&amp;D24&amp;","&amp;D25&amp;","&amp;D26&amp;","&amp;D27&amp;","&amp;D28&amp;","&amp;D29</f>
-        <v>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,25,25,25,25,25,25,25</v>
+        <f>D21&amp;","&amp;D23&amp;","&amp;D24&amp;","&amp;D25</f>
+        <v>5,20,20,20,20,46,46,46,46,73,73,73,73,73,73,73,73,73,73,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,88,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001,9001</v>
       </c>
       <c r="E22" s="64" t="str">
-        <f t="shared" si="6"/>
-        <v>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,30,30,30,30,30,30,30</v>
+        <f>E21&amp;","&amp;E23&amp;","&amp;E24&amp;","&amp;E25</f>
+        <v>50000000,50000,50000,50000,50000,20000,20000,20000,20000,2000,2000,2000,3000,3000,3000,3000,3000,3000,3000,500,600,700,800,900,1000,1100,1200,1300,1400,1500,1600,1700,1800,1900,2000,2100,2200,2300,2400,2500,2600,2700,2800,2900,3000,3100,3200,3300,3400,3500,3600,3700,3800,3900,4000,4100,4200,4300,4400,4500,4600,4700,4800,4900,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,5000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,7000,30,30,30</v>
       </c>
       <c r="F22" s="64" t="str">
-        <f t="shared" si="6"/>
-        <v>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+        <f>F21&amp;","&amp;F23&amp;","&amp;F24&amp;","&amp;F25</f>
+        <v>1나,100나,1000나,5000나,1불,100불,500불,1000불,5000불,8000불,1무,1무5000불,2무,2무5000불,3무,4무,5무,7무,9무,15무,20무,30무,50무,100무,150무,200무,300무,400무,1000무,1500무,2000무,3000무,5000무,7000무,1대,4대,8대,12대,16대,20대,40대,70대,100대,150대,200대,400대,600대,1000대,5000대,1겁,3겁,5겁,10겁,20겁,30겁,50겁,100겁,200겁,400겁,600겁,1000겁,1500겁,2000겁,3000겁,1업,3업,5업,10업,20업,50업,100업,200업,500업,1000업,2000업,3000업,6000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</v>
       </c>
       <c r="G22" s="65">
         <v>0</v>
@@ -11703,40 +11590,40 @@
         <v>68</v>
       </c>
       <c r="M22" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="N22" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999995E+67</v>
-      </c>
-      <c r="N22" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+68</v>
       </c>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="63">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="C23" s="64">
-        <f t="shared" ref="C23:C29" si="7">G23*I23</f>
-        <v>1.0000000000000001E+97</v>
+        <f t="shared" ref="C23:C25" si="5">G23*I23</f>
+        <v>1.0000000000000001E+99</v>
       </c>
       <c r="D23" s="64">
-        <v>25</v>
+        <v>9001</v>
       </c>
       <c r="E23" s="64">
         <v>30</v>
       </c>
       <c r="F23" s="64" t="str">
-        <f t="shared" ref="F23:F29" si="8">G23&amp;H23</f>
-        <v>10가</v>
+        <f t="shared" ref="F23:F25" si="6">G23&amp;H23</f>
+        <v>1000가</v>
       </c>
       <c r="G23" s="69">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H23" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I23" s="67" t="str">
-        <f t="shared" ref="I23:I29" si="9">VLOOKUP(H23,K:N,4,FALSE)</f>
+        <f t="shared" ref="I23:I25" si="7">VLOOKUP(H23,K:N,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K23" s="67" t="s">
@@ -11746,40 +11633,40 @@
         <v>72</v>
       </c>
       <c r="M23" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="N23" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999994E+71</v>
-      </c>
-      <c r="N23" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+72</v>
       </c>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="63">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C24" s="64">
-        <f t="shared" si="7"/>
-        <v>2.0000000000000001E+97</v>
+        <f t="shared" si="5"/>
+        <v>1.6E+99</v>
       </c>
       <c r="D24" s="64">
-        <v>25</v>
+        <v>9001</v>
       </c>
       <c r="E24" s="64">
         <v>30</v>
       </c>
       <c r="F24" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>20가</v>
+        <f t="shared" si="6"/>
+        <v>1600가</v>
       </c>
       <c r="G24" s="69">
-        <v>20</v>
+        <v>1600</v>
       </c>
       <c r="H24" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I24" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
       <c r="K24" s="67" t="s">
@@ -11789,40 +11676,40 @@
         <v>76</v>
       </c>
       <c r="M24" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+76</v>
+      </c>
+      <c r="N24" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1E+76</v>
       </c>
-      <c r="N24" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+76</v>
-      </c>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="63">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C25" s="64">
-        <f t="shared" si="7"/>
-        <v>5E+97</v>
+        <f t="shared" si="5"/>
+        <v>2.0000000000000002E+99</v>
       </c>
       <c r="D25" s="64">
-        <v>25</v>
+        <v>9001</v>
       </c>
       <c r="E25" s="64">
         <v>30</v>
       </c>
       <c r="F25" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>50가</v>
+        <f t="shared" si="6"/>
+        <v>2000가</v>
       </c>
       <c r="G25" s="69">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="H25" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I25" s="67" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
       <c r="K25" s="67" t="s">
@@ -11832,42 +11719,23 @@
         <v>80</v>
       </c>
       <c r="M25" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+80</v>
+      </c>
+      <c r="N25" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1E+80</v>
       </c>
-      <c r="N25" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+80</v>
-      </c>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B26" s="63">
-        <v>237</v>
-      </c>
-      <c r="C26" s="64">
-        <f t="shared" si="7"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D26" s="64">
-        <v>25</v>
-      </c>
-      <c r="E26" s="64">
-        <v>30</v>
-      </c>
-      <c r="F26" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>100가</v>
-      </c>
-      <c r="G26" s="69">
-        <v>100</v>
-      </c>
-      <c r="H26" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I26" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="64"/>
+      <c r="F26" s="64"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="67"/>
       <c r="K26" s="67" t="s">
         <v>679</v>
       </c>
@@ -11875,42 +11743,23 @@
         <v>84</v>
       </c>
       <c r="M26" s="68">
+        <f t="shared" si="0"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="N26" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1.0000000000000001E+84</v>
-      </c>
-      <c r="N26" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+84</v>
       </c>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B27" s="63">
-        <v>238</v>
-      </c>
-      <c r="C27" s="64">
-        <f t="shared" si="7"/>
-        <v>1.5000000000000001E+98</v>
-      </c>
-      <c r="D27" s="64">
-        <v>25</v>
-      </c>
-      <c r="E27" s="64">
-        <v>30</v>
-      </c>
-      <c r="F27" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>150가</v>
-      </c>
-      <c r="G27" s="69">
-        <v>150</v>
-      </c>
-      <c r="H27" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I27" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="67"/>
       <c r="K27" s="67" t="s">
         <v>661</v>
       </c>
@@ -11918,42 +11767,23 @@
         <v>88</v>
       </c>
       <c r="M27" s="68">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="N27" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>9.9999999999999996E+87</v>
-      </c>
-      <c r="N27" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+88</v>
       </c>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B28" s="63">
-        <v>239</v>
-      </c>
-      <c r="C28" s="64">
-        <f t="shared" si="7"/>
-        <v>2E+98</v>
-      </c>
-      <c r="D28" s="64">
-        <v>25</v>
-      </c>
-      <c r="E28" s="64">
-        <v>30</v>
-      </c>
-      <c r="F28" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>200가</v>
-      </c>
-      <c r="G28" s="69">
-        <v>200</v>
-      </c>
-      <c r="H28" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I28" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
       <c r="K28" s="67" t="s">
         <v>670</v>
       </c>
@@ -11961,42 +11791,23 @@
         <v>92</v>
       </c>
       <c r="M28" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+92</v>
+      </c>
+      <c r="N28" s="68" t="str">
         <f t="shared" si="1"/>
         <v>1E+92</v>
       </c>
-      <c r="N28" s="68" t="str">
-        <f t="shared" si="2"/>
-        <v>1E+92</v>
-      </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.3">
-      <c r="B29" s="63">
-        <v>240</v>
-      </c>
-      <c r="C29" s="64">
-        <f t="shared" si="7"/>
-        <v>3.0000000000000001E+98</v>
-      </c>
-      <c r="D29" s="64">
-        <v>25</v>
-      </c>
-      <c r="E29" s="64">
-        <v>30</v>
-      </c>
-      <c r="F29" s="64" t="str">
-        <f t="shared" si="8"/>
-        <v>300가</v>
-      </c>
-      <c r="G29" s="69">
-        <v>300</v>
-      </c>
-      <c r="H29" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I29" s="67" t="str">
-        <f t="shared" si="9"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="64"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
       <c r="K29" s="67" t="s">
         <v>680</v>
       </c>
@@ -12004,11 +11815,11 @@
         <v>96</v>
       </c>
       <c r="M29" s="68">
+        <f t="shared" si="0"/>
+        <v>1E+96</v>
+      </c>
+      <c r="N29" s="68" t="str">
         <f t="shared" si="1"/>
-        <v>1E+96</v>
-      </c>
-      <c r="N29" s="68" t="str">
-        <f t="shared" si="2"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -12036,14 +11847,14 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="57" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C34" s="58"/>
       <c r="D34" s="58"/>
       <c r="E34" s="58"/>
       <c r="F34" s="57"/>
       <c r="G34" s="57" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="H34" s="57"/>
     </row>
@@ -12071,7 +11882,7 @@
     </row>
     <row r="36" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B36" s="63" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C36" s="64" t="str">
         <f>[1]TwelveBossTable!M75</f>
@@ -12099,23 +11910,23 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="63" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C37" s="64" t="str">
-        <f>C36&amp;","&amp;C38&amp;","&amp;C39&amp;","&amp;C40&amp;","&amp;C41&amp;","&amp;C42&amp;","&amp;C43&amp;","&amp;C44</f>
-        <v>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,143,144,145,146,147,148,150</v>
+        <f>C36&amp;","&amp;C38&amp;","&amp;C39&amp;","&amp;C40</f>
+        <v>31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,71,72,73,74,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93,94,95,96,97,98,99,100,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</v>
       </c>
       <c r="D37" s="64" t="str">
-        <f t="shared" ref="D37:F37" si="10">D36&amp;","&amp;D38&amp;","&amp;D39&amp;","&amp;D40&amp;","&amp;D41&amp;","&amp;D42&amp;","&amp;D43&amp;","&amp;D44</f>
-        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+        <f>D36&amp;","&amp;D38&amp;","&amp;D39&amp;","&amp;D40</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
       </c>
       <c r="E37" s="64" t="str">
-        <f t="shared" si="10"/>
-        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30,30,30,30,30</v>
+        <f>E36&amp;","&amp;E38&amp;","&amp;E39&amp;","&amp;E40</f>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30</v>
       </c>
       <c r="F37" s="64" t="str">
-        <f t="shared" si="10"/>
-        <v>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점,143점,144점,145점,146점,147점,148점,150점</v>
+        <f>F36&amp;","&amp;F38&amp;","&amp;F39&amp;","&amp;F40</f>
+        <v>31점,32점,33점,34점,35점,36점,37점,38점,39점,40점,41점,42점,43점,44점,45점,46점,47점,48점,49점,50점,51점,52점,53점,54점,55점,56점,57점,58점,59점,60점,61점,62점,63점,64점,65점,66점,67점,68점,69점,70점,71점,72점,73점,74점,75점,76점,77점,78점,79점,80점,81점,82점,83점,84점,85점,86점,87점,88점,89점,90점,91점,92점,93점,94점,95점,96점,97점,98점,99점,100점,101점,102점,103점,104점,105점,106점,107점,108점,109점,110점,111점,112점,113점,114점,115점,116점,117점,118점,119점,120점,121점,122점,123점,124점,125점,126점,127점,128점,129점,130점,131점,132점,133점,134점,135점,136점,137점,138점,139점,140점,141점,142점,143점,144점,145점,146점</v>
       </c>
       <c r="G37" s="65">
         <v>0</v>
@@ -12127,11 +11938,11 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="63">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="C38" s="64">
         <f>G38</f>
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D38" s="64">
         <v>25</v>
@@ -12140,24 +11951,24 @@
         <v>30</v>
       </c>
       <c r="F38" s="64" t="str">
-        <f t="shared" ref="F38:F44" si="11">G38&amp;H38</f>
-        <v>143점</v>
+        <f t="shared" ref="F38:F40" si="8">G38&amp;H38</f>
+        <v>144점</v>
       </c>
       <c r="G38" s="69">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H38" s="66" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="I38" s="59"/>
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="63">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C39" s="64">
-        <f t="shared" ref="C39:C44" si="12">G39</f>
-        <v>144</v>
+        <f t="shared" ref="C39:C40" si="9">G39</f>
+        <v>145</v>
       </c>
       <c r="D39" s="64">
         <v>25</v>
@@ -12166,24 +11977,24 @@
         <v>30</v>
       </c>
       <c r="F39" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>144점</v>
+        <f t="shared" si="8"/>
+        <v>145점</v>
       </c>
       <c r="G39" s="69">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H39" s="66" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="I39" s="59"/>
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="63">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C40" s="64">
-        <f t="shared" si="12"/>
-        <v>145</v>
+        <f t="shared" si="9"/>
+        <v>146</v>
       </c>
       <c r="D40" s="64">
         <v>25</v>
@@ -12192,119 +12003,55 @@
         <v>30</v>
       </c>
       <c r="F40" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>145점</v>
+        <f t="shared" si="8"/>
+        <v>146점</v>
       </c>
       <c r="G40" s="69">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H40" s="66" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="I40" s="59"/>
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="63">
-        <v>237</v>
-      </c>
-      <c r="C41" s="64">
-        <f t="shared" si="12"/>
-        <v>146</v>
-      </c>
-      <c r="D41" s="64">
-        <v>25</v>
-      </c>
-      <c r="E41" s="64">
-        <v>30</v>
-      </c>
-      <c r="F41" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>146점</v>
-      </c>
-      <c r="G41" s="69">
-        <v>146</v>
-      </c>
-      <c r="H41" s="66" t="s">
-        <v>724</v>
-      </c>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="64"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="66"/>
       <c r="I41" s="59"/>
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B42" s="63">
-        <v>238</v>
-      </c>
-      <c r="C42" s="64">
-        <f t="shared" si="12"/>
-        <v>147</v>
-      </c>
-      <c r="D42" s="64">
-        <v>25</v>
-      </c>
-      <c r="E42" s="64">
-        <v>30</v>
-      </c>
-      <c r="F42" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>147점</v>
-      </c>
-      <c r="G42" s="69">
-        <v>147</v>
-      </c>
-      <c r="H42" s="66" t="s">
-        <v>724</v>
-      </c>
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="66"/>
       <c r="I42" s="59"/>
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B43" s="63">
-        <v>239</v>
-      </c>
-      <c r="C43" s="64">
-        <f t="shared" si="12"/>
-        <v>148</v>
-      </c>
-      <c r="D43" s="64">
-        <v>25</v>
-      </c>
-      <c r="E43" s="64">
-        <v>30</v>
-      </c>
-      <c r="F43" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>148점</v>
-      </c>
-      <c r="G43" s="69">
-        <v>148</v>
-      </c>
-      <c r="H43" s="66" t="s">
-        <v>724</v>
-      </c>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="66"/>
       <c r="I43" s="59"/>
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B44" s="63">
-        <v>240</v>
-      </c>
-      <c r="C44" s="64">
-        <f t="shared" si="12"/>
-        <v>150</v>
-      </c>
-      <c r="D44" s="64">
-        <v>25</v>
-      </c>
-      <c r="E44" s="64">
-        <v>30</v>
-      </c>
-      <c r="F44" s="64" t="str">
-        <f t="shared" si="11"/>
-        <v>150점</v>
-      </c>
-      <c r="G44" s="69">
-        <v>150</v>
-      </c>
-      <c r="H44" s="66" t="s">
-        <v>724</v>
-      </c>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="64"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="66"/>
       <c r="I44" s="59"/>
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.3">
@@ -12319,7 +12066,7 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="59" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
@@ -12331,14 +12078,14 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="57" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C48" s="58"/>
       <c r="D48" s="58"/>
       <c r="E48" s="58"/>
       <c r="F48" s="57"/>
       <c r="G48" s="57" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="H48" s="57"/>
     </row>
@@ -12368,7 +12115,7 @@
     </row>
     <row r="50" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B50" s="63" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="C50" s="64" t="str">
         <f>[1]TwelveBossTable!M76</f>
@@ -12398,23 +12145,23 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="63" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
       <c r="C51" s="64" t="str">
-        <f>C50&amp;","&amp;C52&amp;","&amp;C53&amp;","&amp;C54&amp;","&amp;C55&amp;","&amp;C56&amp;","&amp;C57&amp;","&amp;C58</f>
-        <v>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
+        <f>C50&amp;","&amp;C52&amp;","&amp;C53&amp;","&amp;C54</f>
+        <v>10000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000,130000000000000000000000000000000000000000000000000000000000000000000000000,160000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000,450000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000,150000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000,700000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000,500000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,6000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,8000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,4000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,200000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,400000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,600000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1E+99,1.6E+99,2E+99</v>
       </c>
       <c r="D51" s="64" t="str">
-        <f t="shared" ref="D51:F51" si="13">D50&amp;","&amp;D52&amp;","&amp;D53&amp;","&amp;D54&amp;","&amp;D55&amp;","&amp;D56&amp;","&amp;D57&amp;","&amp;D58</f>
-        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
+        <f>D50&amp;","&amp;D52&amp;","&amp;D53&amp;","&amp;D54</f>
+        <v>25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25,25</v>
       </c>
       <c r="E51" s="64" t="str">
-        <f t="shared" si="13"/>
-        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30,30,30,30,30</v>
+        <f>E50&amp;","&amp;E52&amp;","&amp;E53&amp;","&amp;E54</f>
+        <v>200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,200,30,30,30</v>
       </c>
       <c r="F51" s="64" t="str">
-        <f t="shared" si="13"/>
-        <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,10가,20가,50가,100가,150가,200가,300가</v>
+        <f>F50&amp;","&amp;F52&amp;","&amp;F53&amp;","&amp;F54</f>
+        <v>1불,10불,100불,1000불,5000불,1무,10무,100무,1000무,5000무,1대,5대,10대,15대,20대,30대,40대,60대,80대,100대,130대,160대,200대,250대,300대,350대,400대,450대,500대,600대,700대,1000대,5000대,1겁,3겁,5겁,10겁,15겁,20겁,30겁,50겁,70겁,100겁,300겁,500겁,1000겁,2000겁,1업,3업,5업,10업,20업,50업,100업,250업,500업,1000업,2000업,3000업,5000업,1긍,2긍,5긍,10긍,25긍,50긍,100긍,200긍,1000긍,6000긍,1갈,2갈,4갈,10갈,20갈,40갈,60갈,100갈,120갈,140갈,160갈,200갈,300갈,400갈,500갈,600갈,800갈,1500갈,2000갈,4000갈,1라,2라,4라,10라,20라,40라,100라,200라,400라,1000라,2000라,4000라,1가,2가,4가,10가,20가,40가,100가,200가,300가,400가,600가,1000가,1600가,2000가</v>
       </c>
       <c r="G51" s="65">
         <v>0</v>
@@ -12428,11 +12175,11 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="63">
-        <v>234</v>
+        <v>1</v>
       </c>
       <c r="C52" s="64">
-        <f t="shared" ref="C52:C58" si="14">G52*I52</f>
-        <v>1.0000000000000001E+97</v>
+        <f>G52*I52</f>
+        <v>1.0000000000000001E+99</v>
       </c>
       <c r="D52" s="64">
         <v>25</v>
@@ -12441,27 +12188,27 @@
         <v>30</v>
       </c>
       <c r="F52" s="64" t="str">
-        <f t="shared" ref="F52:F58" si="15">G52&amp;H52</f>
-        <v>10가</v>
+        <f t="shared" ref="F52:F54" si="10">G52&amp;H52</f>
+        <v>1000가</v>
       </c>
       <c r="G52" s="69">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="H52" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I52" s="67" t="str">
-        <f t="shared" ref="I52:I58" si="16">VLOOKUP(H52,K:N,4,FALSE)</f>
+        <f>VLOOKUP(H52,K:N,4,FALSE)</f>
         <v>1E+96</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="63">
-        <v>235</v>
+        <v>2</v>
       </c>
       <c r="C53" s="64">
-        <f t="shared" si="14"/>
-        <v>2.0000000000000001E+97</v>
+        <f>G53*I53</f>
+        <v>1.6E+99</v>
       </c>
       <c r="D53" s="64">
         <v>25</v>
@@ -12470,27 +12217,27 @@
         <v>30</v>
       </c>
       <c r="F53" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>20가</v>
+        <f t="shared" si="10"/>
+        <v>1600가</v>
       </c>
       <c r="G53" s="69">
-        <v>20</v>
+        <v>1600</v>
       </c>
       <c r="H53" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I53" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(H53,K:N,4,FALSE)</f>
         <v>1E+96</v>
       </c>
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="63">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C54" s="64">
-        <f t="shared" si="14"/>
-        <v>5E+97</v>
+        <f>G54*I54</f>
+        <v>2.0000000000000002E+99</v>
       </c>
       <c r="D54" s="64">
         <v>25</v>
@@ -12499,140 +12246,62 @@
         <v>30</v>
       </c>
       <c r="F54" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>50가</v>
+        <f t="shared" si="10"/>
+        <v>2000가</v>
       </c>
       <c r="G54" s="69">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="66" t="s">
         <v>680</v>
       </c>
       <c r="I54" s="67" t="str">
-        <f t="shared" si="16"/>
+        <f>VLOOKUP(H54,K:N,4,FALSE)</f>
         <v>1E+96</v>
       </c>
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B55" s="63">
-        <v>237</v>
-      </c>
-      <c r="C55" s="64">
-        <f t="shared" si="14"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D55" s="64">
-        <v>25</v>
-      </c>
-      <c r="E55" s="64">
-        <v>30</v>
-      </c>
-      <c r="F55" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>100가</v>
-      </c>
-      <c r="G55" s="69">
-        <v>100</v>
-      </c>
-      <c r="H55" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I55" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="69"/>
+      <c r="H55" s="66"/>
+      <c r="I55" s="67"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B56" s="63">
-        <v>238</v>
-      </c>
-      <c r="C56" s="64">
-        <f t="shared" si="14"/>
-        <v>1.5000000000000001E+98</v>
-      </c>
-      <c r="D56" s="64">
-        <v>25</v>
-      </c>
-      <c r="E56" s="64">
-        <v>30</v>
-      </c>
-      <c r="F56" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>150가</v>
-      </c>
-      <c r="G56" s="69">
-        <v>150</v>
-      </c>
-      <c r="H56" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I56" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="64"/>
+      <c r="F56" s="64"/>
+      <c r="G56" s="69"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="67"/>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" s="63">
-        <v>239</v>
-      </c>
-      <c r="C57" s="64">
-        <f t="shared" si="14"/>
-        <v>2E+98</v>
-      </c>
-      <c r="D57" s="64">
-        <v>25</v>
-      </c>
-      <c r="E57" s="64">
-        <v>30</v>
-      </c>
-      <c r="F57" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>200가</v>
-      </c>
-      <c r="G57" s="69">
-        <v>200</v>
-      </c>
-      <c r="H57" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I57" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="64"/>
+      <c r="F57" s="64"/>
+      <c r="G57" s="69"/>
+      <c r="H57" s="66"/>
+      <c r="I57" s="67"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" s="63">
-        <v>240</v>
-      </c>
-      <c r="C58" s="64">
-        <f t="shared" si="14"/>
-        <v>3.0000000000000001E+98</v>
-      </c>
-      <c r="D58" s="64">
-        <v>25</v>
-      </c>
-      <c r="E58" s="64">
-        <v>30</v>
-      </c>
-      <c r="F58" s="64" t="str">
-        <f t="shared" si="15"/>
-        <v>300가</v>
-      </c>
-      <c r="G58" s="69">
-        <v>300</v>
-      </c>
-      <c r="H58" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I58" s="67" t="str">
-        <f t="shared" si="16"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="69"/>
+      <c r="H58" s="66"/>
+      <c r="I58" s="67"/>
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B61" s="59" t="s">
-        <v>726</v>
-      </c>
+      <c r="B61" s="59"/>
       <c r="C61" s="58"/>
       <c r="D61" s="58"/>
       <c r="E61" s="58"/>
@@ -12642,304 +12311,134 @@
       <c r="I61" s="59"/>
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B62" s="57" t="s">
-        <v>719</v>
-      </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="58"/>
-      <c r="E62" s="58"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57" t="s">
-        <v>720</v>
-      </c>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="61"/>
-      <c r="C63" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="D63" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="62" t="s">
-        <v>65</v>
-      </c>
-      <c r="G63" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="H63" s="61" t="s">
-        <v>657</v>
-      </c>
-      <c r="I63" s="61" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="63" t="s">
-        <v>722</v>
-      </c>
-      <c r="C64" s="70" t="str">
-        <f>[1]TwelveBossTable!M93</f>
-        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25</v>
-      </c>
-      <c r="D64" s="70" t="str">
-        <f>[1]TwelveBossTable!M94</f>
-        <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="E64" s="70" t="str">
-        <f>[1]TwelveBossTable!M95</f>
-        <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="F64" s="70" t="str">
-        <f>[1]TwelveBossTable!M96</f>
-        <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000</v>
-      </c>
-      <c r="G64" s="65">
-        <v>0</v>
-      </c>
-      <c r="H64" s="66">
-        <v>0</v>
-      </c>
-      <c r="I64" s="67">
-        <v>0</v>
-      </c>
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="59"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="59"/>
+      <c r="H62" s="59"/>
+      <c r="I62" s="59"/>
+    </row>
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B63" s="59"/>
+      <c r="C63" s="59"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="59"/>
+      <c r="F63" s="59"/>
+      <c r="G63" s="59"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="59"/>
+    </row>
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="59"/>
+      <c r="F64" s="59"/>
+      <c r="G64" s="59"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="59"/>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="63" t="s">
-        <v>723</v>
-      </c>
-      <c r="C65" s="64" t="str">
-        <f>C64&amp;","&amp;C66&amp;","&amp;C67&amp;","&amp;C68&amp;","&amp;C69&amp;","&amp;C70&amp;","&amp;C71&amp;","&amp;C72</f>
-        <v>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,1E+97,2E+97,5E+97,1E+98,1.5E+98,2E+98,3E+98</v>
-      </c>
-      <c r="D65" s="64" t="str">
-        <f t="shared" ref="D65:F65" si="17">D64&amp;","&amp;D66&amp;","&amp;D67&amp;","&amp;D68&amp;","&amp;D69&amp;","&amp;D70&amp;","&amp;D71&amp;","&amp;D72</f>
-        <v>10000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,250000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,300000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,350000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,1500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,2500000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,25,25,25,25,25,25,25</v>
-      </c>
-      <c r="E65" s="64" t="str">
-        <f t="shared" si="17"/>
-        <v>3000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,5000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,7000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,9000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,11000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,13000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,15000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,17000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,20000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,30,30,30,30,30,30,30</v>
-      </c>
-      <c r="F65" s="64" t="str">
-        <f t="shared" si="17"/>
-        <v>30000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,35000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,40000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,50000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,60000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,70000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,80000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,90000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,100000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000,10가,20가,50가,100가,150가,200가,300가</v>
-      </c>
-      <c r="G65" s="65">
-        <v>0</v>
-      </c>
-      <c r="H65" s="66">
-        <v>0</v>
-      </c>
-      <c r="I65" s="67">
-        <v>0</v>
-      </c>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="59"/>
+      <c r="F65" s="59"/>
+      <c r="G65" s="59"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="59"/>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B66" s="63">
-        <v>234</v>
-      </c>
-      <c r="C66" s="64">
-        <f t="shared" ref="C66:C72" si="18">G66*I66</f>
-        <v>1.0000000000000001E+97</v>
-      </c>
-      <c r="D66" s="64">
-        <v>25</v>
-      </c>
-      <c r="E66" s="64">
-        <v>30</v>
-      </c>
-      <c r="F66" s="64" t="str">
-        <f t="shared" ref="F66:F72" si="19">G66&amp;H66</f>
-        <v>10가</v>
-      </c>
-      <c r="G66" s="69">
-        <v>10</v>
-      </c>
-      <c r="H66" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I66" s="67" t="str">
-        <f t="shared" ref="I66:I72" si="20">VLOOKUP(H66,K:N,4,FALSE)</f>
-        <v>1E+96</v>
-      </c>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="59"/>
+      <c r="F66" s="59"/>
+      <c r="G66" s="59"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="63">
-        <v>235</v>
-      </c>
-      <c r="C67" s="64">
-        <f t="shared" si="18"/>
-        <v>2.0000000000000001E+97</v>
-      </c>
-      <c r="D67" s="64">
-        <v>25</v>
-      </c>
-      <c r="E67" s="64">
-        <v>30</v>
-      </c>
-      <c r="F67" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>20가</v>
-      </c>
-      <c r="G67" s="69">
-        <v>20</v>
-      </c>
-      <c r="H67" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I67" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B67" s="59"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="59"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="59"/>
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="63">
-        <v>236</v>
-      </c>
-      <c r="C68" s="64">
-        <f t="shared" si="18"/>
-        <v>5E+97</v>
-      </c>
-      <c r="D68" s="64">
-        <v>25</v>
-      </c>
-      <c r="E68" s="64">
-        <v>30</v>
-      </c>
-      <c r="F68" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>50가</v>
-      </c>
-      <c r="G68" s="69">
-        <v>50</v>
-      </c>
-      <c r="H68" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I68" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B68" s="59"/>
+      <c r="C68" s="59"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="59"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="63">
-        <v>237</v>
-      </c>
-      <c r="C69" s="64">
-        <f t="shared" si="18"/>
-        <v>1E+98</v>
-      </c>
-      <c r="D69" s="64">
-        <v>25</v>
-      </c>
-      <c r="E69" s="64">
-        <v>30</v>
-      </c>
-      <c r="F69" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>100가</v>
-      </c>
-      <c r="G69" s="69">
-        <v>100</v>
-      </c>
-      <c r="H69" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I69" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="59"/>
+      <c r="F69" s="59"/>
+      <c r="G69" s="59"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="59"/>
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="63">
-        <v>238</v>
-      </c>
-      <c r="C70" s="64">
-        <f t="shared" si="18"/>
-        <v>1.5000000000000001E+98</v>
-      </c>
-      <c r="D70" s="64">
-        <v>25</v>
-      </c>
-      <c r="E70" s="64">
-        <v>30</v>
-      </c>
-      <c r="F70" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>150가</v>
-      </c>
-      <c r="G70" s="69">
-        <v>150</v>
-      </c>
-      <c r="H70" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I70" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59"/>
+      <c r="G70" s="59"/>
+      <c r="H70" s="59"/>
+      <c r="I70" s="59"/>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="63">
-        <v>239</v>
-      </c>
-      <c r="C71" s="64">
-        <f t="shared" si="18"/>
-        <v>2E+98</v>
-      </c>
-      <c r="D71" s="64">
-        <v>25</v>
-      </c>
-      <c r="E71" s="64">
-        <v>30</v>
-      </c>
-      <c r="F71" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>200가</v>
-      </c>
-      <c r="G71" s="69">
-        <v>200</v>
-      </c>
-      <c r="H71" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I71" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B72" s="63">
-        <v>240</v>
-      </c>
-      <c r="C72" s="64">
-        <f t="shared" si="18"/>
-        <v>3.0000000000000001E+98</v>
-      </c>
-      <c r="D72" s="64">
-        <v>25</v>
-      </c>
-      <c r="E72" s="64">
-        <v>30</v>
-      </c>
-      <c r="F72" s="64" t="str">
-        <f t="shared" si="19"/>
-        <v>300가</v>
-      </c>
-      <c r="G72" s="69">
-        <v>300</v>
-      </c>
-      <c r="H72" s="66" t="s">
-        <v>680</v>
-      </c>
-      <c r="I72" s="67" t="str">
-        <f t="shared" si="20"/>
-        <v>1E+96</v>
-      </c>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="59"/>
+      <c r="F73" s="59"/>
+      <c r="G73" s="59"/>
+      <c r="H73" s="59"/>
+      <c r="I73" s="59"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
+      <c r="E74" s="59"/>
+      <c r="F74" s="59"/>
+      <c r="G74" s="59"/>
+      <c r="H74" s="59"/>
+      <c r="I74" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
